--- a/EC/Train Runs and Enforcements 2016-07-12.xlsx
+++ b/EC/Train Runs and Enforcements 2016-07-12.xlsx
@@ -3062,7 +3062,7 @@
   <dimension ref="A1:CM156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V79" sqref="V79"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,6 +3478,10 @@
       <c r="N11" s="116"/>
       <c r="O11" s="116"/>
       <c r="P11" s="116"/>
+      <c r="S11" s="26">
+        <f>AVERAGE(S22:S157)</f>
+        <v>0.99088541666666663</v>
+      </c>
     </row>
     <row r="12" spans="1:91" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
@@ -3682,7 +3686,7 @@
         <v>3.3113425924966577E-2</v>
       </c>
       <c r="N13" s="7">
-        <f t="shared" ref="N13:N73" si="2">24*60*SUM($M13:$M13)</f>
+        <f t="shared" ref="N13:N59" si="2">24*60*SUM($M13:$M13)</f>
         <v>47.683333331951872</v>
       </c>
       <c r="O13" s="7"/>
@@ -3895,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="27" t="str">
-        <f t="shared" ref="K15:K77" si="15">IF(ISEVEN(B15),(B15-1)&amp;"/"&amp;B15,B15&amp;"/"&amp;(B15+1))</f>
+        <f t="shared" ref="K15:K59" si="15">IF(ISEVEN(B15),(B15-1)&amp;"/"&amp;B15,B15&amp;"/"&amp;(B15+1))</f>
         <v>4009/4010</v>
       </c>
       <c r="L15" s="27" t="str">
@@ -3903,7 +3907,7 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" ref="M15:M77" si="16">I15-F15</f>
+        <f t="shared" ref="M15:M59" si="16">I15-F15</f>
         <v>3.0671296291984618E-2</v>
       </c>
       <c r="N15" s="7">
@@ -3915,11 +3919,11 @@
       <c r="Q15" s="28"/>
       <c r="R15" s="28"/>
       <c r="S15" s="46">
-        <f t="shared" ref="S15:S77" si="17">SUM(U15:U15)/12</f>
+        <f t="shared" ref="S15:S59" si="17">SUM(U15:U15)/12</f>
         <v>1</v>
       </c>
       <c r="T15" s="72" t="str">
-        <f t="shared" ref="T15:T77" si="18">IF(ISEVEN(LEFT(A15,3)),"Southbound","NorthBound")</f>
+        <f t="shared" ref="T15:T59" si="18">IF(ISEVEN(LEFT(A15,3)),"Southbound","NorthBound")</f>
         <v>NorthBound</v>
       </c>
       <c r="U15" s="108">
@@ -3927,27 +3931,27 @@
         <v>12</v>
       </c>
       <c r="V15" s="77" t="str">
-        <f t="shared" ref="V15:V77" si="19">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E15-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I15+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B15&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="V15:V59" si="19">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E15-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I15+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B15&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 02:37:12-0600',mode:absolute,to:'2016-07-12 05:23:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W15" s="77" t="str">
-        <f t="shared" ref="W15:W77" si="20">IF(AA15&lt;23,"Y","N")</f>
+        <f t="shared" ref="W15:W59" si="20">IF(AA15&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X15" s="103">
-        <f t="shared" ref="X15:X77" si="21">VALUE(LEFT(A15,3))-VALUE(LEFT(A14,3))</f>
+        <f t="shared" ref="X15:X59" si="21">VALUE(LEFT(A15,3))-VALUE(LEFT(A14,3))</f>
         <v>1</v>
       </c>
       <c r="Y15" s="100">
-        <f t="shared" ref="Y15:Y77" si="22">RIGHT(D15,LEN(D15)-4)/10000</f>
+        <f t="shared" ref="Y15:Y59" si="22">RIGHT(D15,LEN(D15)-4)/10000</f>
         <v>6.4600000000000005E-2</v>
       </c>
       <c r="Z15" s="100">
-        <f t="shared" ref="Z15:Z77" si="23">RIGHT(H15,LEN(H15)-4)/10000</f>
+        <f t="shared" ref="Z15:Z59" si="23">RIGHT(H15,LEN(H15)-4)/10000</f>
         <v>23.3355</v>
       </c>
       <c r="AA15" s="100">
-        <f t="shared" ref="AA15:AA77" si="24">ABS(Z15-Y15)</f>
+        <f t="shared" ref="AA15:AA59" si="24">ABS(Z15-Y15)</f>
         <v>23.270900000000001</v>
       </c>
       <c r="AB15" s="97" t="e">
@@ -3959,7 +3963,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD15" s="94" t="str">
-        <f t="shared" ref="AD15:AD77" si="25">IF(LEN(A15)=6,"0"&amp;A15,A15)</f>
+        <f t="shared" ref="AD15:AD59" si="25">IF(LEN(A15)=6,"0"&amp;A15,A15)</f>
         <v>0103-12</v>
       </c>
       <c r="AE15" s="78" t="str">
@@ -8936,7 +8940,7 @@
         <v>2</v>
       </c>
       <c r="K60" s="27" t="str">
-        <f>IF(ISEVEN(B60),(B60-1)&amp;"/"&amp;B60,B60&amp;"/"&amp;(B60+1))</f>
+        <f t="shared" ref="K60:K91" si="29">IF(ISEVEN(B60),(B60-1)&amp;"/"&amp;B60,B60&amp;"/"&amp;(B60+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L60" s="27" t="str">
@@ -8944,7 +8948,7 @@
         <v>STORY</v>
       </c>
       <c r="M60" s="6">
-        <f>I60-F60</f>
+        <f t="shared" ref="M60:M91" si="30">I60-F60</f>
         <v>2.3946759254613426E-2</v>
       </c>
       <c r="N60" s="7"/>
@@ -8962,7 +8966,7 @@
         <v>1</v>
       </c>
       <c r="T60" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A60,3)),"Southbound","NorthBound")</f>
+        <f t="shared" ref="T60:T91" si="31">IF(ISEVEN(LEFT(A60,3)),"Southbound","NorthBound")</f>
         <v>Southbound</v>
       </c>
       <c r="U60" s="108">
@@ -8970,27 +8974,27 @@
         <v>12</v>
       </c>
       <c r="V60" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E60-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I60+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B60&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="V60:V91" si="32">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E60-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I60+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B60&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 14:09:40-0600',mode:absolute,to:'2016-07-12 16:45:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W60" s="77" t="str">
-        <f>IF(AA60&lt;23,"Y","N")</f>
+        <f t="shared" ref="W60:W84" si="33">IF(AA60&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="X60" s="103">
-        <f>VALUE(LEFT(A60,3))-VALUE(LEFT(A59,3))</f>
+        <f t="shared" ref="X60:X91" si="34">VALUE(LEFT(A60,3))-VALUE(LEFT(A59,3))</f>
         <v>35</v>
       </c>
       <c r="Y60" s="100">
-        <f>RIGHT(D60,LEN(D60)-4)/10000</f>
+        <f t="shared" ref="Y60:Y91" si="35">RIGHT(D60,LEN(D60)-4)/10000</f>
         <v>15.3986</v>
       </c>
       <c r="Z60" s="100">
-        <f>RIGHT(H60,LEN(H60)-4)/10000</f>
+        <f t="shared" ref="Z60:Z91" si="36">RIGHT(H60,LEN(H60)-4)/10000</f>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="AA60" s="100">
-        <f>ABS(Z60-Y60)</f>
+        <f t="shared" ref="AA60:AA91" si="37">ABS(Z60-Y60)</f>
         <v>15.3841</v>
       </c>
       <c r="AB60" s="97">
@@ -9002,7 +9006,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
       <c r="AD60" s="94" t="str">
-        <f>IF(LEN(A60)=6,"0"&amp;A60,A60)</f>
+        <f t="shared" ref="AD60:AD91" si="38">IF(LEN(A60)=6,"0"&amp;A60,A60)</f>
         <v>0184-12</v>
       </c>
       <c r="AE60" s="78" t="str">
@@ -9050,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="27" t="str">
-        <f>IF(ISEVEN(B61),(B61-1)&amp;"/"&amp;B61,B61&amp;"/"&amp;(B61+1))</f>
+        <f t="shared" si="29"/>
         <v>4011/4012</v>
       </c>
       <c r="L61" s="27" t="str">
@@ -9058,7 +9062,7 @@
         <v>SPECTOR</v>
       </c>
       <c r="M61" s="6">
-        <f>I61-F61</f>
+        <f t="shared" si="30"/>
         <v>4.0046296344371513E-3</v>
       </c>
       <c r="N61" s="7"/>
@@ -9068,7 +9072,7 @@
       <c r="R61" s="28"/>
       <c r="S61" s="46"/>
       <c r="T61" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A61,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>Southbound</v>
       </c>
       <c r="U61" s="108">
@@ -9076,27 +9080,27 @@
         <v>0</v>
       </c>
       <c r="V61" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E61-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I61+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B61&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 09:35:58-0600',mode:absolute,to:'2016-07-12 11:43:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W61" s="77" t="str">
-        <f>IF(AA61&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>Y</v>
       </c>
       <c r="X61" s="103">
-        <f>VALUE(LEFT(A61,3))-VALUE(LEFT(A60,3))</f>
+        <f t="shared" si="34"/>
         <v>-34</v>
       </c>
       <c r="Y61" s="100">
-        <f>RIGHT(D61,LEN(D61)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>23.2988</v>
       </c>
       <c r="Z61" s="100">
-        <f>RIGHT(H61,LEN(H61)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.236799999999999</v>
       </c>
       <c r="AA61" s="100">
-        <f>ABS(Z61-Y61)</f>
+        <f t="shared" si="37"/>
         <v>6.2000000000001165E-2</v>
       </c>
       <c r="AB61" s="97" t="e">
@@ -9108,7 +9112,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD61" s="94" t="str">
-        <f>IF(LEN(A61)=6,"0"&amp;A61,A61)</f>
+        <f t="shared" si="38"/>
         <v>0150-12</v>
       </c>
       <c r="AE61" s="78" t="str">
@@ -9156,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="27" t="str">
-        <f>IF(ISEVEN(B62),(B62-1)&amp;"/"&amp;B62,B62&amp;"/"&amp;(B62+1))</f>
+        <f t="shared" si="29"/>
         <v>4015/4016</v>
       </c>
       <c r="L62" s="27" t="str">
@@ -9164,11 +9168,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M62" s="6">
-        <f>I62-F62</f>
+        <f t="shared" si="30"/>
         <v>2.8171296296932269E-2</v>
       </c>
       <c r="N62" s="7">
-        <f>24*60*SUM($M62:$M62)</f>
+        <f t="shared" ref="N62:N76" si="39">24*60*SUM($M62:$M62)</f>
         <v>40.566666667582467</v>
       </c>
       <c r="O62" s="7"/>
@@ -9176,11 +9180,11 @@
       <c r="Q62" s="28"/>
       <c r="R62" s="28"/>
       <c r="S62" s="46">
-        <f>SUM(U62:U62)/12</f>
+        <f t="shared" ref="S62:S76" si="40">SUM(U62:U62)/12</f>
         <v>1</v>
       </c>
       <c r="T62" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A62,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>NorthBound</v>
       </c>
       <c r="U62" s="108">
@@ -9188,27 +9192,27 @@
         <v>12</v>
       </c>
       <c r="V62" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E62-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I62+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B62&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 08:54:39-0600',mode:absolute,to:'2016-07-12 11:36:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W62" s="77" t="str">
-        <f>IF(AA62&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X62" s="103">
-        <f>VALUE(LEFT(A62,3))-VALUE(LEFT(A61,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y62" s="100">
-        <f>RIGHT(D62,LEN(D62)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="Z62" s="100">
-        <f>RIGHT(H62,LEN(H62)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.3291</v>
       </c>
       <c r="AA62" s="100">
-        <f>ABS(Z62-Y62)</f>
+        <f t="shared" si="37"/>
         <v>23.282700000000002</v>
       </c>
       <c r="AB62" s="97" t="e">
@@ -9220,7 +9224,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD62" s="94" t="str">
-        <f>IF(LEN(A62)=6,"0"&amp;A62,A62)</f>
+        <f t="shared" si="38"/>
         <v>0151-12</v>
       </c>
       <c r="AE62" s="78" t="str">
@@ -9268,7 +9272,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="27" t="str">
-        <f>IF(ISEVEN(B63),(B63-1)&amp;"/"&amp;B63,B63&amp;"/"&amp;(B63+1))</f>
+        <f t="shared" si="29"/>
         <v>4015/4016</v>
       </c>
       <c r="L63" s="27" t="str">
@@ -9276,11 +9280,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M63" s="6">
-        <f>I63-F63</f>
+        <f t="shared" si="30"/>
         <v>3.7731481475930195E-2</v>
       </c>
       <c r="N63" s="7">
-        <f>24*60*SUM($M63:$M63)</f>
+        <f t="shared" si="39"/>
         <v>54.333333325339481</v>
       </c>
       <c r="O63" s="7"/>
@@ -9288,11 +9292,11 @@
       <c r="Q63" s="28"/>
       <c r="R63" s="28"/>
       <c r="S63" s="46">
-        <f>SUM(U63:U63)/12</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="T63" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A63,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>Southbound</v>
       </c>
       <c r="U63" s="108">
@@ -9300,27 +9304,27 @@
         <v>12</v>
       </c>
       <c r="V63" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E63-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I63+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B63&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 09:39:27-0600',mode:absolute,to:'2016-07-12 12:35:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W63" s="77" t="str">
-        <f>IF(AA63&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X63" s="103">
-        <f>VALUE(LEFT(A63,3))-VALUE(LEFT(A62,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y63" s="100">
-        <f>RIGHT(D63,LEN(D63)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>23.299600000000002</v>
       </c>
       <c r="Z63" s="100">
-        <f>RIGHT(H63,LEN(H63)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>1.49E-2</v>
       </c>
       <c r="AA63" s="100">
-        <f>ABS(Z63-Y63)</f>
+        <f t="shared" si="37"/>
         <v>23.284700000000001</v>
       </c>
       <c r="AB63" s="97" t="e">
@@ -9332,7 +9336,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD63" s="94" t="str">
-        <f>IF(LEN(A63)=6,"0"&amp;A63,A63)</f>
+        <f t="shared" si="38"/>
         <v>0152-12</v>
       </c>
       <c r="AE63" s="78" t="str">
@@ -9380,7 +9384,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="27" t="str">
-        <f>IF(ISEVEN(B64),(B64-1)&amp;"/"&amp;B64,B64&amp;"/"&amp;(B64+1))</f>
+        <f t="shared" si="29"/>
         <v>4043/4044</v>
       </c>
       <c r="L64" s="27" t="str">
@@ -9388,11 +9392,11 @@
         <v>DAVIS</v>
       </c>
       <c r="M64" s="6">
-        <f>I64-F64</f>
+        <f t="shared" si="30"/>
         <v>2.9108796297805384E-2</v>
       </c>
       <c r="N64" s="7">
-        <f>24*60*SUM($M64:$M64)</f>
+        <f t="shared" si="39"/>
         <v>41.916666668839753</v>
       </c>
       <c r="O64" s="7"/>
@@ -9400,11 +9404,11 @@
       <c r="Q64" s="28"/>
       <c r="R64" s="28"/>
       <c r="S64" s="46">
-        <f>SUM(U64:U64)/12</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="T64" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A64,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>NorthBound</v>
       </c>
       <c r="U64" s="108">
@@ -9412,27 +9416,27 @@
         <v>12</v>
       </c>
       <c r="V64" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E64-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I64+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B64&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 09:09:20-0600',mode:absolute,to:'2016-07-12 11:52:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W64" s="77" t="str">
-        <f>IF(AA64&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X64" s="103">
-        <f>VALUE(LEFT(A64,3))-VALUE(LEFT(A63,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y64" s="100">
-        <f>RIGHT(D64,LEN(D64)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="Z64" s="100">
-        <f>RIGHT(H64,LEN(H64)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.330500000000001</v>
       </c>
       <c r="AA64" s="100">
-        <f>ABS(Z64-Y64)</f>
+        <f t="shared" si="37"/>
         <v>23.2836</v>
       </c>
       <c r="AB64" s="97">
@@ -9444,7 +9448,7 @@
         <v>SIGNAL</v>
       </c>
       <c r="AD64" s="94" t="str">
-        <f>IF(LEN(A64)=6,"0"&amp;A64,A64)</f>
+        <f t="shared" si="38"/>
         <v>0153-12</v>
       </c>
       <c r="AE64" s="78" t="str">
@@ -9492,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="27" t="str">
-        <f>IF(ISEVEN(B65),(B65-1)&amp;"/"&amp;B65,B65&amp;"/"&amp;(B65+1))</f>
+        <f t="shared" si="29"/>
         <v>4043/4044</v>
       </c>
       <c r="L65" s="27" t="str">
@@ -9500,11 +9504,11 @@
         <v>DAVIS</v>
       </c>
       <c r="M65" s="6">
-        <f>I65-F65</f>
+        <f t="shared" si="30"/>
         <v>2.9351851851970423E-2</v>
       </c>
       <c r="N65" s="7">
-        <f>24*60*SUM($M65:$M65)</f>
+        <f t="shared" si="39"/>
         <v>42.266666666837409</v>
       </c>
       <c r="O65" s="7"/>
@@ -9512,11 +9516,11 @@
       <c r="Q65" s="28"/>
       <c r="R65" s="28"/>
       <c r="S65" s="46">
-        <f>SUM(U65:U65)/12</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="T65" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A65,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>Southbound</v>
       </c>
       <c r="U65" s="108">
@@ -9524,27 +9528,27 @@
         <v>12</v>
       </c>
       <c r="V65" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E65-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I65+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B65&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 10:04:45-0600',mode:absolute,to:'2016-07-12 12:48:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W65" s="77" t="str">
-        <f>IF(AA65&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X65" s="103">
-        <f>VALUE(LEFT(A65,3))-VALUE(LEFT(A64,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y65" s="100">
-        <f>RIGHT(D65,LEN(D65)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>23.297799999999999</v>
       </c>
       <c r="Z65" s="100">
-        <f>RIGHT(H65,LEN(H65)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AA65" s="100">
-        <f>ABS(Z65-Y65)</f>
+        <f t="shared" si="37"/>
         <v>23.282799999999998</v>
       </c>
       <c r="AB65" s="97" t="e">
@@ -9556,7 +9560,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD65" s="94" t="str">
-        <f>IF(LEN(A65)=6,"0"&amp;A65,A65)</f>
+        <f t="shared" si="38"/>
         <v>0154-12</v>
       </c>
       <c r="AE65" s="78" t="str">
@@ -9604,7 +9608,7 @@
         <v>1</v>
       </c>
       <c r="K66" s="27" t="str">
-        <f>IF(ISEVEN(B66),(B66-1)&amp;"/"&amp;B66,B66&amp;"/"&amp;(B66+1))</f>
+        <f t="shared" si="29"/>
         <v>4041/4042</v>
       </c>
       <c r="L66" s="27" t="str">
@@ -9612,11 +9616,11 @@
         <v>STARKS</v>
       </c>
       <c r="M66" s="6">
-        <f>I66-F66</f>
+        <f t="shared" si="30"/>
         <v>2.8912037036207039E-2</v>
       </c>
       <c r="N66" s="7">
-        <f>24*60*SUM($M66:$M66)</f>
+        <f t="shared" si="39"/>
         <v>41.633333332138136</v>
       </c>
       <c r="O66" s="7"/>
@@ -9624,11 +9628,11 @@
       <c r="Q66" s="28"/>
       <c r="R66" s="28"/>
       <c r="S66" s="46">
-        <f>SUM(U66:U66)/12</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="T66" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A66,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>NorthBound</v>
       </c>
       <c r="U66" s="108">
@@ -9636,27 +9640,27 @@
         <v>12</v>
       </c>
       <c r="V66" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E66-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I66+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B66&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 09:24:45-0600',mode:absolute,to:'2016-07-12 12:07:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W66" s="77" t="str">
-        <f>IF(AA66&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X66" s="103">
-        <f>VALUE(LEFT(A66,3))-VALUE(LEFT(A65,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y66" s="100">
-        <f>RIGHT(D66,LEN(D66)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="Z66" s="100">
-        <f>RIGHT(H66,LEN(H66)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.330200000000001</v>
       </c>
       <c r="AA66" s="100">
-        <f>ABS(Z66-Y66)</f>
+        <f t="shared" si="37"/>
         <v>23.285600000000002</v>
       </c>
       <c r="AB66" s="97">
@@ -9668,7 +9672,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
       <c r="AD66" s="94" t="str">
-        <f>IF(LEN(A66)=6,"0"&amp;A66,A66)</f>
+        <f t="shared" si="38"/>
         <v>0155-12</v>
       </c>
       <c r="AE66" s="78" t="str">
@@ -9716,7 +9720,7 @@
         <v>1</v>
       </c>
       <c r="K67" s="27" t="str">
-        <f>IF(ISEVEN(B67),(B67-1)&amp;"/"&amp;B67,B67&amp;"/"&amp;(B67+1))</f>
+        <f t="shared" si="29"/>
         <v>4041/4042</v>
       </c>
       <c r="L67" s="27" t="str">
@@ -9724,11 +9728,11 @@
         <v>STARKS</v>
       </c>
       <c r="M67" s="6">
-        <f>I67-F67</f>
+        <f t="shared" si="30"/>
         <v>2.7523148150066845E-2</v>
       </c>
       <c r="N67" s="7">
-        <f>24*60*SUM($M67:$M67)</f>
+        <f t="shared" si="39"/>
         <v>39.633333336096257</v>
       </c>
       <c r="O67" s="7"/>
@@ -9736,11 +9740,11 @@
       <c r="Q67" s="28"/>
       <c r="R67" s="28"/>
       <c r="S67" s="46">
-        <f>SUM(U67:U67)/12</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="T67" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A67,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>Southbound</v>
       </c>
       <c r="U67" s="108">
@@ -9748,27 +9752,27 @@
         <v>12</v>
       </c>
       <c r="V67" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E67-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I67+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B67&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 10:24:08-0600',mode:absolute,to:'2016-07-12 13:05:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W67" s="77" t="str">
-        <f>IF(AA67&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X67" s="103">
-        <f>VALUE(LEFT(A67,3))-VALUE(LEFT(A66,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y67" s="100">
-        <f>RIGHT(D67,LEN(D67)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>23.2987</v>
       </c>
       <c r="Z67" s="100">
-        <f>RIGHT(H67,LEN(H67)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>1.43E-2</v>
       </c>
       <c r="AA67" s="100">
-        <f>ABS(Z67-Y67)</f>
+        <f t="shared" si="37"/>
         <v>23.284400000000002</v>
       </c>
       <c r="AB67" s="97" t="e">
@@ -9780,7 +9784,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD67" s="94" t="str">
-        <f>IF(LEN(A67)=6,"0"&amp;A67,A67)</f>
+        <f t="shared" si="38"/>
         <v>0156-12</v>
       </c>
       <c r="AE67" s="78" t="str">
@@ -9828,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="27" t="str">
-        <f>IF(ISEVEN(B68),(B68-1)&amp;"/"&amp;B68,B68&amp;"/"&amp;(B68+1))</f>
+        <f t="shared" si="29"/>
         <v>4009/4010</v>
       </c>
       <c r="L68" s="27" t="str">
@@ -9836,11 +9840,11 @@
         <v>ROCHA</v>
       </c>
       <c r="M68" s="6">
-        <f>I68-F68</f>
+        <f t="shared" si="30"/>
         <v>3.0520833330228925E-2</v>
       </c>
       <c r="N68" s="7">
-        <f>24*60*SUM($M68:$M68)</f>
+        <f t="shared" si="39"/>
         <v>43.949999995529652</v>
       </c>
       <c r="O68" s="7"/>
@@ -9848,11 +9852,11 @@
       <c r="Q68" s="28"/>
       <c r="R68" s="28"/>
       <c r="S68" s="46">
-        <f>SUM(U68:U68)/12</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="T68" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A68,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>NorthBound</v>
       </c>
       <c r="U68" s="108">
@@ -9860,27 +9864,27 @@
         <v>12</v>
       </c>
       <c r="V68" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E68-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I68+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B68&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 09:43:02-0600',mode:absolute,to:'2016-07-12 14:09:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W68" s="77" t="str">
-        <f>IF(AA68&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X68" s="103">
-        <f>VALUE(LEFT(A68,3))-VALUE(LEFT(A67,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y68" s="100">
-        <f>RIGHT(D68,LEN(D68)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="Z68" s="100">
-        <f>RIGHT(H68,LEN(H68)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.3308</v>
       </c>
       <c r="AA68" s="100">
-        <f>ABS(Z68-Y68)</f>
+        <f t="shared" si="37"/>
         <v>23.286999999999999</v>
       </c>
       <c r="AB68" s="97" t="e">
@@ -9892,7 +9896,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD68" s="94" t="str">
-        <f>IF(LEN(A68)=6,"0"&amp;A68,A68)</f>
+        <f t="shared" si="38"/>
         <v>0157-12</v>
       </c>
       <c r="AE68" s="78" t="str">
@@ -9940,7 +9944,7 @@
         <v>1</v>
       </c>
       <c r="K69" s="27" t="str">
-        <f>IF(ISEVEN(B69),(B69-1)&amp;"/"&amp;B69,B69&amp;"/"&amp;(B69+1))</f>
+        <f t="shared" si="29"/>
         <v>4009/4010</v>
       </c>
       <c r="L69" s="27" t="str">
@@ -9948,11 +9952,11 @@
         <v>ROCHA</v>
       </c>
       <c r="M69" s="6">
-        <f>I69-F69</f>
+        <f t="shared" si="30"/>
         <v>2.4027777777519077E-2</v>
       </c>
       <c r="N69" s="7">
-        <f>24*60*SUM($M69:$M69)</f>
+        <f t="shared" si="39"/>
         <v>34.599999999627471</v>
       </c>
       <c r="O69" s="7"/>
@@ -9960,11 +9964,11 @@
       <c r="Q69" s="28"/>
       <c r="R69" s="28"/>
       <c r="S69" s="46">
-        <f>SUM(U69:U69)/12</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="T69" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A69,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>Southbound</v>
       </c>
       <c r="U69" s="108">
@@ -9972,27 +9976,27 @@
         <v>12</v>
       </c>
       <c r="V69" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E69-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I69+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B69&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 10:40:21-0600',mode:absolute,to:'2016-07-12 13:17:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W69" s="77" t="str">
-        <f>IF(AA69&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X69" s="103">
-        <f>VALUE(LEFT(A69,3))-VALUE(LEFT(A68,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y69" s="100">
-        <f>RIGHT(D69,LEN(D69)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>23.297499999999999</v>
       </c>
       <c r="Z69" s="100">
-        <f>RIGHT(H69,LEN(H69)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>1.52E-2</v>
       </c>
       <c r="AA69" s="100">
-        <f>ABS(Z69-Y69)</f>
+        <f t="shared" si="37"/>
         <v>23.282299999999999</v>
       </c>
       <c r="AB69" s="97" t="e">
@@ -10004,7 +10008,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD69" s="94" t="str">
-        <f>IF(LEN(A69)=6,"0"&amp;A69,A69)</f>
+        <f t="shared" si="38"/>
         <v>0158-12</v>
       </c>
       <c r="AE69" s="78" t="str">
@@ -10052,7 +10056,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="27" t="str">
-        <f>IF(ISEVEN(B70),(B70-1)&amp;"/"&amp;B70,B70&amp;"/"&amp;(B70+1))</f>
+        <f t="shared" si="29"/>
         <v>4007/4008</v>
       </c>
       <c r="L70" s="27" t="str">
@@ -10060,11 +10064,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M70" s="6">
-        <f>I70-F70</f>
+        <f t="shared" si="30"/>
         <v>2.9884259260143153E-2</v>
       </c>
       <c r="N70" s="7">
-        <f>24*60*SUM($M70:$M70)</f>
+        <f t="shared" si="39"/>
         <v>43.033333334606141</v>
       </c>
       <c r="O70" s="7"/>
@@ -10072,11 +10076,11 @@
       <c r="Q70" s="28"/>
       <c r="R70" s="28"/>
       <c r="S70" s="46">
-        <f>SUM(U70:U70)/12</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="T70" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A70,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>NorthBound</v>
       </c>
       <c r="U70" s="108">
@@ -10084,27 +10088,27 @@
         <v>12</v>
       </c>
       <c r="V70" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E70-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I70+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B70&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 09:51:58-0600',mode:absolute,to:'2016-07-12 12:36:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W70" s="77" t="str">
-        <f>IF(AA70&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X70" s="103">
-        <f>VALUE(LEFT(A70,3))-VALUE(LEFT(A69,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y70" s="100">
-        <f>RIGHT(D70,LEN(D70)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="Z70" s="100">
-        <f>RIGHT(H70,LEN(H70)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.331499999999998</v>
       </c>
       <c r="AA70" s="100">
-        <f>ABS(Z70-Y70)</f>
+        <f t="shared" si="37"/>
         <v>23.283099999999997</v>
       </c>
       <c r="AB70" s="97" t="e">
@@ -10116,7 +10120,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD70" s="94" t="str">
-        <f>IF(LEN(A70)=6,"0"&amp;A70,A70)</f>
+        <f t="shared" si="38"/>
         <v>0159-12</v>
       </c>
       <c r="AE70" s="78" t="str">
@@ -10164,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="27" t="str">
-        <f>IF(ISEVEN(B71),(B71-1)&amp;"/"&amp;B71,B71&amp;"/"&amp;(B71+1))</f>
+        <f t="shared" si="29"/>
         <v>4007/4008</v>
       </c>
       <c r="L71" s="27" t="str">
@@ -10172,11 +10176,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M71" s="6">
-        <f>I71-F71</f>
+        <f t="shared" si="30"/>
         <v>3.1678240746259689E-2</v>
       </c>
       <c r="N71" s="7">
-        <f>24*60*SUM($M71:$M71)</f>
+        <f t="shared" si="39"/>
         <v>45.616666674613953</v>
       </c>
       <c r="O71" s="7"/>
@@ -10184,11 +10188,11 @@
       <c r="Q71" s="28"/>
       <c r="R71" s="28"/>
       <c r="S71" s="46">
-        <f>SUM(U71:U71)/12</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="T71" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A71,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>Southbound</v>
       </c>
       <c r="U71" s="108">
@@ -10196,27 +10200,27 @@
         <v>12</v>
       </c>
       <c r="V71" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E71-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I71+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B71&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 10:48:42-0600',mode:absolute,to:'2016-07-12 13:37:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W71" s="77" t="str">
-        <f>IF(AA71&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X71" s="103">
-        <f>VALUE(LEFT(A71,3))-VALUE(LEFT(A70,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y71" s="100">
-        <f>RIGHT(D71,LEN(D71)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>23.2989</v>
       </c>
       <c r="Z71" s="100">
-        <f>RIGHT(H71,LEN(H71)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>1.67E-2</v>
       </c>
       <c r="AA71" s="100">
-        <f>ABS(Z71-Y71)</f>
+        <f t="shared" si="37"/>
         <v>23.2822</v>
       </c>
       <c r="AB71" s="97" t="e">
@@ -10228,7 +10232,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD71" s="94" t="str">
-        <f>IF(LEN(A71)=6,"0"&amp;A71,A71)</f>
+        <f t="shared" si="38"/>
         <v>0160-12</v>
       </c>
       <c r="AE71" s="78" t="str">
@@ -10276,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="27" t="str">
-        <f>IF(ISEVEN(B72),(B72-1)&amp;"/"&amp;B72,B72&amp;"/"&amp;(B72+1))</f>
+        <f t="shared" si="29"/>
         <v>4017/4018</v>
       </c>
       <c r="L72" s="27" t="str">
@@ -10284,11 +10288,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M72" s="6">
-        <f>I72-F72</f>
+        <f t="shared" si="30"/>
         <v>2.7662037035042886E-2</v>
       </c>
       <c r="N72" s="7">
-        <f>24*60*SUM($M72:$M72)</f>
+        <f t="shared" si="39"/>
         <v>39.833333330461755</v>
       </c>
       <c r="O72" s="7"/>
@@ -10296,11 +10300,11 @@
       <c r="Q72" s="28"/>
       <c r="R72" s="28"/>
       <c r="S72" s="46">
-        <f>SUM(U72:U72)/12</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="T72" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A72,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>NorthBound</v>
       </c>
       <c r="U72" s="108">
@@ -10308,27 +10312,27 @@
         <v>12</v>
       </c>
       <c r="V72" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E72-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I72+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B72&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 10:09:09-0600',mode:absolute,to:'2016-07-12 12:50:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W72" s="77" t="str">
-        <f>IF(AA72&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X72" s="103">
-        <f>VALUE(LEFT(A72,3))-VALUE(LEFT(A71,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y72" s="100">
-        <f>RIGHT(D72,LEN(D72)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="Z72" s="100">
-        <f>RIGHT(H72,LEN(H72)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.3309</v>
       </c>
       <c r="AA72" s="100">
-        <f>ABS(Z72-Y72)</f>
+        <f t="shared" si="37"/>
         <v>23.285399999999999</v>
       </c>
       <c r="AB72" s="97" t="e">
@@ -10340,7 +10344,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD72" s="94" t="str">
-        <f>IF(LEN(A72)=6,"0"&amp;A72,A72)</f>
+        <f t="shared" si="38"/>
         <v>0161-12</v>
       </c>
       <c r="AE72" s="78" t="str">
@@ -10388,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="27" t="str">
-        <f>IF(ISEVEN(B73),(B73-1)&amp;"/"&amp;B73,B73&amp;"/"&amp;(B73+1))</f>
+        <f t="shared" si="29"/>
         <v>4017/4018</v>
       </c>
       <c r="L73" s="27" t="str">
@@ -10396,11 +10400,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M73" s="6">
-        <f>I73-F73</f>
+        <f t="shared" si="30"/>
         <v>3.5613425927294884E-2</v>
       </c>
       <c r="N73" s="7">
-        <f>24*60*SUM($M73:$M73)</f>
+        <f t="shared" si="39"/>
         <v>51.283333335304633</v>
       </c>
       <c r="O73" s="7"/>
@@ -10408,11 +10412,11 @@
       <c r="Q73" s="28"/>
       <c r="R73" s="28"/>
       <c r="S73" s="46">
-        <f>SUM(U73:U73)/12</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="T73" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A73,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>Southbound</v>
       </c>
       <c r="U73" s="108">
@@ -10420,27 +10424,27 @@
         <v>12</v>
       </c>
       <c r="V73" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E73-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I73+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B73&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 11:03:23-0600',mode:absolute,to:'2016-07-12 13:56:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W73" s="77" t="str">
-        <f>IF(AA73&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X73" s="103">
-        <f>VALUE(LEFT(A73,3))-VALUE(LEFT(A72,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y73" s="100">
-        <f>RIGHT(D73,LEN(D73)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>23.297999999999998</v>
       </c>
       <c r="Z73" s="100">
-        <f>RIGHT(H73,LEN(H73)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AA73" s="100">
-        <f>ABS(Z73-Y73)</f>
+        <f t="shared" si="37"/>
         <v>23.282999999999998</v>
       </c>
       <c r="AB73" s="97" t="e">
@@ -10452,7 +10456,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD73" s="94" t="str">
-        <f>IF(LEN(A73)=6,"0"&amp;A73,A73)</f>
+        <f t="shared" si="38"/>
         <v>0162-12</v>
       </c>
       <c r="AE73" s="78" t="str">
@@ -10500,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="27" t="str">
-        <f>IF(ISEVEN(B74),(B74-1)&amp;"/"&amp;B74,B74&amp;"/"&amp;(B74+1))</f>
+        <f t="shared" si="29"/>
         <v>4011/4012</v>
       </c>
       <c r="L74" s="27" t="str">
@@ -10508,11 +10512,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M74" s="6">
-        <f>I74-F74</f>
+        <f t="shared" si="30"/>
         <v>2.6874999995925464E-2</v>
       </c>
       <c r="N74" s="7">
-        <f>24*60*SUM($M74:$M74)</f>
+        <f t="shared" si="39"/>
         <v>38.699999994132668</v>
       </c>
       <c r="O74" s="7"/>
@@ -10520,11 +10524,11 @@
       <c r="Q74" s="28"/>
       <c r="R74" s="28"/>
       <c r="S74" s="46">
-        <f>SUM(U74:U74)/12</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="T74" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A74,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>NorthBound</v>
       </c>
       <c r="U74" s="108">
@@ -10532,27 +10536,27 @@
         <v>12</v>
       </c>
       <c r="V74" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E74-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I74+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B74&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 10:26:45-0600',mode:absolute,to:'2016-07-12 13:06:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W74" s="77" t="str">
-        <f>IF(AA74&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X74" s="103">
-        <f>VALUE(LEFT(A74,3))-VALUE(LEFT(A73,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y74" s="100">
-        <f>RIGHT(D74,LEN(D74)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="Z74" s="100">
-        <f>RIGHT(H74,LEN(H74)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.333100000000002</v>
       </c>
       <c r="AA74" s="100">
-        <f>ABS(Z74-Y74)</f>
+        <f t="shared" si="37"/>
         <v>23.288</v>
       </c>
       <c r="AB74" s="97" t="e">
@@ -10564,7 +10568,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD74" s="94" t="str">
-        <f>IF(LEN(A74)=6,"0"&amp;A74,A74)</f>
+        <f t="shared" si="38"/>
         <v>0163-12</v>
       </c>
       <c r="AE74" s="78" t="str">
@@ -10612,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="27" t="str">
-        <f>IF(ISEVEN(B75),(B75-1)&amp;"/"&amp;B75,B75&amp;"/"&amp;(B75+1))</f>
+        <f t="shared" si="29"/>
         <v>4011/4012</v>
       </c>
       <c r="L75" s="27" t="str">
@@ -10620,11 +10624,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M75" s="6">
-        <f>I75-F75</f>
+        <f t="shared" si="30"/>
         <v>2.6296296295186039E-2</v>
       </c>
       <c r="N75" s="7">
-        <f>24*60*SUM($M75:$M75)</f>
+        <f t="shared" si="39"/>
         <v>37.866666665067896</v>
       </c>
       <c r="O75" s="7"/>
@@ -10632,11 +10636,11 @@
       <c r="Q75" s="28"/>
       <c r="R75" s="28"/>
       <c r="S75" s="46">
-        <f>SUM(U75:U75)/12</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="T75" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A75,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>Southbound</v>
       </c>
       <c r="U75" s="108">
@@ -10644,27 +10648,27 @@
         <v>12</v>
       </c>
       <c r="V75" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E75-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I75+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B75&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 11:26:24-0600',mode:absolute,to:'2016-07-12 14:06:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W75" s="77" t="str">
-        <f>IF(AA75&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X75" s="103">
-        <f>VALUE(LEFT(A75,3))-VALUE(LEFT(A74,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y75" s="100">
-        <f>RIGHT(D75,LEN(D75)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>23.188199999999998</v>
       </c>
       <c r="Z75" s="100">
-        <f>RIGHT(H75,LEN(H75)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>1.6899999999999998E-2</v>
       </c>
       <c r="AA75" s="100">
-        <f>ABS(Z75-Y75)</f>
+        <f t="shared" si="37"/>
         <v>23.171299999999999</v>
       </c>
       <c r="AB75" s="97" t="e">
@@ -10676,7 +10680,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD75" s="94" t="str">
-        <f>IF(LEN(A75)=6,"0"&amp;A75,A75)</f>
+        <f t="shared" si="38"/>
         <v>0164-12</v>
       </c>
       <c r="AE75" s="78" t="str">
@@ -10724,7 +10728,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="27" t="str">
-        <f>IF(ISEVEN(B76),(B76-1)&amp;"/"&amp;B76,B76&amp;"/"&amp;(B76+1))</f>
+        <f t="shared" si="29"/>
         <v>4015/4016</v>
       </c>
       <c r="L76" s="27" t="str">
@@ -10732,11 +10736,11 @@
         <v>SHOOK</v>
       </c>
       <c r="M76" s="6">
-        <f>I76-F76</f>
+        <f t="shared" si="30"/>
         <v>2.9895833329646848E-2</v>
       </c>
       <c r="N76" s="7">
-        <f>24*60*SUM($M76:$M76)</f>
+        <f t="shared" si="39"/>
         <v>43.049999994691461</v>
       </c>
       <c r="O76" s="7"/>
@@ -10744,11 +10748,11 @@
       <c r="Q76" s="28"/>
       <c r="R76" s="28"/>
       <c r="S76" s="46">
-        <f>SUM(U76:U76)/12</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="T76" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A76,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>NorthBound</v>
       </c>
       <c r="U76" s="108">
@@ -10756,27 +10760,27 @@
         <v>12</v>
       </c>
       <c r="V76" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E76-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I76+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B76&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 10:37:36-0600',mode:absolute,to:'2016-07-12 13:24:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W76" s="77" t="str">
-        <f>IF(AA76&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X76" s="103">
-        <f>VALUE(LEFT(A76,3))-VALUE(LEFT(A75,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y76" s="100">
-        <f>RIGHT(D76,LEN(D76)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>4.58E-2</v>
       </c>
       <c r="Z76" s="100">
-        <f>RIGHT(H76,LEN(H76)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.331600000000002</v>
       </c>
       <c r="AA76" s="100">
-        <f>ABS(Z76-Y76)</f>
+        <f t="shared" si="37"/>
         <v>23.285800000000002</v>
       </c>
       <c r="AB76" s="97" t="e">
@@ -10788,7 +10792,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD76" s="94" t="str">
-        <f>IF(LEN(A76)=6,"0"&amp;A76,A76)</f>
+        <f t="shared" si="38"/>
         <v>0165-12</v>
       </c>
       <c r="AE76" s="78" t="str">
@@ -10836,7 +10840,7 @@
         <v>1</v>
       </c>
       <c r="K77" s="27" t="str">
-        <f>IF(ISEVEN(B77),(B77-1)&amp;"/"&amp;B77,B77&amp;"/"&amp;(B77+1))</f>
+        <f t="shared" si="29"/>
         <v>4041/4042</v>
       </c>
       <c r="L77" s="27" t="str">
@@ -10844,7 +10848,7 @@
         <v>YOUNG</v>
       </c>
       <c r="M77" s="6">
-        <f>I77-F77</f>
+        <f t="shared" si="30"/>
         <v>9.8611111097852699E-3</v>
       </c>
       <c r="N77" s="7"/>
@@ -10862,7 +10866,7 @@
         <v>1</v>
       </c>
       <c r="T77" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A77,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>Southbound</v>
       </c>
       <c r="U77" s="108">
@@ -10870,27 +10874,27 @@
         <v>0</v>
       </c>
       <c r="V77" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E77-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I77+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B77&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 17:14:01-0600',mode:absolute,to:'2016-07-12 19:29:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W77" s="77" t="str">
-        <f>IF(AA77&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>Y</v>
       </c>
       <c r="X77" s="103">
-        <f>VALUE(LEFT(A77,3))-VALUE(LEFT(A76,3))</f>
+        <f t="shared" si="34"/>
         <v>47</v>
       </c>
       <c r="Y77" s="100">
-        <f>RIGHT(D77,LEN(D77)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>23.290700000000001</v>
       </c>
       <c r="Z77" s="100">
-        <f>RIGHT(H77,LEN(H77)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>22.502800000000001</v>
       </c>
       <c r="AA77" s="100">
-        <f>ABS(Z77-Y77)</f>
+        <f t="shared" si="37"/>
         <v>0.78790000000000049</v>
       </c>
       <c r="AB77" s="97" t="e">
@@ -10902,7 +10906,7 @@
         <v>#N/A</v>
       </c>
       <c r="AD77" s="94" t="str">
-        <f>IF(LEN(A77)=6,"0"&amp;A77,A77)</f>
+        <f t="shared" si="38"/>
         <v>0212-12</v>
       </c>
       <c r="AE77" s="78" t="str">
@@ -10950,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="27" t="str">
-        <f>IF(ISEVEN(B78),(B78-1)&amp;"/"&amp;B78,B78&amp;"/"&amp;(B78+1))</f>
+        <f t="shared" si="29"/>
         <v>4043/4044</v>
       </c>
       <c r="L78" s="27" t="str">
@@ -10958,11 +10962,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M78" s="6">
-        <f>I78-F78</f>
+        <f t="shared" si="30"/>
         <v>3.6932870374585036E-2</v>
       </c>
       <c r="N78" s="7">
-        <f>24*60*SUM($M78:$M78)</f>
+        <f t="shared" ref="N78:N88" si="41">24*60*SUM($M78:$M78)</f>
         <v>53.183333339402452</v>
       </c>
       <c r="O78" s="7"/>
@@ -10970,11 +10974,11 @@
       <c r="Q78" s="28"/>
       <c r="R78" s="28"/>
       <c r="S78" s="46">
-        <f>SUM(U78:U78)/12</f>
+        <f t="shared" ref="S78:S88" si="42">SUM(U78:U78)/12</f>
         <v>1</v>
       </c>
       <c r="T78" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A78,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>NorthBound</v>
       </c>
       <c r="U78" s="108">
@@ -10982,27 +10986,27 @@
         <v>12</v>
       </c>
       <c r="V78" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E78-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I78+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B78&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 10:54:02-0600',mode:absolute,to:'2016-07-12 13:48:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W78" s="77" t="str">
-        <f>IF(AA78&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X78" s="103">
-        <f>VALUE(LEFT(A78,3))-VALUE(LEFT(A77,3))</f>
+        <f t="shared" si="34"/>
         <v>-45</v>
       </c>
       <c r="Y78" s="100">
-        <f>RIGHT(D78,LEN(D78)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="Z78" s="100">
-        <f>RIGHT(H78,LEN(H78)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.330400000000001</v>
       </c>
       <c r="AA78" s="100">
-        <f>ABS(Z78-Y78)</f>
+        <f t="shared" si="37"/>
         <v>23.286000000000001</v>
       </c>
       <c r="AB78" s="97" t="e">
@@ -11014,20 +11018,20 @@
         <v>#N/A</v>
       </c>
       <c r="AD78" s="94" t="str">
-        <f>IF(LEN(A78)=6,"0"&amp;A78,A78)</f>
+        <f t="shared" si="38"/>
         <v>0167-12</v>
       </c>
       <c r="AE78" s="78" t="str">
-        <f t="shared" ref="AE78:AE140" si="29">"aws s3 cp "&amp;s3_bucket&amp;"/RTDC"&amp;B78&amp;"/"&amp;TEXT(F78,"YYYY-MM-DD")&amp;"/ "&amp;search_path&amp;"\RTDC"&amp;B78&amp;"\"&amp;TEXT(F78,"YYYY-MM-DD")&amp;" --recursive &amp; """&amp;walkandungz&amp;""" "&amp;search_path&amp;"\RTDC"&amp;B78&amp;"\"&amp;TEXT(F78,"YYYY-MM-DD")
+        <f t="shared" ref="AE78:AE140" si="43">"aws s3 cp "&amp;s3_bucket&amp;"/RTDC"&amp;B78&amp;"/"&amp;TEXT(F78,"YYYY-MM-DD")&amp;"/ "&amp;search_path&amp;"\RTDC"&amp;B78&amp;"\"&amp;TEXT(F78,"YYYY-MM-DD")&amp;" --recursive &amp; """&amp;walkandungz&amp;""" "&amp;search_path&amp;"\RTDC"&amp;B78&amp;"\"&amp;TEXT(F78,"YYYY-MM-DD")
 &amp;" &amp; "&amp;"aws s3 cp "&amp;s3_bucket&amp;"/RTDC"&amp;B78&amp;"/"&amp;TEXT(F78+1,"YYYY-MM-DD")&amp;"/ "&amp;search_path&amp;"\RTDC"&amp;B78&amp;"\"&amp;TEXT(F78+1,"YYYY-MM-DD")&amp;" --recursive &amp; """&amp;walkandungz&amp;""" "&amp;search_path&amp;"\RTDC"&amp;B78&amp;"\"&amp;TEXT(F78+1,"YYYY-MM-DD")</f>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4044/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4044/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-13</v>
       </c>
       <c r="AF78" s="78" t="str">
-        <f t="shared" ref="AF78:AF140" si="30">astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;B78&amp;"*"&amp;TEXT(I78-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(I78-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" ref="AF78:AF140" si="44">astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;B78&amp;"*"&amp;TEXT(I78-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(I78-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4044*20160712*" /stext=" 18:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG78" s="1" t="str">
-        <f t="shared" ref="AG78:AG140" si="31">IF(VALUE(LEFT(A78,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" ref="AG78:AG140" si="45">IF(VALUE(LEFT(A78,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
     </row>
@@ -11063,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="27" t="str">
-        <f>IF(ISEVEN(B79),(B79-1)&amp;"/"&amp;B79,B79&amp;"/"&amp;(B79+1))</f>
+        <f t="shared" si="29"/>
         <v>4043/4044</v>
       </c>
       <c r="L79" s="27" t="str">
@@ -11071,11 +11075,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M79" s="6">
-        <f>I79-F79</f>
+        <f t="shared" si="30"/>
         <v>3.6168981481750961E-2</v>
       </c>
       <c r="N79" s="7">
-        <f>24*60*SUM($M79:$M79)</f>
+        <f t="shared" si="41"/>
         <v>52.083333333721384</v>
       </c>
       <c r="O79" s="7"/>
@@ -11083,11 +11087,11 @@
       <c r="Q79" s="28"/>
       <c r="R79" s="28"/>
       <c r="S79" s="46">
-        <f>SUM(U79:U79)/12</f>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="T79" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A79,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>Southbound</v>
       </c>
       <c r="U79" s="108">
@@ -11095,27 +11099,27 @@
         <v>12</v>
       </c>
       <c r="V79" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E79-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I79+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B79&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 11:51:48-0600',mode:absolute,to:'2016-07-12 14:45:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W79" s="77" t="str">
-        <f>IF(AA79&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X79" s="103">
-        <f>VALUE(LEFT(A79,3))-VALUE(LEFT(A78,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y79" s="100">
-        <f>RIGHT(D79,LEN(D79)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>23.299399999999999</v>
       </c>
       <c r="Z79" s="100">
-        <f>RIGHT(H79,LEN(H79)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>0.02</v>
       </c>
       <c r="AA79" s="100">
-        <f>ABS(Z79-Y79)</f>
+        <f t="shared" si="37"/>
         <v>23.279399999999999</v>
       </c>
       <c r="AB79" s="97" t="e">
@@ -11127,19 +11131,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD79" s="94" t="str">
-        <f>IF(LEN(A79)=6,"0"&amp;A79,A79)</f>
+        <f t="shared" si="38"/>
         <v>0168-12</v>
       </c>
       <c r="AE79" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4043/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4043/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-13</v>
       </c>
       <c r="AF79" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4043*20160712*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG79" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -11175,7 +11179,7 @@
         <v>2</v>
       </c>
       <c r="K80" s="27" t="str">
-        <f>IF(ISEVEN(B80),(B80-1)&amp;"/"&amp;B80,B80&amp;"/"&amp;(B80+1))</f>
+        <f t="shared" si="29"/>
         <v>4041/4042</v>
       </c>
       <c r="L80" s="27" t="str">
@@ -11183,11 +11187,11 @@
         <v>STORY</v>
       </c>
       <c r="M80" s="6">
-        <f>I80-F80</f>
+        <f t="shared" si="30"/>
         <v>2.8703703705104999E-2</v>
       </c>
       <c r="N80" s="7">
-        <f>24*60*SUM($M80:$M80)</f>
+        <f t="shared" si="41"/>
         <v>41.333333335351199</v>
       </c>
       <c r="O80" s="7"/>
@@ -11195,11 +11199,11 @@
       <c r="Q80" s="28"/>
       <c r="R80" s="28"/>
       <c r="S80" s="46">
-        <f>SUM(U80:U80)/12</f>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="T80" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A80,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>NorthBound</v>
       </c>
       <c r="U80" s="108">
@@ -11207,27 +11211,27 @@
         <v>12</v>
       </c>
       <c r="V80" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E80-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I80+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B80&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 11:12:37-0600',mode:absolute,to:'2016-07-12 13:55:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W80" s="77" t="str">
-        <f>IF(AA80&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X80" s="103">
-        <f>VALUE(LEFT(A80,3))-VALUE(LEFT(A79,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y80" s="100">
-        <f>RIGHT(D80,LEN(D80)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>4.53E-2</v>
       </c>
       <c r="Z80" s="100">
-        <f>RIGHT(H80,LEN(H80)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.331800000000001</v>
       </c>
       <c r="AA80" s="100">
-        <f>ABS(Z80-Y80)</f>
+        <f t="shared" si="37"/>
         <v>23.2865</v>
       </c>
       <c r="AB80" s="97">
@@ -11239,19 +11243,19 @@
         <v>GRADE CROSSING</v>
       </c>
       <c r="AD80" s="94" t="str">
-        <f>IF(LEN(A80)=6,"0"&amp;A80,A80)</f>
+        <f t="shared" si="38"/>
         <v>0169-12</v>
       </c>
       <c r="AE80" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4042/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4042\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4042\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4042/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4042\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4042\2016-07-13</v>
       </c>
       <c r="AF80" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4042*20160712*" /stext=" 18:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG80" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -11287,7 +11291,7 @@
         <v>1</v>
       </c>
       <c r="K81" s="27" t="str">
-        <f>IF(ISEVEN(B81),(B81-1)&amp;"/"&amp;B81,B81&amp;"/"&amp;(B81+1))</f>
+        <f t="shared" si="29"/>
         <v>4041/4042</v>
       </c>
       <c r="L81" s="27" t="str">
@@ -11295,11 +11299,11 @@
         <v>STORY</v>
       </c>
       <c r="M81" s="6">
-        <f>I81-F81</f>
+        <f t="shared" si="30"/>
         <v>3.1736111115606036E-2</v>
       </c>
       <c r="N81" s="7">
-        <f>24*60*SUM($M81:$M81)</f>
+        <f t="shared" si="41"/>
         <v>45.700000006472692</v>
       </c>
       <c r="O81" s="7"/>
@@ -11307,11 +11311,11 @@
       <c r="Q81" s="28"/>
       <c r="R81" s="28"/>
       <c r="S81" s="46">
-        <f>SUM(U81:U81)/12</f>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="T81" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A81,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>Southbound</v>
       </c>
       <c r="U81" s="108">
@@ -11319,27 +11323,27 @@
         <v>12</v>
       </c>
       <c r="V81" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E81-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I81+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B81&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 12:06:37-0600',mode:absolute,to:'2016-07-12 14:53:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W81" s="77" t="str">
-        <f>IF(AA81&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X81" s="103">
-        <f>VALUE(LEFT(A81,3))-VALUE(LEFT(A80,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y81" s="100">
-        <f>RIGHT(D81,LEN(D81)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>23.297799999999999</v>
       </c>
       <c r="Z81" s="100">
-        <f>RIGHT(H81,LEN(H81)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="AA81" s="100">
-        <f>ABS(Z81-Y81)</f>
+        <f t="shared" si="37"/>
         <v>23.281499999999998</v>
       </c>
       <c r="AB81" s="97" t="e">
@@ -11351,19 +11355,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD81" s="94" t="str">
-        <f>IF(LEN(A81)=6,"0"&amp;A81,A81)</f>
+        <f t="shared" si="38"/>
         <v>0170-12</v>
       </c>
       <c r="AE81" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4041/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4041\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4041\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4041/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4041\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4041\2016-07-13</v>
       </c>
       <c r="AF81" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4041*20160712*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG81" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -11399,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="27" t="str">
-        <f>IF(ISEVEN(B82),(B82-1)&amp;"/"&amp;B82,B82&amp;"/"&amp;(B82+1))</f>
+        <f t="shared" si="29"/>
         <v>4009/4010</v>
       </c>
       <c r="L82" s="27" t="str">
@@ -11407,11 +11411,11 @@
         <v>STAMBAUGH</v>
       </c>
       <c r="M82" s="6">
-        <f>I82-F82</f>
+        <f t="shared" si="30"/>
         <v>2.9907407406426501E-2</v>
       </c>
       <c r="N82" s="7">
-        <f>24*60*SUM($M82:$M82)</f>
+        <f t="shared" si="41"/>
         <v>43.066666665254161</v>
       </c>
       <c r="O82" s="7"/>
@@ -11419,11 +11423,11 @@
       <c r="Q82" s="28"/>
       <c r="R82" s="28"/>
       <c r="S82" s="46">
-        <f>SUM(U82:U82)/12</f>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="T82" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A82,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>NorthBound</v>
       </c>
       <c r="U82" s="108">
@@ -11431,27 +11435,27 @@
         <v>12</v>
       </c>
       <c r="V82" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E82-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I82+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B82&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 11:21:17-0600',mode:absolute,to:'2016-07-12 14:09:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W82" s="77" t="str">
-        <f>IF(AA82&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X82" s="103">
-        <f>VALUE(LEFT(A82,3))-VALUE(LEFT(A81,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y82" s="100">
-        <f>RIGHT(D82,LEN(D82)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="Z82" s="100">
-        <f>RIGHT(H82,LEN(H82)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.3308</v>
       </c>
       <c r="AA82" s="100">
-        <f>ABS(Z82-Y82)</f>
+        <f t="shared" si="37"/>
         <v>23.284600000000001</v>
       </c>
       <c r="AB82" s="97" t="e">
@@ -11463,19 +11467,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD82" s="94" t="str">
-        <f>IF(LEN(A82)=6,"0"&amp;A82,A82)</f>
+        <f t="shared" si="38"/>
         <v>0171-12</v>
       </c>
       <c r="AE82" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4009/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4009/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-13</v>
       </c>
       <c r="AF82" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4009*20160712*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG82" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -11511,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="27" t="str">
-        <f>IF(ISEVEN(B83),(B83-1)&amp;"/"&amp;B83,B83&amp;"/"&amp;(B83+1))</f>
+        <f t="shared" si="29"/>
         <v>4009/4010</v>
       </c>
       <c r="L83" s="27" t="str">
@@ -11519,11 +11523,11 @@
         <v>STAMBAUGH</v>
       </c>
       <c r="M83" s="6">
-        <f>I83-F83</f>
+        <f t="shared" si="30"/>
         <v>3.2523148154723458E-2</v>
       </c>
       <c r="N83" s="7">
-        <f>24*60*SUM($M83:$M83)</f>
+        <f t="shared" si="41"/>
         <v>46.83333334280178</v>
       </c>
       <c r="O83" s="7"/>
@@ -11531,11 +11535,11 @@
       <c r="Q83" s="28"/>
       <c r="R83" s="28"/>
       <c r="S83" s="46">
-        <f>SUM(U83:U83)/12</f>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="T83" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A83,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>Southbound</v>
       </c>
       <c r="U83" s="108">
@@ -11543,27 +11547,27 @@
         <v>12</v>
       </c>
       <c r="V83" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E83-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I83+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B83&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 12:20:52-0600',mode:absolute,to:'2016-07-12 15:09:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W83" s="77" t="str">
-        <f>IF(AA83&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X83" s="103">
-        <f>VALUE(LEFT(A83,3))-VALUE(LEFT(A82,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y83" s="100">
-        <f>RIGHT(D83,LEN(D83)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>23.299399999999999</v>
       </c>
       <c r="Z83" s="100">
-        <f>RIGHT(H83,LEN(H83)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>1.34E-2</v>
       </c>
       <c r="AA83" s="100">
-        <f>ABS(Z83-Y83)</f>
+        <f t="shared" si="37"/>
         <v>23.285999999999998</v>
       </c>
       <c r="AB83" s="97" t="e">
@@ -11575,19 +11579,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD83" s="94" t="str">
-        <f>IF(LEN(A83)=6,"0"&amp;A83,A83)</f>
+        <f t="shared" si="38"/>
         <v>0172-12</v>
       </c>
       <c r="AE83" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4010/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4010/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-13</v>
       </c>
       <c r="AF83" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4010*20160712*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG83" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -11623,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="27" t="str">
-        <f>IF(ISEVEN(B84),(B84-1)&amp;"/"&amp;B84,B84&amp;"/"&amp;(B84+1))</f>
+        <f t="shared" si="29"/>
         <v>4007/4008</v>
       </c>
       <c r="L84" s="27" t="str">
@@ -11631,11 +11635,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M84" s="6">
-        <f>I84-F84</f>
+        <f t="shared" si="30"/>
         <v>2.9664351852261461E-2</v>
       </c>
       <c r="N84" s="7">
-        <f>24*60*SUM($M84:$M84)</f>
+        <f t="shared" si="41"/>
         <v>42.716666667256504</v>
       </c>
       <c r="O84" s="7"/>
@@ -11643,11 +11647,11 @@
       <c r="Q84" s="28"/>
       <c r="R84" s="28"/>
       <c r="S84" s="46">
-        <f>SUM(U84:U84)/12</f>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="T84" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A84,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>NorthBound</v>
       </c>
       <c r="U84" s="108">
@@ -11655,27 +11659,27 @@
         <v>12</v>
       </c>
       <c r="V84" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E84-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I84+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B84&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 11:40:27-0600',mode:absolute,to:'2016-07-12 14:24:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W84" s="77" t="str">
-        <f>IF(AA84&lt;23,"Y","N")</f>
+        <f t="shared" si="33"/>
         <v>N</v>
       </c>
       <c r="X84" s="103">
-        <f>VALUE(LEFT(A84,3))-VALUE(LEFT(A83,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y84" s="100">
-        <f>RIGHT(D84,LEN(D84)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="Z84" s="100">
-        <f>RIGHT(H84,LEN(H84)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.330100000000002</v>
       </c>
       <c r="AA84" s="100">
-        <f>ABS(Z84-Y84)</f>
+        <f t="shared" si="37"/>
         <v>23.283200000000001</v>
       </c>
       <c r="AB84" s="97" t="e">
@@ -11687,19 +11691,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD84" s="94" t="str">
-        <f>IF(LEN(A84)=6,"0"&amp;A84,A84)</f>
+        <f t="shared" si="38"/>
         <v>0173-12</v>
       </c>
       <c r="AE84" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4007/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4007\2016-07-13</v>
       </c>
       <c r="AF84" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4007*20160712*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG84" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -11735,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="27" t="str">
-        <f>IF(ISEVEN(B85),(B85-1)&amp;"/"&amp;B85,B85&amp;"/"&amp;(B85+1))</f>
+        <f t="shared" si="29"/>
         <v>4007/4008</v>
       </c>
       <c r="L85" s="27" t="str">
@@ -11743,11 +11747,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M85" s="6">
-        <f>I85-F85</f>
+        <f t="shared" si="30"/>
         <v>3.4780092595610768E-2</v>
       </c>
       <c r="N85" s="7">
-        <f>24*60*SUM($M85:$M85)</f>
+        <f t="shared" si="41"/>
         <v>50.083333337679505</v>
       </c>
       <c r="O85" s="7"/>
@@ -11755,11 +11759,11 @@
       <c r="Q85" s="28"/>
       <c r="R85" s="28"/>
       <c r="S85" s="46">
-        <f>SUM(U85:U85)/12</f>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="T85" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A85,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>Southbound</v>
       </c>
       <c r="U85" s="108">
@@ -11767,26 +11771,26 @@
         <v>12</v>
       </c>
       <c r="V85" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E85-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I85+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B85&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 12:30:49-0600',mode:absolute,to:'2016-07-12 15:23:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W85" s="77" t="s">
         <v>108</v>
       </c>
       <c r="X85" s="103">
-        <f>VALUE(LEFT(A85,3))-VALUE(LEFT(A84,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y85" s="100">
-        <f>RIGHT(D85,LEN(D85)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>23.2973</v>
       </c>
       <c r="Z85" s="100">
-        <f>RIGHT(H85,LEN(H85)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>0.38829999999999998</v>
       </c>
       <c r="AA85" s="100">
-        <f>ABS(Z85-Y85)</f>
+        <f t="shared" si="37"/>
         <v>22.908999999999999</v>
       </c>
       <c r="AB85" s="97" t="e">
@@ -11798,19 +11802,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD85" s="94" t="str">
-        <f>IF(LEN(A85)=6,"0"&amp;A85,A85)</f>
+        <f t="shared" si="38"/>
         <v>0174-12</v>
       </c>
       <c r="AE85" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4008/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4008/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4008\2016-07-13</v>
       </c>
       <c r="AF85" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4008*20160712*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG85" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -11846,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="27" t="str">
-        <f>IF(ISEVEN(B86),(B86-1)&amp;"/"&amp;B86,B86&amp;"/"&amp;(B86+1))</f>
+        <f t="shared" si="29"/>
         <v>4017/4018</v>
       </c>
       <c r="L86" s="27" t="str">
@@ -11854,11 +11858,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M86" s="6">
-        <f>I86-F86</f>
+        <f t="shared" si="30"/>
         <v>2.7581018519413192E-2</v>
       </c>
       <c r="N86" s="7">
-        <f>24*60*SUM($M86:$M86)</f>
+        <f t="shared" si="41"/>
         <v>39.716666667954996</v>
       </c>
       <c r="O86" s="7"/>
@@ -11866,11 +11870,11 @@
       <c r="Q86" s="28"/>
       <c r="R86" s="28"/>
       <c r="S86" s="46">
-        <f>SUM(U86:U86)/12</f>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="T86" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A86,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>NorthBound</v>
       </c>
       <c r="U86" s="108">
@@ -11878,27 +11882,27 @@
         <v>12</v>
       </c>
       <c r="V86" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E86-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I86+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B86&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 11:57:47-0600',mode:absolute,to:'2016-07-12 14:38:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W86" s="77" t="str">
-        <f>IF(AA86&lt;23,"Y","N")</f>
+        <f t="shared" ref="W86:W117" si="46">IF(AA86&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X86" s="103">
-        <f>VALUE(LEFT(A86,3))-VALUE(LEFT(A85,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y86" s="100">
-        <f>RIGHT(D86,LEN(D86)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="Z86" s="100">
-        <f>RIGHT(H86,LEN(H86)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.331399999999999</v>
       </c>
       <c r="AA86" s="100">
-        <f>ABS(Z86-Y86)</f>
+        <f t="shared" si="37"/>
         <v>23.2834</v>
       </c>
       <c r="AB86" s="97" t="e">
@@ -11910,19 +11914,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD86" s="94" t="str">
-        <f>IF(LEN(A86)=6,"0"&amp;A86,A86)</f>
+        <f t="shared" si="38"/>
         <v>0175-12</v>
       </c>
       <c r="AE86" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-13</v>
       </c>
       <c r="AF86" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160712*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG86" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -11958,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="27" t="str">
-        <f>IF(ISEVEN(B87),(B87-1)&amp;"/"&amp;B87,B87&amp;"/"&amp;(B87+1))</f>
+        <f t="shared" si="29"/>
         <v>4017/4018</v>
       </c>
       <c r="L87" s="27" t="str">
@@ -11966,11 +11970,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M87" s="6">
-        <f>I87-F87</f>
+        <f t="shared" si="30"/>
         <v>2.9456018521159422E-2</v>
       </c>
       <c r="N87" s="7">
-        <f>24*60*SUM($M87:$M87)</f>
+        <f t="shared" si="41"/>
         <v>42.416666670469567</v>
       </c>
       <c r="O87" s="7"/>
@@ -11978,11 +11982,11 @@
       <c r="Q87" s="28"/>
       <c r="R87" s="28"/>
       <c r="S87" s="46">
-        <f>SUM(U87:U87)/12</f>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="T87" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A87,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>Southbound</v>
       </c>
       <c r="U87" s="108">
@@ -11990,27 +11994,27 @@
         <v>12</v>
       </c>
       <c r="V87" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E87-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I87+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B87&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 12:49:57-0600',mode:absolute,to:'2016-07-12 15:34:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W87" s="77" t="str">
-        <f>IF(AA87&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X87" s="103">
-        <f>VALUE(LEFT(A87,3))-VALUE(LEFT(A86,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y87" s="100">
-        <f>RIGHT(D87,LEN(D87)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>23.299399999999999</v>
       </c>
       <c r="Z87" s="100">
-        <f>RIGHT(H87,LEN(H87)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="AA87" s="100">
-        <f>ABS(Z87-Y87)</f>
+        <f t="shared" si="37"/>
         <v>23.2836</v>
       </c>
       <c r="AB87" s="97" t="e">
@@ -12022,19 +12026,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD87" s="94" t="str">
-        <f>IF(LEN(A87)=6,"0"&amp;A87,A87)</f>
+        <f t="shared" si="38"/>
         <v>0176-12</v>
       </c>
       <c r="AE87" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-13</v>
       </c>
       <c r="AF87" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160712*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG87" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -12070,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="27" t="str">
-        <f>IF(ISEVEN(B88),(B88-1)&amp;"/"&amp;B88,B88&amp;"/"&amp;(B88+1))</f>
+        <f t="shared" si="29"/>
         <v>4011/4012</v>
       </c>
       <c r="L88" s="27" t="str">
@@ -12078,11 +12082,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M88" s="6">
-        <f>I88-F88</f>
+        <f t="shared" si="30"/>
         <v>2.7754629627452232E-2</v>
       </c>
       <c r="N88" s="7">
-        <f>24*60*SUM($M88:$M88)</f>
+        <f t="shared" si="41"/>
         <v>39.966666663531214</v>
       </c>
       <c r="O88" s="7"/>
@@ -12090,11 +12094,11 @@
       <c r="Q88" s="28"/>
       <c r="R88" s="28"/>
       <c r="S88" s="46">
-        <f>SUM(U88:U88)/12</f>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="T88" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A88,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>NorthBound</v>
       </c>
       <c r="U88" s="108">
@@ -12102,27 +12106,27 @@
         <v>12</v>
       </c>
       <c r="V88" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E88-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I88+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B88&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 12:09:11-0600',mode:absolute,to:'2016-07-12 14:50:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W88" s="77" t="str">
-        <f>IF(AA88&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X88" s="103">
-        <f>VALUE(LEFT(A88,3))-VALUE(LEFT(A87,3))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y88" s="100">
-        <f>RIGHT(D88,LEN(D88)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="Z88" s="100">
-        <f>RIGHT(H88,LEN(H88)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.333400000000001</v>
       </c>
       <c r="AA88" s="100">
-        <f>ABS(Z88-Y88)</f>
+        <f t="shared" si="37"/>
         <v>23.287700000000001</v>
       </c>
       <c r="AB88" s="97" t="e">
@@ -12134,19 +12138,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD88" s="94" t="str">
-        <f>IF(LEN(A88)=6,"0"&amp;A88,A88)</f>
+        <f t="shared" si="38"/>
         <v>0177-12</v>
       </c>
       <c r="AE88" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4011/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4011/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-13</v>
       </c>
       <c r="AF88" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4011*20160712*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG88" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -12182,7 +12186,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="27" t="str">
-        <f>IF(ISEVEN(B89),(B89-1)&amp;"/"&amp;B89,B89&amp;"/"&amp;(B89+1))</f>
+        <f t="shared" si="29"/>
         <v>4017/4018</v>
       </c>
       <c r="L89" s="27" t="str">
@@ -12190,7 +12194,7 @@
         <v>KILLION</v>
       </c>
       <c r="M89" s="6">
-        <f>I89-F89</f>
+        <f t="shared" si="30"/>
         <v>9.6412037091795355E-3</v>
       </c>
       <c r="N89" s="7"/>
@@ -12208,7 +12212,7 @@
         <v>1</v>
       </c>
       <c r="T89" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A89,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>NorthBound</v>
       </c>
       <c r="U89" s="108">
@@ -12216,27 +12220,27 @@
         <v>0</v>
       </c>
       <c r="V89" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E89-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I89+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B89&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 19:26:07-0600',mode:absolute,to:'2016-07-12 21:40:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W89" s="77" t="str">
-        <f>IF(AA89&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>Y</v>
       </c>
       <c r="X89" s="103">
-        <f>VALUE(LEFT(A89,3))-VALUE(LEFT(A88,3))</f>
+        <f t="shared" si="34"/>
         <v>48</v>
       </c>
       <c r="Y89" s="100">
-        <f>RIGHT(D89,LEN(D89)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>12.8249</v>
       </c>
       <c r="Z89" s="100">
-        <f>RIGHT(H89,LEN(H89)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.328199999999999</v>
       </c>
       <c r="AA89" s="100">
-        <f>ABS(Z89-Y89)</f>
+        <f t="shared" si="37"/>
         <v>10.503299999999999</v>
       </c>
       <c r="AB89" s="97" t="e">
@@ -12248,19 +12252,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD89" s="94" t="str">
-        <f>IF(LEN(A89)=6,"0"&amp;A89,A89)</f>
+        <f t="shared" si="38"/>
         <v>0225-12</v>
       </c>
       <c r="AE89" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-13</v>
       </c>
       <c r="AF89" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160713*" /stext=" 02:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG89" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -12296,7 +12300,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="27" t="str">
-        <f>IF(ISEVEN(B90),(B90-1)&amp;"/"&amp;B90,B90&amp;"/"&amp;(B90+1))</f>
+        <f t="shared" si="29"/>
         <v>4015/4016</v>
       </c>
       <c r="L90" s="27" t="str">
@@ -12304,7 +12308,7 @@
         <v>SHOOK</v>
       </c>
       <c r="M90" s="6">
-        <f>I90-F90</f>
+        <f t="shared" si="30"/>
         <v>3.3981481479713693E-2</v>
       </c>
       <c r="N90" s="7">
@@ -12320,7 +12324,7 @@
         <v>1</v>
       </c>
       <c r="T90" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A90,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>NorthBound</v>
       </c>
       <c r="U90" s="108">
@@ -12328,27 +12332,27 @@
         <v>12</v>
       </c>
       <c r="V90" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E90-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I90+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B90&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 12:27:51-0600',mode:absolute,to:'2016-07-12 15:18:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W90" s="77" t="str">
-        <f>IF(AA90&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X90" s="103">
-        <f>VALUE(LEFT(A90,3))-VALUE(LEFT(A89,3))</f>
+        <f t="shared" si="34"/>
         <v>-46</v>
       </c>
       <c r="Y90" s="100">
-        <f>RIGHT(D90,LEN(D90)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="Z90" s="100">
-        <f>RIGHT(H90,LEN(H90)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>23.331199999999999</v>
       </c>
       <c r="AA90" s="100">
-        <f>ABS(Z90-Y90)</f>
+        <f t="shared" si="37"/>
         <v>23.284499999999998</v>
       </c>
       <c r="AB90" s="97" t="e">
@@ -12360,19 +12364,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD90" s="94" t="str">
-        <f>IF(LEN(A90)=6,"0"&amp;A90,A90)</f>
+        <f t="shared" si="38"/>
         <v>0179-12</v>
       </c>
       <c r="AE90" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4016/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4016\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4016\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4016/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4016\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4016\2016-07-13</v>
       </c>
       <c r="AF90" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4016*20160712*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG90" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -12408,7 +12412,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="27" t="str">
-        <f>IF(ISEVEN(B91),(B91-1)&amp;"/"&amp;B91,B91&amp;"/"&amp;(B91+1))</f>
+        <f t="shared" si="29"/>
         <v>4015/4016</v>
       </c>
       <c r="L91" s="27" t="str">
@@ -12416,7 +12420,7 @@
         <v>SHOOK</v>
       </c>
       <c r="M91" s="6">
-        <f>I91-F91</f>
+        <f t="shared" si="30"/>
         <v>2.8379629628034309E-2</v>
       </c>
       <c r="N91" s="7"/>
@@ -12434,7 +12438,7 @@
         <v>0.75</v>
       </c>
       <c r="T91" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A91,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="31"/>
         <v>Southbound</v>
       </c>
       <c r="U91" s="108">
@@ -12442,27 +12446,27 @@
         <v>9</v>
       </c>
       <c r="V91" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E91-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I91+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B91&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="32"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 11:29:55-0600',mode:absolute,to:'2016-07-12 14:12:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W91" s="77" t="str">
-        <f>IF(AA91&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>Y</v>
       </c>
       <c r="X91" s="103">
-        <f>VALUE(LEFT(A91,3))-VALUE(LEFT(A90,3))</f>
+        <f t="shared" si="34"/>
         <v>-13</v>
       </c>
       <c r="Y91" s="100">
-        <f>RIGHT(D91,LEN(D91)-4)/10000</f>
+        <f t="shared" si="35"/>
         <v>23.300699999999999</v>
       </c>
       <c r="Z91" s="100">
-        <f>RIGHT(H91,LEN(H91)-4)/10000</f>
+        <f t="shared" si="36"/>
         <v>3.8527999999999998</v>
       </c>
       <c r="AA91" s="100">
-        <f>ABS(Z91-Y91)</f>
+        <f t="shared" si="37"/>
         <v>19.447900000000001</v>
       </c>
       <c r="AB91" s="97" t="e">
@@ -12474,19 +12478,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD91" s="94" t="str">
-        <f>IF(LEN(A91)=6,"0"&amp;A91,A91)</f>
+        <f t="shared" si="38"/>
         <v>0166-12</v>
       </c>
       <c r="AE91" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-13</v>
       </c>
       <c r="AF91" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4015*20160712*" /stext=" 19:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG91" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -12522,7 +12526,7 @@
         <v>1</v>
       </c>
       <c r="K92" s="27" t="str">
-        <f>IF(ISEVEN(B92),(B92-1)&amp;"/"&amp;B92,B92&amp;"/"&amp;(B92+1))</f>
+        <f t="shared" ref="K92:K123" si="47">IF(ISEVEN(B92),(B92-1)&amp;"/"&amp;B92,B92&amp;"/"&amp;(B92+1))</f>
         <v>4015/4016</v>
       </c>
       <c r="L92" s="27" t="str">
@@ -12530,7 +12534,7 @@
         <v>SHOOK</v>
       </c>
       <c r="M92" s="6">
-        <f>I92-F92</f>
+        <f t="shared" ref="M92:M123" si="48">I92-F92</f>
         <v>1.9560185173759237E-3</v>
       </c>
       <c r="N92" s="7"/>
@@ -12540,7 +12544,7 @@
       <c r="R92" s="28"/>
       <c r="S92" s="46"/>
       <c r="T92" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A92,3)),"Southbound","NorthBound")</f>
+        <f t="shared" ref="T92:T123" si="49">IF(ISEVEN(LEFT(A92,3)),"Southbound","NorthBound")</f>
         <v>Southbound</v>
       </c>
       <c r="U92" s="108">
@@ -12548,27 +12552,27 @@
         <v>0</v>
       </c>
       <c r="V92" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E92-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I92+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B92&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="V92:V123" si="50">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E92-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I92+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B92&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 13:22:05-0600',mode:absolute,to:'2016-07-12 15:28:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W92" s="77" t="str">
-        <f>IF(AA92&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>Y</v>
       </c>
       <c r="X92" s="103">
-        <f>VALUE(LEFT(A92,3))-VALUE(LEFT(A91,3))</f>
+        <f t="shared" ref="X92:X123" si="51">VALUE(LEFT(A92,3))-VALUE(LEFT(A91,3))</f>
         <v>14</v>
       </c>
       <c r="Y92" s="100">
-        <f>RIGHT(D92,LEN(D92)-4)/10000</f>
+        <f t="shared" ref="Y92:Y123" si="52">RIGHT(D92,LEN(D92)-4)/10000</f>
         <v>23.298400000000001</v>
       </c>
       <c r="Z92" s="100">
-        <f>RIGHT(H92,LEN(H92)-4)/10000</f>
+        <f t="shared" ref="Z92:Z123" si="53">RIGHT(H92,LEN(H92)-4)/10000</f>
         <v>23.026399999999999</v>
       </c>
       <c r="AA92" s="100">
-        <f>ABS(Z92-Y92)</f>
+        <f t="shared" ref="AA92:AA123" si="54">ABS(Z92-Y92)</f>
         <v>0.27200000000000202</v>
       </c>
       <c r="AB92" s="97" t="e">
@@ -12580,19 +12584,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD92" s="94" t="str">
-        <f>IF(LEN(A92)=6,"0"&amp;A92,A92)</f>
+        <f t="shared" ref="AD92:AD123" si="55">IF(LEN(A92)=6,"0"&amp;A92,A92)</f>
         <v>0180-12</v>
       </c>
       <c r="AE92" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-13</v>
       </c>
       <c r="AF92" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4015*20160712*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG92" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -12628,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="27" t="str">
-        <f>IF(ISEVEN(B93),(B93-1)&amp;"/"&amp;B93,B93&amp;"/"&amp;(B93+1))</f>
+        <f t="shared" si="47"/>
         <v>4043/4044</v>
       </c>
       <c r="L93" s="27" t="str">
@@ -12636,7 +12640,7 @@
         <v>YOUNG</v>
       </c>
       <c r="M93" s="6">
-        <f>I93-F93</f>
+        <f t="shared" si="48"/>
         <v>3.145833333110204E-2</v>
       </c>
       <c r="N93" s="7">
@@ -12652,7 +12656,7 @@
         <v>1</v>
       </c>
       <c r="T93" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A93,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
       <c r="U93" s="108">
@@ -12660,27 +12664,27 @@
         <v>12</v>
       </c>
       <c r="V93" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E93-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I93+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B93&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 12:47:43-0600',mode:absolute,to:'2016-07-12 15:34:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W93" s="77" t="str">
-        <f>IF(AA93&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X93" s="103">
-        <f>VALUE(LEFT(A93,3))-VALUE(LEFT(A92,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y93" s="100">
-        <f>RIGHT(D93,LEN(D93)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>5.0599999999999999E-2</v>
       </c>
       <c r="Z93" s="100">
-        <f>RIGHT(H93,LEN(H93)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>23.331199999999999</v>
       </c>
       <c r="AA93" s="100">
-        <f>ABS(Z93-Y93)</f>
+        <f t="shared" si="54"/>
         <v>23.2806</v>
       </c>
       <c r="AB93" s="97" t="e">
@@ -12692,19 +12696,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD93" s="94" t="str">
-        <f>IF(LEN(A93)=6,"0"&amp;A93,A93)</f>
+        <f t="shared" si="55"/>
         <v>0181-12</v>
       </c>
       <c r="AE93" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4044/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4044/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-13</v>
       </c>
       <c r="AF93" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4044*20160712*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG93" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -12740,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="27" t="str">
-        <f>IF(ISEVEN(B94),(B94-1)&amp;"/"&amp;B94,B94&amp;"/"&amp;(B94+1))</f>
+        <f t="shared" si="47"/>
         <v>4043/4044</v>
       </c>
       <c r="L94" s="27" t="str">
@@ -12748,7 +12752,7 @@
         <v>YOUNG</v>
       </c>
       <c r="M94" s="6">
-        <f>I94-F94</f>
+        <f t="shared" si="48"/>
         <v>3.2129629631526768E-2</v>
       </c>
       <c r="N94" s="7">
@@ -12764,7 +12768,7 @@
         <v>1</v>
       </c>
       <c r="T94" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A94,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
       <c r="U94" s="108">
@@ -12772,27 +12776,27 @@
         <v>12</v>
       </c>
       <c r="V94" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E94-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I94+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B94&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 13:41:09-0600',mode:absolute,to:'2016-07-12 16:28:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W94" s="77" t="str">
-        <f>IF(AA94&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X94" s="103">
-        <f>VALUE(LEFT(A94,3))-VALUE(LEFT(A93,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y94" s="100">
-        <f>RIGHT(D94,LEN(D94)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>23.299800000000001</v>
       </c>
       <c r="Z94" s="100">
-        <f>RIGHT(H94,LEN(H94)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>0.02</v>
       </c>
       <c r="AA94" s="100">
-        <f>ABS(Z94-Y94)</f>
+        <f t="shared" si="54"/>
         <v>23.279800000000002</v>
       </c>
       <c r="AB94" s="97" t="e">
@@ -12804,19 +12808,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD94" s="94" t="str">
-        <f>IF(LEN(A94)=6,"0"&amp;A94,A94)</f>
+        <f t="shared" si="55"/>
         <v>0182-12</v>
       </c>
       <c r="AE94" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4043/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4043/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-13</v>
       </c>
       <c r="AF94" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4043*20160712*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG94" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -12852,7 +12856,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="27" t="str">
-        <f>IF(ISEVEN(B95),(B95-1)&amp;"/"&amp;B95,B95&amp;"/"&amp;(B95+1))</f>
+        <f t="shared" si="47"/>
         <v>4041/4042</v>
       </c>
       <c r="L95" s="27" t="str">
@@ -12860,7 +12864,7 @@
         <v>STORY</v>
       </c>
       <c r="M95" s="6">
-        <f>I95-F95</f>
+        <f t="shared" si="48"/>
         <v>3.7060185190057382E-2</v>
       </c>
       <c r="N95" s="7">
@@ -12876,7 +12880,7 @@
         <v>1</v>
       </c>
       <c r="T95" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A95,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
       <c r="U95" s="108">
@@ -12884,27 +12888,27 @@
         <v>12</v>
       </c>
       <c r="V95" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E95-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I95+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B95&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 12:55:48-0600',mode:absolute,to:'2016-07-12 15:51:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W95" s="77" t="str">
-        <f>IF(AA95&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X95" s="103">
-        <f>VALUE(LEFT(A95,3))-VALUE(LEFT(A94,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y95" s="100">
-        <f>RIGHT(D95,LEN(D95)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="Z95" s="100">
-        <f>RIGHT(H95,LEN(H95)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>23.331800000000001</v>
       </c>
       <c r="AA95" s="100">
-        <f>ABS(Z95-Y95)</f>
+        <f t="shared" si="54"/>
         <v>23.286300000000001</v>
       </c>
       <c r="AB95" s="97" t="e">
@@ -12916,19 +12920,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD95" s="94" t="str">
-        <f>IF(LEN(A95)=6,"0"&amp;A95,A95)</f>
+        <f t="shared" si="55"/>
         <v>0183-12</v>
       </c>
       <c r="AE95" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4042/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4042\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4042\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4042/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4042\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4042\2016-07-13</v>
       </c>
       <c r="AF95" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4042*20160712*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG95" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -12964,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="27" t="str">
-        <f>IF(ISEVEN(B96),(B96-1)&amp;"/"&amp;B96,B96&amp;"/"&amp;(B96+1))</f>
+        <f t="shared" si="47"/>
         <v>4009/4010</v>
       </c>
       <c r="L96" s="27" t="str">
@@ -12972,7 +12976,7 @@
         <v>STAMBAUGH</v>
       </c>
       <c r="M96" s="6">
-        <f>I96-F96</f>
+        <f t="shared" si="48"/>
         <v>1.9456018519122154E-2</v>
       </c>
       <c r="N96" s="7"/>
@@ -12990,7 +12994,7 @@
         <v>1</v>
       </c>
       <c r="T96" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A96,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
       <c r="U96" s="108">
@@ -12998,27 +13002,27 @@
         <v>12</v>
       </c>
       <c r="V96" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E96-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I96+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B96&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 14:31:42-0600',mode:absolute,to:'2016-07-12 17:03:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W96" s="77" t="str">
-        <f>IF(AA96&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>Y</v>
       </c>
       <c r="X96" s="103">
-        <f>VALUE(LEFT(A96,3))-VALUE(LEFT(A95,3))</f>
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
       <c r="Y96" s="100">
-        <f>RIGHT(D96,LEN(D96)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>15.3979</v>
       </c>
       <c r="Z96" s="100">
-        <f>RIGHT(H96,LEN(H96)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>1.38E-2</v>
       </c>
       <c r="AA96" s="100">
-        <f>ABS(Z96-Y96)</f>
+        <f t="shared" si="54"/>
         <v>15.3841</v>
       </c>
       <c r="AB96" s="97" t="e">
@@ -13030,19 +13034,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD96" s="94" t="str">
-        <f>IF(LEN(A96)=6,"0"&amp;A96,A96)</f>
+        <f t="shared" si="55"/>
         <v>0186-12</v>
       </c>
       <c r="AE96" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4010/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4010/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-13</v>
       </c>
       <c r="AF96" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4010*20160712*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG96" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -13078,7 +13082,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="27" t="str">
-        <f>IF(ISEVEN(B97),(B97-1)&amp;"/"&amp;B97,B97&amp;"/"&amp;(B97+1))</f>
+        <f t="shared" si="47"/>
         <v>4041/4042</v>
       </c>
       <c r="L97" s="27" t="str">
@@ -13086,7 +13090,7 @@
         <v>STORY</v>
       </c>
       <c r="M97" s="6">
-        <f>I97-F97</f>
+        <f t="shared" si="48"/>
         <v>1.0763888931251131E-3</v>
       </c>
       <c r="N97" s="7"/>
@@ -13096,7 +13100,7 @@
       <c r="R97" s="28"/>
       <c r="S97" s="46"/>
       <c r="T97" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A97,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
       <c r="U97" s="108">
@@ -13104,27 +13108,27 @@
         <v>0</v>
       </c>
       <c r="V97" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E97-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I97+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B97&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 13:53:41-0600',mode:absolute,to:'2016-07-12 15:56:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W97" s="77" t="str">
-        <f>IF(AA97&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>Y</v>
       </c>
       <c r="X97" s="103">
-        <f>VALUE(LEFT(A97,3))-VALUE(LEFT(A96,3))</f>
+        <f t="shared" si="51"/>
         <v>-2</v>
       </c>
       <c r="Y97" s="100">
-        <f>RIGHT(D97,LEN(D97)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>23.299800000000001</v>
       </c>
       <c r="Z97" s="100">
-        <f>RIGHT(H97,LEN(H97)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>23.3003</v>
       </c>
       <c r="AA97" s="100">
-        <f>ABS(Z97-Y97)</f>
+        <f t="shared" si="54"/>
         <v>4.9999999999883471E-4</v>
       </c>
       <c r="AB97" s="97">
@@ -13136,19 +13140,19 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
       <c r="AD97" s="94" t="str">
-        <f>IF(LEN(A97)=6,"0"&amp;A97,A97)</f>
+        <f t="shared" si="55"/>
         <v>0184-12</v>
       </c>
       <c r="AE97" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4041/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4041\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4041\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4041/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4041\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4041\2016-07-13</v>
       </c>
       <c r="AF97" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4041*20160712*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG97" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -13184,7 +13188,7 @@
         <v>2</v>
       </c>
       <c r="K98" s="27" t="str">
-        <f>IF(ISEVEN(B98),(B98-1)&amp;"/"&amp;B98,B98&amp;"/"&amp;(B98+1))</f>
+        <f t="shared" si="47"/>
         <v>4009/4010</v>
       </c>
       <c r="L98" s="27" t="str">
@@ -13192,7 +13196,7 @@
         <v>STAMBAUGH</v>
       </c>
       <c r="M98" s="6">
-        <f>I98-F98</f>
+        <f t="shared" si="48"/>
         <v>3.8252314814599231E-2</v>
       </c>
       <c r="N98" s="7">
@@ -13208,7 +13212,7 @@
         <v>1</v>
       </c>
       <c r="T98" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A98,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
       <c r="U98" s="108">
@@ -13216,27 +13220,27 @@
         <v>12</v>
       </c>
       <c r="V98" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E98-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I98+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B98&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 13:11:41-0600',mode:absolute,to:'2016-07-12 16:08:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W98" s="77" t="str">
-        <f>IF(AA98&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X98" s="103">
-        <f>VALUE(LEFT(A98,3))-VALUE(LEFT(A97,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y98" s="100">
-        <f>RIGHT(D98,LEN(D98)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>4.53E-2</v>
       </c>
       <c r="Z98" s="100">
-        <f>RIGHT(H98,LEN(H98)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>23.331</v>
       </c>
       <c r="AA98" s="100">
-        <f>ABS(Z98-Y98)</f>
+        <f t="shared" si="54"/>
         <v>23.285699999999999</v>
       </c>
       <c r="AB98" s="97">
@@ -13248,19 +13252,19 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
       <c r="AD98" s="94" t="str">
-        <f>IF(LEN(A98)=6,"0"&amp;A98,A98)</f>
+        <f t="shared" si="55"/>
         <v>0185-12</v>
       </c>
       <c r="AE98" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4009/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4009/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-13</v>
       </c>
       <c r="AF98" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4009*20160712*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG98" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -13296,7 +13300,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="27" t="str">
-        <f>IF(ISEVEN(B99),(B99-1)&amp;"/"&amp;B99,B99&amp;"/"&amp;(B99+1))</f>
+        <f t="shared" si="47"/>
         <v>4009/4010</v>
       </c>
       <c r="L99" s="27" t="str">
@@ -13304,7 +13308,7 @@
         <v>STAMBAUGH</v>
       </c>
       <c r="M99" s="6">
-        <f>I99-F99</f>
+        <f t="shared" si="48"/>
         <v>2.178240741341142E-2</v>
       </c>
       <c r="N99" s="7"/>
@@ -13322,7 +13326,7 @@
         <v>1</v>
       </c>
       <c r="T99" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A99,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
       <c r="U99" s="108">
@@ -13330,27 +13334,27 @@
         <v>12</v>
       </c>
       <c r="V99" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E99-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I99+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B99&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 15:05:41-0600',mode:absolute,to:'2016-07-12 17:50:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W99" s="77" t="str">
-        <f>IF(AA99&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>Y</v>
       </c>
       <c r="X99" s="103">
-        <f>VALUE(LEFT(A99,3))-VALUE(LEFT(A98,3))</f>
+        <f t="shared" si="51"/>
         <v>14</v>
       </c>
       <c r="Y99" s="100">
-        <f>RIGHT(D99,LEN(D99)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>1.9132</v>
       </c>
       <c r="Z99" s="100">
-        <f>RIGHT(H99,LEN(H99)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>23.328900000000001</v>
       </c>
       <c r="AA99" s="100">
-        <f>ABS(Z99-Y99)</f>
+        <f t="shared" si="54"/>
         <v>21.415700000000001</v>
       </c>
       <c r="AB99" s="97" t="e">
@@ -13362,19 +13366,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD99" s="94" t="str">
-        <f>IF(LEN(A99)=6,"0"&amp;A99,A99)</f>
+        <f t="shared" si="55"/>
         <v>0199-12</v>
       </c>
       <c r="AE99" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4009/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4009/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-13</v>
       </c>
       <c r="AF99" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4009*20160712*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG99" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -13410,7 +13414,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="27" t="str">
-        <f>IF(ISEVEN(B100),(B100-1)&amp;"/"&amp;B100,B100&amp;"/"&amp;(B100+1))</f>
+        <f t="shared" si="47"/>
         <v>4009/4010</v>
       </c>
       <c r="L100" s="27" t="str">
@@ -13418,7 +13422,7 @@
         <v>STAMBAUGH</v>
       </c>
       <c r="M100" s="6">
-        <f>I100-F100</f>
+        <f t="shared" si="48"/>
         <v>1.3078703705104999E-3</v>
       </c>
       <c r="N100" s="7"/>
@@ -13428,7 +13432,7 @@
       <c r="R100" s="28"/>
       <c r="S100" s="46"/>
       <c r="T100" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A100,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
       <c r="U100" s="108">
@@ -13436,27 +13440,27 @@
         <v>0</v>
       </c>
       <c r="V100" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E100-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I100+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B100&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 14:13:16-0600',mode:absolute,to:'2016-07-12 16:16:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W100" s="77" t="str">
-        <f>IF(AA100&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>Y</v>
       </c>
       <c r="X100" s="103">
-        <f>VALUE(LEFT(A100,3))-VALUE(LEFT(A99,3))</f>
+        <f t="shared" si="51"/>
         <v>-13</v>
       </c>
       <c r="Y100" s="100">
-        <f>RIGHT(D100,LEN(D100)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>23.298500000000001</v>
       </c>
       <c r="Z100" s="100">
-        <f>RIGHT(H100,LEN(H100)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>22.8279</v>
       </c>
       <c r="AA100" s="100">
-        <f>ABS(Z100-Y100)</f>
+        <f t="shared" si="54"/>
         <v>0.47060000000000102</v>
       </c>
       <c r="AB100" s="97" t="e">
@@ -13468,19 +13472,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD100" s="94" t="str">
-        <f>IF(LEN(A100)=6,"0"&amp;A100,A100)</f>
+        <f t="shared" si="55"/>
         <v>0186-12</v>
       </c>
       <c r="AE100" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4010/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4010/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-13</v>
       </c>
       <c r="AF100" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4010*20160712*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG100" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -13516,7 +13520,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="27" t="str">
-        <f>IF(ISEVEN(B101),(B101-1)&amp;"/"&amp;B101,B101&amp;"/"&amp;(B101+1))</f>
+        <f t="shared" si="47"/>
         <v>4027/4028</v>
       </c>
       <c r="L101" s="27" t="str">
@@ -13524,11 +13528,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M101" s="6">
-        <f>I101-F101</f>
+        <f t="shared" si="48"/>
         <v>3.2141203708306421E-2</v>
       </c>
       <c r="N101" s="7">
-        <f>24*60*SUM($M101:$M101)</f>
+        <f t="shared" ref="N101:N112" si="56">24*60*SUM($M101:$M101)</f>
         <v>46.283333339961246</v>
       </c>
       <c r="O101" s="7"/>
@@ -13536,11 +13540,11 @@
       <c r="Q101" s="28"/>
       <c r="R101" s="28"/>
       <c r="S101" s="46">
-        <f>SUM(U101:U101)/12</f>
+        <f t="shared" ref="S101:S119" si="57">SUM(U101:U101)/12</f>
         <v>1</v>
       </c>
       <c r="T101" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A101,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
       <c r="U101" s="108">
@@ -13548,27 +13552,27 @@
         <v>12</v>
       </c>
       <c r="V101" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E101-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I101+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B101&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 13:35:15-0600',mode:absolute,to:'2016-07-12 16:23:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W101" s="77" t="str">
-        <f>IF(AA101&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X101" s="103">
-        <f>VALUE(LEFT(A101,3))-VALUE(LEFT(A100,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y101" s="100">
-        <f>RIGHT(D101,LEN(D101)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="Z101" s="100">
-        <f>RIGHT(H101,LEN(H101)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>23.326799999999999</v>
       </c>
       <c r="AA101" s="100">
-        <f>ABS(Z101-Y101)</f>
+        <f t="shared" si="54"/>
         <v>23.282399999999999</v>
       </c>
       <c r="AB101" s="97" t="e">
@@ -13580,19 +13584,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD101" s="94" t="str">
-        <f>IF(LEN(A101)=6,"0"&amp;A101,A101)</f>
+        <f t="shared" si="55"/>
         <v>0187-12</v>
       </c>
       <c r="AE101" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4027/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4027\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4027\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4027/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4027\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4027\2016-07-13</v>
       </c>
       <c r="AF101" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4027*20160712*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG101" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -13628,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="27" t="str">
-        <f>IF(ISEVEN(B102),(B102-1)&amp;"/"&amp;B102,B102&amp;"/"&amp;(B102+1))</f>
+        <f t="shared" si="47"/>
         <v>4027/4028</v>
       </c>
       <c r="L102" s="27" t="str">
@@ -13636,11 +13640,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M102" s="6">
-        <f>I102-F102</f>
+        <f t="shared" si="48"/>
         <v>3.0706018522323575E-2</v>
       </c>
       <c r="N102" s="7">
-        <f>24*60*SUM($M102:$M102)</f>
+        <f t="shared" si="56"/>
         <v>44.216666672145948</v>
       </c>
       <c r="O102" s="7"/>
@@ -13648,11 +13652,11 @@
       <c r="Q102" s="28"/>
       <c r="R102" s="28"/>
       <c r="S102" s="46">
-        <f>SUM(U102:U102)/12</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="T102" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A102,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
       <c r="U102" s="108">
@@ -13660,27 +13664,27 @@
         <v>12</v>
       </c>
       <c r="V102" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E102-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I102+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B102&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 14:30:23-0600',mode:absolute,to:'2016-07-12 17:16:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W102" s="77" t="str">
-        <f>IF(AA102&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X102" s="103">
-        <f>VALUE(LEFT(A102,3))-VALUE(LEFT(A101,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y102" s="100">
-        <f>RIGHT(D102,LEN(D102)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>23.298400000000001</v>
       </c>
       <c r="Z102" s="100">
-        <f>RIGHT(H102,LEN(H102)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>1.52E-2</v>
       </c>
       <c r="AA102" s="100">
-        <f>ABS(Z102-Y102)</f>
+        <f t="shared" si="54"/>
         <v>23.283200000000001</v>
       </c>
       <c r="AB102" s="97" t="e">
@@ -13692,19 +13696,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD102" s="94" t="str">
-        <f>IF(LEN(A102)=6,"0"&amp;A102,A102)</f>
+        <f t="shared" si="55"/>
         <v>0188-12</v>
       </c>
       <c r="AE102" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-13</v>
       </c>
       <c r="AF102" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4028*20160712*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG102" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -13740,7 +13744,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="27" t="str">
-        <f>IF(ISEVEN(B103),(B103-1)&amp;"/"&amp;B103,B103&amp;"/"&amp;(B103+1))</f>
+        <f t="shared" si="47"/>
         <v>4017/4018</v>
       </c>
       <c r="L103" s="27" t="str">
@@ -13748,11 +13752,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M103" s="6">
-        <f>I103-F103</f>
+        <f t="shared" si="48"/>
         <v>3.2326388893125113E-2</v>
       </c>
       <c r="N103" s="7">
-        <f>24*60*SUM($M103:$M103)</f>
+        <f t="shared" si="56"/>
         <v>46.550000006100163</v>
       </c>
       <c r="O103" s="7"/>
@@ -13760,11 +13764,11 @@
       <c r="Q103" s="28"/>
       <c r="R103" s="28"/>
       <c r="S103" s="46">
-        <f>SUM(U103:U103)/12</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="T103" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A103,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
       <c r="U103" s="108">
@@ -13772,27 +13776,27 @@
         <v>12</v>
       </c>
       <c r="V103" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E103-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I103+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B103&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 13:37:54-0600',mode:absolute,to:'2016-07-12 16:25:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W103" s="77" t="str">
-        <f>IF(AA103&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X103" s="103">
-        <f>VALUE(LEFT(A103,3))-VALUE(LEFT(A102,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y103" s="100">
-        <f>RIGHT(D103,LEN(D103)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="Z103" s="100">
-        <f>RIGHT(H103,LEN(H103)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>23.3308</v>
       </c>
       <c r="AA103" s="100">
-        <f>ABS(Z103-Y103)</f>
+        <f t="shared" si="54"/>
         <v>23.285299999999999</v>
       </c>
       <c r="AB103" s="97" t="e">
@@ -13804,19 +13808,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD103" s="94" t="str">
-        <f>IF(LEN(A103)=6,"0"&amp;A103,A103)</f>
+        <f t="shared" si="55"/>
         <v>0189-12</v>
       </c>
       <c r="AE103" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-13</v>
       </c>
       <c r="AF103" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160712*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG103" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -13852,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="27" t="str">
-        <f>IF(ISEVEN(B104),(B104-1)&amp;"/"&amp;B104,B104&amp;"/"&amp;(B104+1))</f>
+        <f t="shared" si="47"/>
         <v>4017/4018</v>
       </c>
       <c r="L104" s="27" t="str">
@@ -13860,11 +13864,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M104" s="6">
-        <f>I104-F104</f>
+        <f t="shared" si="48"/>
         <v>3.534722221957054E-2</v>
       </c>
       <c r="N104" s="7">
-        <f>24*60*SUM($M104:$M104)</f>
+        <f t="shared" si="56"/>
         <v>50.899999996181577</v>
       </c>
       <c r="O104" s="7"/>
@@ -13872,11 +13876,11 @@
       <c r="Q104" s="28"/>
       <c r="R104" s="28"/>
       <c r="S104" s="46">
-        <f>SUM(U104:U104)/12</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="T104" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A104,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
       <c r="U104" s="108">
@@ -13884,27 +13888,27 @@
         <v>12</v>
       </c>
       <c r="V104" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E104-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I104+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B104&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 14:35:02-0600',mode:absolute,to:'2016-07-12 17:27:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W104" s="77" t="str">
-        <f>IF(AA104&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X104" s="103">
-        <f>VALUE(LEFT(A104,3))-VALUE(LEFT(A103,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y104" s="100">
-        <f>RIGHT(D104,LEN(D104)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>23.297599999999999</v>
       </c>
       <c r="Z104" s="100">
-        <f>RIGHT(H104,LEN(H104)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AA104" s="100">
-        <f>ABS(Z104-Y104)</f>
+        <f t="shared" si="54"/>
         <v>23.282599999999999</v>
       </c>
       <c r="AB104" s="97" t="e">
@@ -13916,19 +13920,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD104" s="94" t="str">
-        <f>IF(LEN(A104)=6,"0"&amp;A104,A104)</f>
+        <f t="shared" si="55"/>
         <v>0190-12</v>
       </c>
       <c r="AE104" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-13</v>
       </c>
       <c r="AF104" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160712*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG104" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -13964,7 +13968,7 @@
         <v>2</v>
       </c>
       <c r="K105" s="27" t="str">
-        <f>IF(ISEVEN(B105),(B105-1)&amp;"/"&amp;B105,B105&amp;"/"&amp;(B105+1))</f>
+        <f t="shared" si="47"/>
         <v>4011/4012</v>
       </c>
       <c r="L105" s="27" t="str">
@@ -13972,11 +13976,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M105" s="6">
-        <f>I105-F105</f>
+        <f t="shared" si="48"/>
         <v>3.0497685183945578E-2</v>
       </c>
       <c r="N105" s="7">
-        <f>24*60*SUM($M105:$M105)</f>
+        <f t="shared" si="56"/>
         <v>43.916666664881632</v>
       </c>
       <c r="O105" s="7"/>
@@ -13984,11 +13988,11 @@
       <c r="Q105" s="28"/>
       <c r="R105" s="28"/>
       <c r="S105" s="46">
-        <f>SUM(U105:U105)/12</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="T105" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A105,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
       <c r="U105" s="108">
@@ -13996,27 +14000,27 @@
         <v>12</v>
       </c>
       <c r="V105" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E105-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I105+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B105&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 13:55:31-0600',mode:absolute,to:'2016-07-12 16:41:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W105" s="77" t="str">
-        <f>IF(AA105&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X105" s="103">
-        <f>VALUE(LEFT(A105,3))-VALUE(LEFT(A104,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y105" s="100">
-        <f>RIGHT(D105,LEN(D105)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="Z105" s="100">
-        <f>RIGHT(H105,LEN(H105)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>23.333600000000001</v>
       </c>
       <c r="AA105" s="100">
-        <f>ABS(Z105-Y105)</f>
+        <f t="shared" si="54"/>
         <v>23.285900000000002</v>
       </c>
       <c r="AB105" s="97">
@@ -14028,19 +14032,19 @@
         <v>GRADE CROSSING</v>
       </c>
       <c r="AD105" s="94" t="str">
-        <f>IF(LEN(A105)=6,"0"&amp;A105,A105)</f>
+        <f t="shared" si="55"/>
         <v>0191-12</v>
       </c>
       <c r="AE105" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4011/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4011/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-13</v>
       </c>
       <c r="AF105" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4011*20160712*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG105" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -14076,7 +14080,7 @@
         <v>1</v>
       </c>
       <c r="K106" s="27" t="str">
-        <f>IF(ISEVEN(B106),(B106-1)&amp;"/"&amp;B106,B106&amp;"/"&amp;(B106+1))</f>
+        <f t="shared" si="47"/>
         <v>4011/4012</v>
       </c>
       <c r="L106" s="27" t="str">
@@ -14084,11 +14088,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M106" s="6">
-        <f>I106-F106</f>
+        <f t="shared" si="48"/>
         <v>2.7789351850515231E-2</v>
       </c>
       <c r="N106" s="7">
-        <f>24*60*SUM($M106:$M106)</f>
+        <f t="shared" si="56"/>
         <v>40.016666664741933</v>
       </c>
       <c r="O106" s="7"/>
@@ -14096,11 +14100,11 @@
       <c r="Q106" s="28"/>
       <c r="R106" s="28"/>
       <c r="S106" s="46">
-        <f>SUM(U106:U106)/12</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="T106" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A106,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
       <c r="U106" s="108">
@@ -14108,27 +14112,27 @@
         <v>12</v>
       </c>
       <c r="V106" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E106-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I106+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B106&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 14:54:03-0600',mode:absolute,to:'2016-07-12 17:35:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W106" s="77" t="str">
-        <f>IF(AA106&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X106" s="103">
-        <f>VALUE(LEFT(A106,3))-VALUE(LEFT(A105,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y106" s="100">
-        <f>RIGHT(D106,LEN(D106)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>23.3003</v>
       </c>
       <c r="Z106" s="100">
-        <f>RIGHT(H106,LEN(H106)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>1.47E-2</v>
       </c>
       <c r="AA106" s="100">
-        <f>ABS(Z106-Y106)</f>
+        <f t="shared" si="54"/>
         <v>23.285599999999999</v>
       </c>
       <c r="AB106" s="97">
@@ -14140,19 +14144,19 @@
         <v>GRADE CROSSING</v>
       </c>
       <c r="AD106" s="94" t="str">
-        <f>IF(LEN(A106)=6,"0"&amp;A106,A106)</f>
+        <f t="shared" si="55"/>
         <v>0192-12</v>
       </c>
       <c r="AE106" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4012/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4012\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4012\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4012/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4012\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4012\2016-07-13</v>
       </c>
       <c r="AF106" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4012*20160712*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG106" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -14188,7 +14192,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="27" t="str">
-        <f>IF(ISEVEN(B107),(B107-1)&amp;"/"&amp;B107,B107&amp;"/"&amp;(B107+1))</f>
+        <f t="shared" si="47"/>
         <v>4015/4016</v>
       </c>
       <c r="L107" s="27" t="str">
@@ -14196,11 +14200,11 @@
         <v>SHOOK</v>
       </c>
       <c r="M107" s="6">
-        <f>I107-F107</f>
+        <f t="shared" si="48"/>
         <v>2.7638888888759539E-2</v>
       </c>
       <c r="N107" s="7">
-        <f>24*60*SUM($M107:$M107)</f>
+        <f t="shared" si="56"/>
         <v>39.799999999813735</v>
       </c>
       <c r="O107" s="7"/>
@@ -14208,11 +14212,11 @@
       <c r="Q107" s="28"/>
       <c r="R107" s="28"/>
       <c r="S107" s="46">
-        <f>SUM(U107:U107)/12</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="T107" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A107,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
       <c r="U107" s="108">
@@ -14220,27 +14224,27 @@
         <v>12</v>
       </c>
       <c r="V107" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E107-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I107+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B107&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 14:14:44-0600',mode:absolute,to:'2016-07-12 16:56:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W107" s="77" t="str">
-        <f>IF(AA107&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X107" s="103">
-        <f>VALUE(LEFT(A107,3))-VALUE(LEFT(A106,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y107" s="100">
-        <f>RIGHT(D107,LEN(D107)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="Z107" s="100">
-        <f>RIGHT(H107,LEN(H107)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>23.332899999999999</v>
       </c>
       <c r="AA107" s="100">
-        <f>ABS(Z107-Y107)</f>
+        <f t="shared" si="54"/>
         <v>23.2865</v>
       </c>
       <c r="AB107" s="97" t="e">
@@ -14252,19 +14256,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD107" s="94" t="str">
-        <f>IF(LEN(A107)=6,"0"&amp;A107,A107)</f>
+        <f t="shared" si="55"/>
         <v>0193-12</v>
       </c>
       <c r="AE107" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4016/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4016\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4016\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4016/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4016\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4016\2016-07-13</v>
       </c>
       <c r="AF107" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4016*20160712*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG107" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -14300,7 +14304,7 @@
         <v>2</v>
       </c>
       <c r="K108" s="27" t="str">
-        <f>IF(ISEVEN(B108),(B108-1)&amp;"/"&amp;B108,B108&amp;"/"&amp;(B108+1))</f>
+        <f t="shared" si="47"/>
         <v>4015/4016</v>
       </c>
       <c r="L108" s="27" t="str">
@@ -14308,11 +14312,11 @@
         <v>SHOOK</v>
       </c>
       <c r="M108" s="6">
-        <f>I108-F108</f>
+        <f t="shared" si="48"/>
         <v>3.1504629630944692E-2</v>
       </c>
       <c r="N108" s="7">
-        <f>24*60*SUM($M108:$M108)</f>
+        <f t="shared" si="56"/>
         <v>45.366666668560356</v>
       </c>
       <c r="O108" s="7"/>
@@ -14320,11 +14324,11 @@
       <c r="Q108" s="28"/>
       <c r="R108" s="28"/>
       <c r="S108" s="46">
-        <f>SUM(U108:U108)/12</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="T108" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A108,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
       <c r="U108" s="108">
@@ -14332,27 +14336,27 @@
         <v>12</v>
       </c>
       <c r="V108" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E108-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I108+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B108&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 15:02:33-0600',mode:absolute,to:'2016-07-12 17:49:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W108" s="77" t="str">
-        <f>IF(AA108&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X108" s="103">
-        <f>VALUE(LEFT(A108,3))-VALUE(LEFT(A107,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y108" s="100">
-        <f>RIGHT(D108,LEN(D108)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>23.3017</v>
       </c>
       <c r="Z108" s="100">
-        <f>RIGHT(H108,LEN(H108)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>1.43E-2</v>
       </c>
       <c r="AA108" s="100">
-        <f>ABS(Z108-Y108)</f>
+        <f t="shared" si="54"/>
         <v>23.287400000000002</v>
       </c>
       <c r="AB108" s="97" t="e">
@@ -14364,19 +14368,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD108" s="94" t="str">
-        <f>IF(LEN(A108)=6,"0"&amp;A108,A108)</f>
+        <f t="shared" si="55"/>
         <v>0194-12</v>
       </c>
       <c r="AE108" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-13</v>
       </c>
       <c r="AF108" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4015*20160712*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG108" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -14412,7 +14416,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="27" t="str">
-        <f>IF(ISEVEN(B109),(B109-1)&amp;"/"&amp;B109,B109&amp;"/"&amp;(B109+1))</f>
+        <f t="shared" si="47"/>
         <v>4043/4044</v>
       </c>
       <c r="L109" s="27" t="str">
@@ -14420,11 +14424,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M109" s="6">
-        <f>I109-F109</f>
+        <f t="shared" si="48"/>
         <v>2.9479166667442769E-2</v>
       </c>
       <c r="N109" s="7">
-        <f>24*60*SUM($M109:$M109)</f>
+        <f t="shared" si="56"/>
         <v>42.450000001117587</v>
       </c>
       <c r="O109" s="7"/>
@@ -14432,11 +14436,11 @@
       <c r="Q109" s="28"/>
       <c r="R109" s="28"/>
       <c r="S109" s="46">
-        <f>SUM(U109:U109)/12</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="T109" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A109,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
       <c r="U109" s="108">
@@ -14444,27 +14448,27 @@
         <v>12</v>
       </c>
       <c r="V109" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E109-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I109+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B109&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 14:32:42-0600',mode:absolute,to:'2016-07-12 17:16:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W109" s="77" t="str">
-        <f>IF(AA109&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X109" s="103">
-        <f>VALUE(LEFT(A109,3))-VALUE(LEFT(A108,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y109" s="100">
-        <f>RIGHT(D109,LEN(D109)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>5.2200000000000003E-2</v>
       </c>
       <c r="Z109" s="100">
-        <f>RIGHT(H109,LEN(H109)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>23.329699999999999</v>
       </c>
       <c r="AA109" s="100">
-        <f>ABS(Z109-Y109)</f>
+        <f t="shared" si="54"/>
         <v>23.2775</v>
       </c>
       <c r="AB109" s="97" t="e">
@@ -14476,19 +14480,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD109" s="94" t="str">
-        <f>IF(LEN(A109)=6,"0"&amp;A109,A109)</f>
+        <f t="shared" si="55"/>
         <v>0195-12</v>
       </c>
       <c r="AE109" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4044/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4044/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-13</v>
       </c>
       <c r="AF109" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4044*20160712*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG109" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -14524,7 +14528,7 @@
         <v>1</v>
       </c>
       <c r="K110" s="27" t="str">
-        <f>IF(ISEVEN(B110),(B110-1)&amp;"/"&amp;B110,B110&amp;"/"&amp;(B110+1))</f>
+        <f t="shared" si="47"/>
         <v>4043/4044</v>
       </c>
       <c r="L110" s="27" t="str">
@@ -14532,11 +14536,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M110" s="6">
-        <f>I110-F110</f>
+        <f t="shared" si="48"/>
         <v>2.9675925929041114E-2</v>
       </c>
       <c r="N110" s="7">
-        <f>24*60*SUM($M110:$M110)</f>
+        <f t="shared" si="56"/>
         <v>42.733333337819204</v>
       </c>
       <c r="O110" s="7"/>
@@ -14544,11 +14548,11 @@
       <c r="Q110" s="28"/>
       <c r="R110" s="28"/>
       <c r="S110" s="46">
-        <f>SUM(U110:U110)/12</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="T110" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A110,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
       <c r="U110" s="108">
@@ -14556,27 +14560,27 @@
         <v>12</v>
       </c>
       <c r="V110" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E110-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I110+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B110&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 15:20:32-0600',mode:absolute,to:'2016-07-12 18:08:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W110" s="77" t="str">
-        <f>IF(AA110&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X110" s="103">
-        <f>VALUE(LEFT(A110,3))-VALUE(LEFT(A109,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y110" s="100">
-        <f>RIGHT(D110,LEN(D110)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>23.2988</v>
       </c>
       <c r="Z110" s="100">
-        <f>RIGHT(H110,LEN(H110)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="AA110" s="100">
-        <f>ABS(Z110-Y110)</f>
+        <f t="shared" si="54"/>
         <v>23.283200000000001</v>
       </c>
       <c r="AB110" s="97">
@@ -14588,19 +14592,19 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
       <c r="AD110" s="94" t="str">
-        <f>IF(LEN(A110)=6,"0"&amp;A110,A110)</f>
+        <f t="shared" si="55"/>
         <v>0196-12</v>
       </c>
       <c r="AE110" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4043/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4043/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-13</v>
       </c>
       <c r="AF110" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4043*20160712*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG110" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -14636,7 +14640,7 @@
         <v>1</v>
       </c>
       <c r="K111" s="27" t="str">
-        <f>IF(ISEVEN(B111),(B111-1)&amp;"/"&amp;B111,B111&amp;"/"&amp;(B111+1))</f>
+        <f t="shared" si="47"/>
         <v>4041/4042</v>
       </c>
       <c r="L111" s="27" t="str">
@@ -14644,11 +14648,11 @@
         <v>STORY</v>
       </c>
       <c r="M111" s="6">
-        <f>I111-F111</f>
+        <f t="shared" si="48"/>
         <v>2.9386574075033423E-2</v>
       </c>
       <c r="N111" s="7">
-        <f>24*60*SUM($M111:$M111)</f>
+        <f t="shared" si="56"/>
         <v>42.316666668048128</v>
       </c>
       <c r="O111" s="7"/>
@@ -14656,11 +14660,11 @@
       <c r="Q111" s="28"/>
       <c r="R111" s="28"/>
       <c r="S111" s="46">
-        <f>SUM(U111:U111)/12</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="T111" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A111,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
       <c r="U111" s="108">
@@ -14668,27 +14672,27 @@
         <v>12</v>
       </c>
       <c r="V111" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E111-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I111+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B111&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 14:47:19-0600',mode:absolute,to:'2016-07-12 17:32:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W111" s="77" t="str">
-        <f>IF(AA111&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X111" s="103">
-        <f>VALUE(LEFT(A111,3))-VALUE(LEFT(A110,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y111" s="100">
-        <f>RIGHT(D111,LEN(D111)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="Z111" s="100">
-        <f>RIGHT(H111,LEN(H111)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>23.333200000000001</v>
       </c>
       <c r="AA111" s="100">
-        <f>ABS(Z111-Y111)</f>
+        <f t="shared" si="54"/>
         <v>23.2866</v>
       </c>
       <c r="AB111" s="97">
@@ -14700,19 +14704,19 @@
         <v>SIGNAL</v>
       </c>
       <c r="AD111" s="94" t="str">
-        <f>IF(LEN(A111)=6,"0"&amp;A111,A111)</f>
+        <f t="shared" si="55"/>
         <v>0197-12</v>
       </c>
       <c r="AE111" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4042/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4042\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4042\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4042/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4042\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4042\2016-07-13</v>
       </c>
       <c r="AF111" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4042*20160712*" /stext=" 22:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG111" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -14748,7 +14752,7 @@
         <v>1</v>
       </c>
       <c r="K112" s="27" t="str">
-        <f>IF(ISEVEN(B112),(B112-1)&amp;"/"&amp;B112,B112&amp;"/"&amp;(B112+1))</f>
+        <f t="shared" si="47"/>
         <v>4041/4042</v>
       </c>
       <c r="L112" s="27" t="str">
@@ -14756,11 +14760,11 @@
         <v>STORY</v>
       </c>
       <c r="M112" s="6">
-        <f>I112-F112</f>
+        <f t="shared" si="48"/>
         <v>2.8634259258979E-2</v>
       </c>
       <c r="N112" s="7">
-        <f>24*60*SUM($M112:$M112)</f>
+        <f t="shared" si="56"/>
         <v>41.23333333292976</v>
       </c>
       <c r="O112" s="7"/>
@@ -14768,11 +14772,11 @@
       <c r="Q112" s="28"/>
       <c r="R112" s="28"/>
       <c r="S112" s="46">
-        <f>SUM(U112:U112)/12</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="T112" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A112,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
       <c r="U112" s="108">
@@ -14780,27 +14784,27 @@
         <v>12</v>
       </c>
       <c r="V112" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E112-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I112+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B112&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 15:39:45-0600',mode:absolute,to:'2016-07-12 18:22:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W112" s="77" t="str">
-        <f>IF(AA112&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X112" s="103">
-        <f>VALUE(LEFT(A112,3))-VALUE(LEFT(A111,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y112" s="100">
-        <f>RIGHT(D112,LEN(D112)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>23.304200000000002</v>
       </c>
       <c r="Z112" s="100">
-        <f>RIGHT(H112,LEN(H112)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>1.52E-2</v>
       </c>
       <c r="AA112" s="100">
-        <f>ABS(Z112-Y112)</f>
+        <f t="shared" si="54"/>
         <v>23.289000000000001</v>
       </c>
       <c r="AB112" s="97">
@@ -14812,19 +14816,19 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
       <c r="AD112" s="94" t="str">
-        <f>IF(LEN(A112)=6,"0"&amp;A112,A112)</f>
+        <f t="shared" si="55"/>
         <v>0198-12</v>
       </c>
       <c r="AE112" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4041/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4041\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4041\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4041/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4041\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4041\2016-07-13</v>
       </c>
       <c r="AF112" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4041*20160712*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG112" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -14860,7 +14864,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="27" t="str">
-        <f>IF(ISEVEN(B113),(B113-1)&amp;"/"&amp;B113,B113&amp;"/"&amp;(B113+1))</f>
+        <f t="shared" si="47"/>
         <v>4011/4012</v>
       </c>
       <c r="L113" s="27" t="str">
@@ -14868,7 +14872,7 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M113" s="6">
-        <f>I113-F113</f>
+        <f t="shared" si="48"/>
         <v>2.1967592590954155E-2</v>
       </c>
       <c r="N113" s="7"/>
@@ -14882,11 +14886,11 @@
         <v>643</v>
       </c>
       <c r="S113" s="46">
-        <f>SUM(U113:U113)/12</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="T113" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A113,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
       <c r="U113" s="108">
@@ -14894,27 +14898,27 @@
         <v>12</v>
       </c>
       <c r="V113" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E113-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I113+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B113&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 13:05:54-0600',mode:absolute,to:'2016-07-12 15:53:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W113" s="77" t="str">
-        <f>IF(AA113&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>Y</v>
       </c>
       <c r="X113" s="103">
-        <f>VALUE(LEFT(A113,3))-VALUE(LEFT(A112,3))</f>
+        <f t="shared" si="51"/>
         <v>-20</v>
       </c>
       <c r="Y113" s="100">
-        <f>RIGHT(D113,LEN(D113)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>15.400399999999999</v>
       </c>
       <c r="Z113" s="100">
-        <f>RIGHT(H113,LEN(H113)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="AA113" s="100">
-        <f>ABS(Z113-Y113)</f>
+        <f t="shared" si="54"/>
         <v>15.3841</v>
       </c>
       <c r="AB113" s="97" t="e">
@@ -14926,19 +14930,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD113" s="94" t="str">
-        <f>IF(LEN(A113)=6,"0"&amp;A113,A113)</f>
+        <f t="shared" si="55"/>
         <v>0178-12</v>
       </c>
       <c r="AE113" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4012/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4012\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4012\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4012/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4012\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4012\2016-07-13</v>
       </c>
       <c r="AF113" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4012*20160712*" /stext=" 20:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG113" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -14974,7 +14978,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="27" t="str">
-        <f>IF(ISEVEN(B114),(B114-1)&amp;"/"&amp;B114,B114&amp;"/"&amp;(B114+1))</f>
+        <f t="shared" si="47"/>
         <v>4009/4010</v>
       </c>
       <c r="L114" s="27" t="str">
@@ -14982,7 +14986,7 @@
         <v>STAMBAUGH</v>
       </c>
       <c r="M114" s="6">
-        <f>I114-F114</f>
+        <f t="shared" si="48"/>
         <v>2.662037037225673E-2</v>
       </c>
       <c r="N114" s="7">
@@ -14994,11 +14998,11 @@
       <c r="Q114" s="28"/>
       <c r="R114" s="28"/>
       <c r="S114" s="46">
-        <f>SUM(U114:U114)/12</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="T114" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A114,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
       <c r="U114" s="108">
@@ -15006,27 +15010,27 @@
         <v>12</v>
       </c>
       <c r="V114" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E114-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I114+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B114&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 15:53:40-0600',mode:absolute,to:'2016-07-12 18:35:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W114" s="77" t="str">
-        <f>IF(AA114&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X114" s="103">
-        <f>VALUE(LEFT(A114,3))-VALUE(LEFT(A113,3))</f>
+        <f t="shared" si="51"/>
         <v>22</v>
       </c>
       <c r="Y114" s="100">
-        <f>RIGHT(D114,LEN(D114)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>23.297699999999999</v>
       </c>
       <c r="Z114" s="100">
-        <f>RIGHT(H114,LEN(H114)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="AA114" s="100">
-        <f>ABS(Z114-Y114)</f>
+        <f t="shared" si="54"/>
         <v>23.283799999999999</v>
       </c>
       <c r="AB114" s="97" t="e">
@@ -15038,19 +15042,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD114" s="94" t="str">
-        <f>IF(LEN(A114)=6,"0"&amp;A114,A114)</f>
+        <f t="shared" si="55"/>
         <v>0200-12</v>
       </c>
       <c r="AE114" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4010/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4010/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-13</v>
       </c>
       <c r="AF114" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4010*20160712*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG114" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -15086,7 +15090,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="27" t="str">
-        <f>IF(ISEVEN(B115),(B115-1)&amp;"/"&amp;B115,B115&amp;"/"&amp;(B115+1))</f>
+        <f t="shared" si="47"/>
         <v>4027/4028</v>
       </c>
       <c r="L115" s="27" t="str">
@@ -15094,7 +15098,7 @@
         <v>BARTLETT</v>
       </c>
       <c r="M115" s="6">
-        <f>I115-F115</f>
+        <f t="shared" si="48"/>
         <v>3.0833333330519963E-2</v>
       </c>
       <c r="N115" s="7">
@@ -15106,11 +15110,11 @@
       <c r="Q115" s="28"/>
       <c r="R115" s="28"/>
       <c r="S115" s="46">
-        <f>SUM(U115:U115)/12</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="T115" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A115,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
       <c r="U115" s="108">
@@ -15118,27 +15122,27 @@
         <v>12</v>
       </c>
       <c r="V115" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E115-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I115+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B115&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 15:19:12-0600',mode:absolute,to:'2016-07-12 18:04:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W115" s="77" t="str">
-        <f>IF(AA115&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X115" s="103">
-        <f>VALUE(LEFT(A115,3))-VALUE(LEFT(A114,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y115" s="100">
-        <f>RIGHT(D115,LEN(D115)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="Z115" s="100">
-        <f>RIGHT(H115,LEN(H115)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>23.3276</v>
       </c>
       <c r="AA115" s="100">
-        <f>ABS(Z115-Y115)</f>
+        <f t="shared" si="54"/>
         <v>23.283000000000001</v>
       </c>
       <c r="AB115" s="97" t="e">
@@ -15150,19 +15154,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD115" s="94" t="str">
-        <f>IF(LEN(A115)=6,"0"&amp;A115,A115)</f>
+        <f t="shared" si="55"/>
         <v>0201-12</v>
       </c>
       <c r="AE115" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4027/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4027\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4027\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4027/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4027\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4027\2016-07-13</v>
       </c>
       <c r="AF115" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4027*20160712*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG115" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -15198,7 +15202,7 @@
         <v>0</v>
       </c>
       <c r="K116" s="27" t="str">
-        <f>IF(ISEVEN(B116),(B116-1)&amp;"/"&amp;B116,B116&amp;"/"&amp;(B116+1))</f>
+        <f t="shared" si="47"/>
         <v>4027/4028</v>
       </c>
       <c r="L116" s="27" t="str">
@@ -15206,7 +15210,7 @@
         <v>BARTLETT</v>
       </c>
       <c r="M116" s="6">
-        <f>I116-F116</f>
+        <f t="shared" si="48"/>
         <v>2.7696759258105885E-2</v>
       </c>
       <c r="N116" s="7">
@@ -15218,11 +15222,11 @@
       <c r="Q116" s="28"/>
       <c r="R116" s="28"/>
       <c r="S116" s="46">
-        <f>SUM(U116:U116)/12</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="T116" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A116,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
       <c r="U116" s="108">
@@ -15230,27 +15234,27 @@
         <v>12</v>
       </c>
       <c r="V116" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E116-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I116+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B116&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 16:08:28-0600',mode:absolute,to:'2016-07-12 18:50:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W116" s="77" t="str">
-        <f>IF(AA116&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X116" s="103">
-        <f>VALUE(LEFT(A116,3))-VALUE(LEFT(A115,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y116" s="100">
-        <f>RIGHT(D116,LEN(D116)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>23.295100000000001</v>
       </c>
       <c r="Z116" s="100">
-        <f>RIGHT(H116,LEN(H116)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AA116" s="100">
-        <f>ABS(Z116-Y116)</f>
+        <f t="shared" si="54"/>
         <v>23.280100000000001</v>
       </c>
       <c r="AB116" s="97" t="e">
@@ -15262,19 +15266,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD116" s="94" t="str">
-        <f>IF(LEN(A116)=6,"0"&amp;A116,A116)</f>
+        <f t="shared" si="55"/>
         <v>0202-12</v>
       </c>
       <c r="AE116" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-13</v>
       </c>
       <c r="AF116" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4028*20160712*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG116" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -15310,7 +15314,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="27" t="str">
-        <f>IF(ISEVEN(B117),(B117-1)&amp;"/"&amp;B117,B117&amp;"/"&amp;(B117+1))</f>
+        <f t="shared" si="47"/>
         <v>4017/4018</v>
       </c>
       <c r="L117" s="27" t="str">
@@ -15318,7 +15322,7 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M117" s="6">
-        <f>I117-F117</f>
+        <f t="shared" si="48"/>
         <v>2.6041666664241347E-2</v>
       </c>
       <c r="N117" s="7">
@@ -15330,11 +15334,11 @@
       <c r="Q117" s="28"/>
       <c r="R117" s="28"/>
       <c r="S117" s="46">
-        <f>SUM(U117:U117)/12</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="T117" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A117,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
       <c r="U117" s="108">
@@ -15342,27 +15346,27 @@
         <v>12</v>
       </c>
       <c r="V117" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E117-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I117+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B117&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 15:29:18-0600',mode:absolute,to:'2016-07-12 18:08:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W117" s="77" t="str">
-        <f>IF(AA117&lt;23,"Y","N")</f>
+        <f t="shared" si="46"/>
         <v>N</v>
       </c>
       <c r="X117" s="103">
-        <f>VALUE(LEFT(A117,3))-VALUE(LEFT(A116,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y117" s="100">
-        <f>RIGHT(D117,LEN(D117)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="Z117" s="100">
-        <f>RIGHT(H117,LEN(H117)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>23.331600000000002</v>
       </c>
       <c r="AA117" s="100">
-        <f>ABS(Z117-Y117)</f>
+        <f t="shared" si="54"/>
         <v>23.286700000000003</v>
       </c>
       <c r="AB117" s="97" t="e">
@@ -15374,19 +15378,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD117" s="94" t="str">
-        <f>IF(LEN(A117)=6,"0"&amp;A117,A117)</f>
+        <f t="shared" si="55"/>
         <v>0203-12</v>
       </c>
       <c r="AE117" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-13</v>
       </c>
       <c r="AF117" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160712*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG117" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -15422,7 +15426,7 @@
         <v>1</v>
       </c>
       <c r="K118" s="27" t="str">
-        <f>IF(ISEVEN(B118),(B118-1)&amp;"/"&amp;B118,B118&amp;"/"&amp;(B118+1))</f>
+        <f t="shared" si="47"/>
         <v>4017/4018</v>
       </c>
       <c r="L118" s="27" t="str">
@@ -15430,7 +15434,7 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M118" s="6">
-        <f>I118-F118</f>
+        <f t="shared" si="48"/>
         <v>3.2650462962919846E-2</v>
       </c>
       <c r="N118" s="7">
@@ -15442,11 +15446,11 @@
       <c r="Q118" s="28"/>
       <c r="R118" s="28"/>
       <c r="S118" s="46">
-        <f>SUM(U118:U118)/12</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="T118" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A118,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
       <c r="U118" s="108">
@@ -15454,27 +15458,27 @@
         <v>12</v>
       </c>
       <c r="V118" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E118-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I118+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B118&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 16:16:35-0600',mode:absolute,to:'2016-07-12 19:05:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W118" s="77" t="str">
-        <f>IF(AA118&lt;23,"Y","N")</f>
+        <f t="shared" ref="W118:W139" si="58">IF(AA118&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X118" s="103">
-        <f>VALUE(LEFT(A118,3))-VALUE(LEFT(A117,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y118" s="100">
-        <f>RIGHT(D118,LEN(D118)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>23.298999999999999</v>
       </c>
       <c r="Z118" s="100">
-        <f>RIGHT(H118,LEN(H118)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AA118" s="100">
-        <f>ABS(Z118-Y118)</f>
+        <f t="shared" si="54"/>
         <v>23.283999999999999</v>
       </c>
       <c r="AB118" s="97">
@@ -15486,19 +15490,19 @@
         <v>GRADE CROSSING</v>
       </c>
       <c r="AD118" s="94" t="str">
-        <f>IF(LEN(A118)=6,"0"&amp;A118,A118)</f>
+        <f t="shared" si="55"/>
         <v>0204-12</v>
       </c>
       <c r="AE118" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-13</v>
       </c>
       <c r="AF118" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160713*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG118" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -15534,7 +15538,7 @@
         <v>0</v>
       </c>
       <c r="K119" s="27" t="str">
-        <f>IF(ISEVEN(B119),(B119-1)&amp;"/"&amp;B119,B119&amp;"/"&amp;(B119+1))</f>
+        <f t="shared" si="47"/>
         <v>4011/4012</v>
       </c>
       <c r="L119" s="27" t="str">
@@ -15542,7 +15546,7 @@
         <v>SPECTOR</v>
       </c>
       <c r="M119" s="6">
-        <f>I119-F119</f>
+        <f t="shared" si="48"/>
         <v>1.8171296294895001E-2</v>
       </c>
       <c r="N119" s="7"/>
@@ -15556,11 +15560,11 @@
         <v>134</v>
       </c>
       <c r="S119" s="46">
-        <f>SUM(U119:U119)/12</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="T119" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A119,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
       <c r="U119" s="108">
@@ -15568,27 +15572,27 @@
         <v>12</v>
       </c>
       <c r="V119" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E119-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I119+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B119&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 09:57:11-0600',mode:absolute,to:'2016-07-12 12:24:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W119" s="77" t="str">
-        <f>IF(AA119&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>Y</v>
       </c>
       <c r="X119" s="103">
-        <f>VALUE(LEFT(A119,3))-VALUE(LEFT(A118,3))</f>
+        <f t="shared" si="51"/>
         <v>-54</v>
       </c>
       <c r="Y119" s="100">
-        <f>RIGHT(D119,LEN(D119)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>12.7849</v>
       </c>
       <c r="Z119" s="100">
-        <f>RIGHT(H119,LEN(H119)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>1.41E-2</v>
       </c>
       <c r="AA119" s="100">
-        <f>ABS(Z119-Y119)</f>
+        <f t="shared" si="54"/>
         <v>12.770800000000001</v>
       </c>
       <c r="AB119" s="97" t="e">
@@ -15600,19 +15604,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD119" s="94" t="str">
-        <f>IF(LEN(A119)=6,"0"&amp;A119,A119)</f>
+        <f t="shared" si="55"/>
         <v>0150-12</v>
       </c>
       <c r="AE119" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4012/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4012\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4012\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4012/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4012\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4012\2016-07-13</v>
       </c>
       <c r="AF119" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4012*20160712*" /stext=" 17:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG119" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -15648,7 +15652,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="27" t="str">
-        <f>IF(ISEVEN(B120),(B120-1)&amp;"/"&amp;B120,B120&amp;"/"&amp;(B120+1))</f>
+        <f t="shared" si="47"/>
         <v>4011/4012</v>
       </c>
       <c r="L120" s="27" t="str">
@@ -15656,7 +15660,7 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M120" s="6">
-        <f>I120-F120</f>
+        <f t="shared" si="48"/>
         <v>1.377314816636499E-3</v>
       </c>
       <c r="N120" s="7"/>
@@ -15666,7 +15670,7 @@
       <c r="R120" s="28"/>
       <c r="S120" s="46"/>
       <c r="T120" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A120,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
       <c r="U120" s="108">
@@ -15674,27 +15678,27 @@
         <v>0</v>
       </c>
       <c r="V120" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E120-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I120+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B120&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 16:36:23-0600',mode:absolute,to:'2016-07-12 18:41:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W120" s="77" t="str">
-        <f>IF(AA120&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>Y</v>
       </c>
       <c r="X120" s="103">
-        <f>VALUE(LEFT(A120,3))-VALUE(LEFT(A119,3))</f>
+        <f t="shared" si="51"/>
         <v>56</v>
       </c>
       <c r="Y120" s="100">
-        <f>RIGHT(D120,LEN(D120)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>23.302800000000001</v>
       </c>
       <c r="Z120" s="100">
-        <f>RIGHT(H120,LEN(H120)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>23.236000000000001</v>
       </c>
       <c r="AA120" s="100">
-        <f>ABS(Z120-Y120)</f>
+        <f t="shared" si="54"/>
         <v>6.6800000000000637E-2</v>
       </c>
       <c r="AB120" s="97" t="e">
@@ -15706,19 +15710,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD120" s="94" t="str">
-        <f>IF(LEN(A120)=6,"0"&amp;A120,A120)</f>
+        <f t="shared" si="55"/>
         <v>0206-12</v>
       </c>
       <c r="AE120" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4012/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4012\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4012\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4012/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4012\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4012\2016-07-13</v>
       </c>
       <c r="AF120" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4012*20160712*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG120" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -15754,7 +15758,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="27" t="str">
-        <f>IF(ISEVEN(B121),(B121-1)&amp;"/"&amp;B121,B121&amp;"/"&amp;(B121+1))</f>
+        <f t="shared" si="47"/>
         <v>4015/4016</v>
       </c>
       <c r="L121" s="27" t="str">
@@ -15762,7 +15766,7 @@
         <v>SHOOK</v>
       </c>
       <c r="M121" s="6">
-        <f>I121-F121</f>
+        <f t="shared" si="48"/>
         <v>3.0023148152395152E-2</v>
       </c>
       <c r="N121" s="7">
@@ -15774,11 +15778,11 @@
       <c r="Q121" s="28"/>
       <c r="R121" s="28"/>
       <c r="S121" s="46">
-        <f>SUM(U121:U121)/12</f>
+        <f t="shared" ref="S121:S126" si="59">SUM(U121:U121)/12</f>
         <v>1</v>
       </c>
       <c r="T121" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A121,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
       <c r="U121" s="108">
@@ -15786,27 +15790,27 @@
         <v>12</v>
       </c>
       <c r="V121" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E121-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I121+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B121&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 15:52:39-0600',mode:absolute,to:'2016-07-12 18:37:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4016%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W121" s="77" t="str">
-        <f>IF(AA121&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>N</v>
       </c>
       <c r="X121" s="103">
-        <f>VALUE(LEFT(A121,3))-VALUE(LEFT(A120,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y121" s="100">
-        <f>RIGHT(D121,LEN(D121)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="Z121" s="100">
-        <f>RIGHT(H121,LEN(H121)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>23.334700000000002</v>
       </c>
       <c r="AA121" s="100">
-        <f>ABS(Z121-Y121)</f>
+        <f t="shared" si="54"/>
         <v>23.288300000000003</v>
       </c>
       <c r="AB121" s="97" t="e">
@@ -15818,19 +15822,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD121" s="94" t="str">
-        <f>IF(LEN(A121)=6,"0"&amp;A121,A121)</f>
+        <f t="shared" si="55"/>
         <v>0207-12</v>
       </c>
       <c r="AE121" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4016/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4016\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4016\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4016/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4016\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4016\2016-07-13</v>
       </c>
       <c r="AF121" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4016*20160712*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG121" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -15866,7 +15870,7 @@
         <v>2</v>
       </c>
       <c r="K122" s="27" t="str">
-        <f>IF(ISEVEN(B122),(B122-1)&amp;"/"&amp;B122,B122&amp;"/"&amp;(B122+1))</f>
+        <f t="shared" si="47"/>
         <v>4015/4016</v>
       </c>
       <c r="L122" s="27" t="str">
@@ -15874,7 +15878,7 @@
         <v>SHOOK</v>
       </c>
       <c r="M122" s="6">
-        <f>I122-F122</f>
+        <f t="shared" si="48"/>
         <v>3.0949074069212656E-2</v>
       </c>
       <c r="N122" s="7">
@@ -15886,11 +15890,11 @@
       <c r="Q122" s="28"/>
       <c r="R122" s="28"/>
       <c r="S122" s="46">
-        <f>SUM(U122:U122)/12</f>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="T122" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A122,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>Southbound</v>
       </c>
       <c r="U122" s="108">
@@ -15898,27 +15902,27 @@
         <v>12</v>
       </c>
       <c r="V122" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E122-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I122+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B122&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 16:50:17-0600',mode:absolute,to:'2016-07-12 19:36:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W122" s="77" t="str">
-        <f>IF(AA122&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>N</v>
       </c>
       <c r="X122" s="103">
-        <f>VALUE(LEFT(A122,3))-VALUE(LEFT(A121,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y122" s="100">
-        <f>RIGHT(D122,LEN(D122)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>23.304200000000002</v>
       </c>
       <c r="Z122" s="100">
-        <f>RIGHT(H122,LEN(H122)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>1.72E-2</v>
       </c>
       <c r="AA122" s="100">
-        <f>ABS(Z122-Y122)</f>
+        <f t="shared" si="54"/>
         <v>23.287000000000003</v>
       </c>
       <c r="AB122" s="97" t="e">
@@ -15930,19 +15934,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD122" s="94" t="str">
-        <f>IF(LEN(A122)=6,"0"&amp;A122,A122)</f>
+        <f t="shared" si="55"/>
         <v>0208-12</v>
       </c>
       <c r="AE122" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-13</v>
       </c>
       <c r="AF122" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4015*20160713*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG122" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -15978,7 +15982,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="27" t="str">
-        <f>IF(ISEVEN(B123),(B123-1)&amp;"/"&amp;B123,B123&amp;"/"&amp;(B123+1))</f>
+        <f t="shared" si="47"/>
         <v>4043/4044</v>
       </c>
       <c r="L123" s="27" t="str">
@@ -15986,7 +15990,7 @@
         <v>MAELZER</v>
       </c>
       <c r="M123" s="6">
-        <f>I123-F123</f>
+        <f t="shared" si="48"/>
         <v>2.8692129628325347E-2</v>
       </c>
       <c r="N123" s="7">
@@ -15998,11 +16002,11 @@
       <c r="Q123" s="28"/>
       <c r="R123" s="28"/>
       <c r="S123" s="46">
-        <f>SUM(U123:U123)/12</f>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="T123" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A123,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="49"/>
         <v>NorthBound</v>
       </c>
       <c r="U123" s="108">
@@ -16010,27 +16014,27 @@
         <v>12</v>
       </c>
       <c r="V123" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E123-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I123+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B123&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="50"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 16:12:23-0600',mode:absolute,to:'2016-07-12 18:55:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W123" s="77" t="str">
-        <f>IF(AA123&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>N</v>
       </c>
       <c r="X123" s="103">
-        <f>VALUE(LEFT(A123,3))-VALUE(LEFT(A122,3))</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Y123" s="100">
-        <f>RIGHT(D123,LEN(D123)-4)/10000</f>
+        <f t="shared" si="52"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="Z123" s="100">
-        <f>RIGHT(H123,LEN(H123)-4)/10000</f>
+        <f t="shared" si="53"/>
         <v>23.331</v>
       </c>
       <c r="AA123" s="100">
-        <f>ABS(Z123-Y123)</f>
+        <f t="shared" si="54"/>
         <v>23.284399999999998</v>
       </c>
       <c r="AB123" s="97" t="e">
@@ -16042,19 +16046,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD123" s="94" t="str">
-        <f>IF(LEN(A123)=6,"0"&amp;A123,A123)</f>
+        <f t="shared" si="55"/>
         <v>0209-12</v>
       </c>
       <c r="AE123" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4044/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4044/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-13</v>
       </c>
       <c r="AF123" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4044*20160712*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG123" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -16090,7 +16094,7 @@
         <v>1</v>
       </c>
       <c r="K124" s="27" t="str">
-        <f>IF(ISEVEN(B124),(B124-1)&amp;"/"&amp;B124,B124&amp;"/"&amp;(B124+1))</f>
+        <f t="shared" ref="K124:K139" si="60">IF(ISEVEN(B124),(B124-1)&amp;"/"&amp;B124,B124&amp;"/"&amp;(B124+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L124" s="27" t="str">
@@ -16098,7 +16102,7 @@
         <v>MAELZER</v>
       </c>
       <c r="M124" s="6">
-        <f>I124-F124</f>
+        <f t="shared" ref="M124:M139" si="61">I124-F124</f>
         <v>3.3055555555620231E-2</v>
       </c>
       <c r="N124" s="7">
@@ -16110,11 +16114,11 @@
       <c r="Q124" s="28"/>
       <c r="R124" s="28"/>
       <c r="S124" s="46">
-        <f>SUM(U124:U124)/12</f>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="T124" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A124,3)),"Southbound","NorthBound")</f>
+        <f t="shared" ref="T124:T139" si="62">IF(ISEVEN(LEFT(A124,3)),"Southbound","NorthBound")</f>
         <v>Southbound</v>
       </c>
       <c r="U124" s="108">
@@ -16122,27 +16126,27 @@
         <v>12</v>
       </c>
       <c r="V124" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E124-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I124+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B124&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="V124:V139" si="63">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E124-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I124+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B124&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 17:03:19-0600',mode:absolute,to:'2016-07-12 19:52:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W124" s="77" t="str">
-        <f>IF(AA124&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>N</v>
       </c>
       <c r="X124" s="103">
-        <f>VALUE(LEFT(A124,3))-VALUE(LEFT(A123,3))</f>
+        <f t="shared" ref="X124:X139" si="64">VALUE(LEFT(A124,3))-VALUE(LEFT(A123,3))</f>
         <v>1</v>
       </c>
       <c r="Y124" s="100">
-        <f>RIGHT(D124,LEN(D124)-4)/10000</f>
+        <f t="shared" ref="Y124:Y139" si="65">RIGHT(D124,LEN(D124)-4)/10000</f>
         <v>23.3</v>
       </c>
       <c r="Z124" s="100">
-        <f>RIGHT(H124,LEN(H124)-4)/10000</f>
+        <f t="shared" ref="Z124:Z139" si="66">RIGHT(H124,LEN(H124)-4)/10000</f>
         <v>1.52E-2</v>
       </c>
       <c r="AA124" s="100">
-        <f>ABS(Z124-Y124)</f>
+        <f t="shared" ref="AA124:AA155" si="67">ABS(Z124-Y124)</f>
         <v>23.284800000000001</v>
       </c>
       <c r="AB124" s="97" t="e">
@@ -16154,19 +16158,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD124" s="94" t="str">
-        <f>IF(LEN(A124)=6,"0"&amp;A124,A124)</f>
+        <f t="shared" ref="AD124:AD139" si="68">IF(LEN(A124)=6,"0"&amp;A124,A124)</f>
         <v>0210-12</v>
       </c>
       <c r="AE124" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4043/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4043/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-13</v>
       </c>
       <c r="AF124" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4043*20160713*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG124" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -16202,7 +16206,7 @@
         <v>1</v>
       </c>
       <c r="K125" s="27" t="str">
-        <f>IF(ISEVEN(B125),(B125-1)&amp;"/"&amp;B125,B125&amp;"/"&amp;(B125+1))</f>
+        <f t="shared" si="60"/>
         <v>4041/4042</v>
       </c>
       <c r="L125" s="27" t="str">
@@ -16210,7 +16214,7 @@
         <v>YOUNG</v>
       </c>
       <c r="M125" s="6">
-        <f>I125-F125</f>
+        <f t="shared" si="61"/>
         <v>2.8310185189184267E-2</v>
       </c>
       <c r="N125" s="7">
@@ -16222,11 +16226,11 @@
       <c r="Q125" s="28"/>
       <c r="R125" s="28"/>
       <c r="S125" s="46">
-        <f>SUM(U125:U125)/12</f>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="T125" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A125,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="62"/>
         <v>NorthBound</v>
       </c>
       <c r="U125" s="108">
@@ -16234,27 +16238,27 @@
         <v>12</v>
       </c>
       <c r="V125" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E125-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I125+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B125&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="63"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 16:26:29-0600',mode:absolute,to:'2016-07-12 19:08:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W125" s="77" t="str">
-        <f>IF(AA125&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>N</v>
       </c>
       <c r="X125" s="103">
-        <f>VALUE(LEFT(A125,3))-VALUE(LEFT(A124,3))</f>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="Y125" s="100">
-        <f>RIGHT(D125,LEN(D125)-4)/10000</f>
+        <f t="shared" si="65"/>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="Z125" s="100">
-        <f>RIGHT(H125,LEN(H125)-4)/10000</f>
+        <f t="shared" si="66"/>
         <v>23.3245</v>
       </c>
       <c r="AA125" s="100">
-        <f>ABS(Z125-Y125)</f>
+        <f t="shared" si="67"/>
         <v>23.279800000000002</v>
       </c>
       <c r="AB125" s="97" t="e">
@@ -16266,19 +16270,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD125" s="94" t="str">
-        <f>IF(LEN(A125)=6,"0"&amp;A125,A125)</f>
+        <f t="shared" si="68"/>
         <v>0211-12</v>
       </c>
       <c r="AE125" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4042/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4042\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4042\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4042/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4042\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4042\2016-07-13</v>
       </c>
       <c r="AF125" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4042*20160713*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG125" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -16314,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="27" t="str">
-        <f>IF(ISEVEN(B126),(B126-1)&amp;"/"&amp;B126,B126&amp;"/"&amp;(B126+1))</f>
+        <f t="shared" si="60"/>
         <v>4015/4016</v>
       </c>
       <c r="L126" s="27" t="str">
@@ -16322,7 +16326,7 @@
         <v>SHOOK</v>
       </c>
       <c r="M126" s="6">
-        <f>I126-F126</f>
+        <f t="shared" si="61"/>
         <v>2.2766203706851229E-2</v>
       </c>
       <c r="N126" s="7"/>
@@ -16336,11 +16340,11 @@
         <v>134</v>
       </c>
       <c r="S126" s="46">
-        <f>SUM(U126:U126)/12</f>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="T126" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A126,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="62"/>
         <v>Southbound</v>
       </c>
       <c r="U126" s="108">
@@ -16348,27 +16352,27 @@
         <v>12</v>
       </c>
       <c r="V126" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E126-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I126+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B126&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="63"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 13:38:38-0600',mode:absolute,to:'2016-07-12 16:13:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4015%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W126" s="77" t="str">
-        <f>IF(AA126&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>Y</v>
       </c>
       <c r="X126" s="103">
-        <f>VALUE(LEFT(A126,3))-VALUE(LEFT(A125,3))</f>
+        <f t="shared" si="64"/>
         <v>-31</v>
       </c>
       <c r="Y126" s="100">
-        <f>RIGHT(D126,LEN(D126)-4)/10000</f>
+        <f t="shared" si="65"/>
         <v>15.3996</v>
       </c>
       <c r="Z126" s="100">
-        <f>RIGHT(H126,LEN(H126)-4)/10000</f>
+        <f t="shared" si="66"/>
         <v>1.61E-2</v>
       </c>
       <c r="AA126" s="100">
-        <f>ABS(Z126-Y126)</f>
+        <f t="shared" si="67"/>
         <v>15.3835</v>
       </c>
       <c r="AB126" s="97" t="e">
@@ -16380,19 +16384,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD126" s="94" t="str">
-        <f>IF(LEN(A126)=6,"0"&amp;A126,A126)</f>
+        <f t="shared" si="68"/>
         <v>0180-12</v>
       </c>
       <c r="AE126" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4015/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4015\2016-07-13</v>
       </c>
       <c r="AF126" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4015*20160712*" /stext=" 21:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG126" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -16428,7 +16432,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="27" t="str">
-        <f>IF(ISEVEN(B127),(B127-1)&amp;"/"&amp;B127,B127&amp;"/"&amp;(B127+1))</f>
+        <f t="shared" si="60"/>
         <v>4041/4042</v>
       </c>
       <c r="L127" s="27" t="str">
@@ -16436,7 +16440,7 @@
         <v>YOUNG</v>
       </c>
       <c r="M127" s="6">
-        <f>I127-F127</f>
+        <f t="shared" si="61"/>
         <v>1.0891203703067731E-2</v>
       </c>
       <c r="N127" s="7"/>
@@ -16446,7 +16450,7 @@
       <c r="R127" s="28"/>
       <c r="S127" s="46"/>
       <c r="T127" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A127,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="62"/>
         <v>Southbound</v>
       </c>
       <c r="U127" s="108">
@@ -16454,27 +16458,27 @@
         <v>9</v>
       </c>
       <c r="V127" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E127-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I127+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B127&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="63"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 17:52:13-0600',mode:absolute,to:'2016-07-12 20:09:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W127" s="77" t="str">
-        <f>IF(AA127&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>Y</v>
       </c>
       <c r="X127" s="103">
-        <f>VALUE(LEFT(A127,3))-VALUE(LEFT(A126,3))</f>
+        <f t="shared" si="64"/>
         <v>32</v>
       </c>
       <c r="Y127" s="100">
-        <f>RIGHT(D127,LEN(D127)-4)/10000</f>
+        <f t="shared" si="65"/>
         <v>6.4157000000000002</v>
       </c>
       <c r="Z127" s="100">
-        <f>RIGHT(H127,LEN(H127)-4)/10000</f>
+        <f t="shared" si="66"/>
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="AA127" s="100">
-        <f>ABS(Z127-Y127)</f>
+        <f t="shared" si="67"/>
         <v>6.3992000000000004</v>
       </c>
       <c r="AB127" s="97" t="e">
@@ -16486,19 +16490,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD127" s="94" t="str">
-        <f>IF(LEN(A127)=6,"0"&amp;A127,A127)</f>
+        <f t="shared" si="68"/>
         <v>0212-12</v>
       </c>
       <c r="AE127" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4041/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4041\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4041\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4041/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4041\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4041\2016-07-13</v>
       </c>
       <c r="AF127" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4041*20160713*" /stext=" 01:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG127" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -16534,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="27" t="str">
-        <f>IF(ISEVEN(B128),(B128-1)&amp;"/"&amp;B128,B128&amp;"/"&amp;(B128+1))</f>
+        <f t="shared" si="60"/>
         <v>4009/4010</v>
       </c>
       <c r="L128" s="27" t="str">
@@ -16542,11 +16546,11 @@
         <v>MOSES</v>
       </c>
       <c r="M128" s="6">
-        <f>I128-F128</f>
+        <f t="shared" si="61"/>
         <v>2.8749999997671694E-2</v>
       </c>
       <c r="N128" s="7">
-        <f>24*60*SUM($M128:$M128)</f>
+        <f t="shared" ref="N128:N135" si="69">24*60*SUM($M128:$M128)</f>
         <v>41.399999996647239</v>
       </c>
       <c r="O128" s="7"/>
@@ -16554,11 +16558,11 @@
       <c r="Q128" s="28"/>
       <c r="R128" s="28"/>
       <c r="S128" s="46">
-        <f>SUM(U128:U128)/12</f>
+        <f t="shared" ref="S128:S139" si="70">SUM(U128:U128)/12</f>
         <v>1</v>
       </c>
       <c r="T128" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A128,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="62"/>
         <v>NorthBound</v>
       </c>
       <c r="U128" s="108">
@@ -16566,27 +16570,27 @@
         <v>12</v>
       </c>
       <c r="V128" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E128-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I128+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B128&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="63"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 16:42:43-0600',mode:absolute,to:'2016-07-12 19:25:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W128" s="77" t="str">
-        <f>IF(AA128&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>N</v>
       </c>
       <c r="X128" s="103">
-        <f>VALUE(LEFT(A128,3))-VALUE(LEFT(A127,3))</f>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="Y128" s="100">
-        <f>RIGHT(D128,LEN(D128)-4)/10000</f>
+        <f t="shared" si="65"/>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="Z128" s="100">
-        <f>RIGHT(H128,LEN(H128)-4)/10000</f>
+        <f t="shared" si="66"/>
         <v>23.330400000000001</v>
       </c>
       <c r="AA128" s="100">
-        <f>ABS(Z128-Y128)</f>
+        <f t="shared" si="67"/>
         <v>23.282700000000002</v>
       </c>
       <c r="AB128" s="97" t="e">
@@ -16598,19 +16602,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD128" s="94" t="str">
-        <f>IF(LEN(A128)=6,"0"&amp;A128,A128)</f>
+        <f t="shared" si="68"/>
         <v>0213-12</v>
       </c>
       <c r="AE128" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4009/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4009/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-13</v>
       </c>
       <c r="AF128" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4009*20160713*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG128" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -16646,7 +16650,7 @@
         <v>0</v>
       </c>
       <c r="K129" s="27" t="str">
-        <f>IF(ISEVEN(B129),(B129-1)&amp;"/"&amp;B129,B129&amp;"/"&amp;(B129+1))</f>
+        <f t="shared" si="60"/>
         <v>4009/4010</v>
       </c>
       <c r="L129" s="27" t="str">
@@ -16654,11 +16658,11 @@
         <v>MOSES</v>
       </c>
       <c r="M129" s="6">
-        <f>I129-F129</f>
+        <f t="shared" si="61"/>
         <v>2.7858796296641231E-2</v>
       </c>
       <c r="N129" s="7">
-        <f>24*60*SUM($M129:$M129)</f>
+        <f t="shared" si="69"/>
         <v>40.116666667163372</v>
       </c>
       <c r="O129" s="7"/>
@@ -16666,11 +16670,11 @@
       <c r="Q129" s="28"/>
       <c r="R129" s="28"/>
       <c r="S129" s="46">
-        <f>SUM(U129:U129)/12</f>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="T129" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A129,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="62"/>
         <v>Southbound</v>
       </c>
       <c r="U129" s="108">
@@ -16678,27 +16682,27 @@
         <v>12</v>
       </c>
       <c r="V129" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E129-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I129+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B129&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="63"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 17:36:33-0600',mode:absolute,to:'2016-07-12 20:18:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W129" s="77" t="str">
-        <f>IF(AA129&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>N</v>
       </c>
       <c r="X129" s="103">
-        <f>VALUE(LEFT(A129,3))-VALUE(LEFT(A128,3))</f>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="Y129" s="100">
-        <f>RIGHT(D129,LEN(D129)-4)/10000</f>
+        <f t="shared" si="65"/>
         <v>23.299800000000001</v>
       </c>
       <c r="Z129" s="100">
-        <f>RIGHT(H129,LEN(H129)-4)/10000</f>
+        <f t="shared" si="66"/>
         <v>1.54E-2</v>
       </c>
       <c r="AA129" s="100">
-        <f>ABS(Z129-Y129)</f>
+        <f t="shared" si="67"/>
         <v>23.284400000000002</v>
       </c>
       <c r="AB129" s="97" t="e">
@@ -16710,19 +16714,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD129" s="94" t="str">
-        <f>IF(LEN(A129)=6,"0"&amp;A129,A129)</f>
+        <f t="shared" si="68"/>
         <v>0214-12</v>
       </c>
       <c r="AE129" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4010/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4010/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-13</v>
       </c>
       <c r="AF129" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4010*20160713*" /stext=" 01:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG129" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -16758,7 +16762,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="27" t="str">
-        <f>IF(ISEVEN(B130),(B130-1)&amp;"/"&amp;B130,B130&amp;"/"&amp;(B130+1))</f>
+        <f t="shared" si="60"/>
         <v>4027/4028</v>
       </c>
       <c r="L130" s="27" t="str">
@@ -16766,11 +16770,11 @@
         <v>STAMBAUGH</v>
       </c>
       <c r="M130" s="6">
-        <f>I130-F130</f>
+        <f t="shared" si="61"/>
         <v>2.7627314811979886E-2</v>
       </c>
       <c r="N130" s="7">
-        <f>24*60*SUM($M130:$M130)</f>
+        <f t="shared" si="69"/>
         <v>39.783333329251036</v>
       </c>
       <c r="O130" s="7"/>
@@ -16778,11 +16782,11 @@
       <c r="Q130" s="28"/>
       <c r="R130" s="28"/>
       <c r="S130" s="46">
-        <f>SUM(U130:U130)/12</f>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="T130" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A130,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="62"/>
         <v>NorthBound</v>
       </c>
       <c r="U130" s="108">
@@ -16790,27 +16794,27 @@
         <v>12</v>
       </c>
       <c r="V130" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E130-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I130+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B130&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="63"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 16:54:48-0600',mode:absolute,to:'2016-07-12 19:36:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W130" s="77" t="str">
-        <f>IF(AA130&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>N</v>
       </c>
       <c r="X130" s="103">
-        <f>VALUE(LEFT(A130,3))-VALUE(LEFT(A129,3))</f>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="Y130" s="100">
-        <f>RIGHT(D130,LEN(D130)-4)/10000</f>
+        <f t="shared" si="65"/>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="Z130" s="100">
-        <f>RIGHT(H130,LEN(H130)-4)/10000</f>
+        <f t="shared" si="66"/>
         <v>23.329899999999999</v>
       </c>
       <c r="AA130" s="100">
-        <f>ABS(Z130-Y130)</f>
+        <f t="shared" si="67"/>
         <v>23.2822</v>
       </c>
       <c r="AB130" s="97" t="e">
@@ -16822,19 +16826,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD130" s="94" t="str">
-        <f>IF(LEN(A130)=6,"0"&amp;A130,A130)</f>
+        <f t="shared" si="68"/>
         <v>0215-12</v>
       </c>
       <c r="AE130" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4027/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4027\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4027\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4027/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4027\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4027\2016-07-13</v>
       </c>
       <c r="AF130" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4027*20160713*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG130" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -16870,7 +16874,7 @@
         <v>0</v>
       </c>
       <c r="K131" s="27" t="str">
-        <f>IF(ISEVEN(B131),(B131-1)&amp;"/"&amp;B131,B131&amp;"/"&amp;(B131+1))</f>
+        <f t="shared" si="60"/>
         <v>4027/4028</v>
       </c>
       <c r="L131" s="27" t="str">
@@ -16878,11 +16882,11 @@
         <v>STAMBAUGH</v>
       </c>
       <c r="M131" s="6">
-        <f>I131-F131</f>
+        <f t="shared" si="61"/>
         <v>2.8171296296932269E-2</v>
       </c>
       <c r="N131" s="7">
-        <f>24*60*SUM($M131:$M131)</f>
+        <f t="shared" si="69"/>
         <v>40.566666667582467</v>
       </c>
       <c r="O131" s="7"/>
@@ -16890,11 +16894,11 @@
       <c r="Q131" s="28"/>
       <c r="R131" s="28"/>
       <c r="S131" s="46">
-        <f>SUM(U131:U131)/12</f>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="T131" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A131,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="62"/>
         <v>Southbound</v>
       </c>
       <c r="U131" s="108">
@@ -16902,27 +16906,27 @@
         <v>12</v>
       </c>
       <c r="V131" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E131-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I131+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B131&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="63"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 17:53:04-0600',mode:absolute,to:'2016-07-12 20:34:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W131" s="77" t="str">
-        <f>IF(AA131&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>N</v>
       </c>
       <c r="X131" s="103">
-        <f>VALUE(LEFT(A131,3))-VALUE(LEFT(A130,3))</f>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="Y131" s="100">
-        <f>RIGHT(D131,LEN(D131)-4)/10000</f>
+        <f t="shared" si="65"/>
         <v>23.2988</v>
       </c>
       <c r="Z131" s="100">
-        <f>RIGHT(H131,LEN(H131)-4)/10000</f>
+        <f t="shared" si="66"/>
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="AA131" s="100">
-        <f>ABS(Z131-Y131)</f>
+        <f t="shared" si="67"/>
         <v>23.2849</v>
       </c>
       <c r="AB131" s="97" t="e">
@@ -16934,19 +16938,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD131" s="94" t="str">
-        <f>IF(LEN(A131)=6,"0"&amp;A131,A131)</f>
+        <f t="shared" si="68"/>
         <v>0216-12</v>
       </c>
       <c r="AE131" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4028/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4028\2016-07-13</v>
       </c>
       <c r="AF131" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4028*20160713*" /stext=" 01:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG131" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -16982,7 +16986,7 @@
         <v>0</v>
       </c>
       <c r="K132" s="27" t="str">
-        <f>IF(ISEVEN(B132),(B132-1)&amp;"/"&amp;B132,B132&amp;"/"&amp;(B132+1))</f>
+        <f t="shared" si="60"/>
         <v>4017/4018</v>
       </c>
       <c r="L132" s="27" t="str">
@@ -16990,11 +16994,11 @@
         <v>KILLION</v>
       </c>
       <c r="M132" s="6">
-        <f>I132-F132</f>
+        <f t="shared" si="61"/>
         <v>2.7962962965830229E-2</v>
       </c>
       <c r="N132" s="7">
-        <f>24*60*SUM($M132:$M132)</f>
+        <f t="shared" si="69"/>
         <v>40.26666667079553</v>
       </c>
       <c r="O132" s="7"/>
@@ -17002,11 +17006,11 @@
       <c r="Q132" s="28"/>
       <c r="R132" s="28"/>
       <c r="S132" s="46">
-        <f>SUM(U132:U132)/12</f>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="T132" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A132,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="62"/>
         <v>NorthBound</v>
       </c>
       <c r="U132" s="108">
@@ -17014,27 +17018,27 @@
         <v>12</v>
       </c>
       <c r="V132" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E132-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I132+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B132&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="63"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 17:08:52-0600',mode:absolute,to:'2016-07-12 19:50:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W132" s="77" t="str">
-        <f>IF(AA132&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>N</v>
       </c>
       <c r="X132" s="103">
-        <f>VALUE(LEFT(A132,3))-VALUE(LEFT(A131,3))</f>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="Y132" s="100">
-        <f>RIGHT(D132,LEN(D132)-4)/10000</f>
+        <f t="shared" si="65"/>
         <v>4.53E-2</v>
       </c>
       <c r="Z132" s="100">
-        <f>RIGHT(H132,LEN(H132)-4)/10000</f>
+        <f t="shared" si="66"/>
         <v>23.329699999999999</v>
       </c>
       <c r="AA132" s="100">
-        <f>ABS(Z132-Y132)</f>
+        <f t="shared" si="67"/>
         <v>23.284399999999998</v>
       </c>
       <c r="AB132" s="97" t="e">
@@ -17046,19 +17050,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD132" s="94" t="str">
-        <f>IF(LEN(A132)=6,"0"&amp;A132,A132)</f>
+        <f t="shared" si="68"/>
         <v>0217-12</v>
       </c>
       <c r="AE132" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-13</v>
       </c>
       <c r="AF132" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160713*" /stext=" 00:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG132" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -17094,7 +17098,7 @@
         <v>0</v>
       </c>
       <c r="K133" s="27" t="str">
-        <f>IF(ISEVEN(B133),(B133-1)&amp;"/"&amp;B133,B133&amp;"/"&amp;(B133+1))</f>
+        <f t="shared" si="60"/>
         <v>4017/4018</v>
       </c>
       <c r="L133" s="27" t="str">
@@ -17102,11 +17106,11 @@
         <v>KILLION</v>
       </c>
       <c r="M133" s="6">
-        <f>I133-F133</f>
+        <f t="shared" si="61"/>
         <v>2.7870370373420883E-2</v>
       </c>
       <c r="N133" s="7">
-        <f>24*60*SUM($M133:$M133)</f>
+        <f t="shared" si="69"/>
         <v>40.133333337726071</v>
       </c>
       <c r="O133" s="7"/>
@@ -17114,11 +17118,11 @@
       <c r="Q133" s="28"/>
       <c r="R133" s="28"/>
       <c r="S133" s="46">
-        <f>SUM(U133:U133)/12</f>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="T133" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A133,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="62"/>
         <v>Southbound</v>
       </c>
       <c r="U133" s="108">
@@ -17126,27 +17130,27 @@
         <v>12</v>
       </c>
       <c r="V133" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E133-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I133+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B133&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="63"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 18:07:14-0600',mode:absolute,to:'2016-07-12 20:48:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W133" s="77" t="str">
-        <f>IF(AA133&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>N</v>
       </c>
       <c r="X133" s="103">
-        <f>VALUE(LEFT(A133,3))-VALUE(LEFT(A132,3))</f>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="Y133" s="100">
-        <f>RIGHT(D133,LEN(D133)-4)/10000</f>
+        <f t="shared" si="65"/>
         <v>23.296600000000002</v>
       </c>
       <c r="Z133" s="100">
-        <f>RIGHT(H133,LEN(H133)-4)/10000</f>
+        <f t="shared" si="66"/>
         <v>1.52E-2</v>
       </c>
       <c r="AA133" s="100">
-        <f>ABS(Z133-Y133)</f>
+        <f t="shared" si="67"/>
         <v>23.281400000000001</v>
       </c>
       <c r="AB133" s="97" t="e">
@@ -17158,19 +17162,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD133" s="94" t="str">
-        <f>IF(LEN(A133)=6,"0"&amp;A133,A133)</f>
+        <f t="shared" si="68"/>
         <v>0218-12</v>
       </c>
       <c r="AE133" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-13</v>
       </c>
       <c r="AF133" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160713*" /stext=" 01:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG133" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -17206,7 +17210,7 @@
         <v>0</v>
       </c>
       <c r="K134" s="27" t="str">
-        <f>IF(ISEVEN(B134),(B134-1)&amp;"/"&amp;B134,B134&amp;"/"&amp;(B134+1))</f>
+        <f t="shared" si="60"/>
         <v>4011/4012</v>
       </c>
       <c r="L134" s="27" t="str">
@@ -17214,11 +17218,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M134" s="6">
-        <f>I134-F134</f>
+        <f t="shared" si="61"/>
         <v>2.4594907401478849E-2</v>
       </c>
       <c r="N134" s="7">
-        <f>24*60*SUM($M134:$M134)</f>
+        <f t="shared" si="69"/>
         <v>35.416666658129543</v>
       </c>
       <c r="O134" s="7"/>
@@ -17226,11 +17230,11 @@
       <c r="Q134" s="28"/>
       <c r="R134" s="28"/>
       <c r="S134" s="46">
-        <f>SUM(U134:U134)/12</f>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="T134" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A134,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="62"/>
         <v>NorthBound</v>
       </c>
       <c r="U134" s="108">
@@ -17238,27 +17242,27 @@
         <v>12</v>
       </c>
       <c r="V134" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E134-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I134+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B134&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="63"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 17:31:54-0600',mode:absolute,to:'2016-07-12 20:08:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W134" s="77" t="str">
-        <f>IF(AA134&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>N</v>
       </c>
       <c r="X134" s="103">
-        <f>VALUE(LEFT(A134,3))-VALUE(LEFT(A133,3))</f>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="Y134" s="100">
-        <f>RIGHT(D134,LEN(D134)-4)/10000</f>
+        <f t="shared" si="65"/>
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="Z134" s="100">
-        <f>RIGHT(H134,LEN(H134)-4)/10000</f>
+        <f t="shared" si="66"/>
         <v>23.330100000000002</v>
       </c>
       <c r="AA134" s="100">
-        <f>ABS(Z134-Y134)</f>
+        <f t="shared" si="67"/>
         <v>23.285700000000002</v>
       </c>
       <c r="AB134" s="97" t="e">
@@ -17270,19 +17274,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD134" s="94" t="str">
-        <f>IF(LEN(A134)=6,"0"&amp;A134,A134)</f>
+        <f t="shared" si="68"/>
         <v>0219-12</v>
       </c>
       <c r="AE134" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4011/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4011/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-13</v>
       </c>
       <c r="AF134" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4011*20160713*" /stext=" 01:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG134" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -17318,7 +17322,7 @@
         <v>0</v>
       </c>
       <c r="K135" s="27" t="str">
-        <f>IF(ISEVEN(B135),(B135-1)&amp;"/"&amp;B135,B135&amp;"/"&amp;(B135+1))</f>
+        <f t="shared" si="60"/>
         <v>4043/4044</v>
       </c>
       <c r="L135" s="27" t="str">
@@ -17326,11 +17330,11 @@
         <v>MAELZER</v>
       </c>
       <c r="M135" s="6">
-        <f>I135-F135</f>
+        <f t="shared" si="61"/>
         <v>2.7268518519122154E-2</v>
       </c>
       <c r="N135" s="7">
-        <f>24*60*SUM($M135:$M135)</f>
+        <f t="shared" si="69"/>
         <v>39.266666667535901</v>
       </c>
       <c r="O135" s="7"/>
@@ -17338,11 +17342,11 @@
       <c r="Q135" s="28"/>
       <c r="R135" s="28"/>
       <c r="S135" s="46">
-        <f>SUM(U135:U135)/12</f>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="T135" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A135,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="62"/>
         <v>NorthBound</v>
       </c>
       <c r="U135" s="108">
@@ -17350,27 +17354,27 @@
         <v>12</v>
       </c>
       <c r="V135" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E135-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I135+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B135&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="63"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 17:55:20-0600',mode:absolute,to:'2016-07-12 20:36:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W135" s="77" t="str">
-        <f>IF(AA135&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>N</v>
       </c>
       <c r="X135" s="103">
-        <f>VALUE(LEFT(A135,3))-VALUE(LEFT(A134,3))</f>
+        <f t="shared" si="64"/>
         <v>2</v>
       </c>
       <c r="Y135" s="100">
-        <f>RIGHT(D135,LEN(D135)-4)/10000</f>
+        <f t="shared" si="65"/>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="Z135" s="100">
-        <f>RIGHT(H135,LEN(H135)-4)/10000</f>
+        <f t="shared" si="66"/>
         <v>23.331499999999998</v>
       </c>
       <c r="AA135" s="100">
-        <f>ABS(Z135-Y135)</f>
+        <f t="shared" si="67"/>
         <v>23.287299999999998</v>
       </c>
       <c r="AB135" s="97" t="e">
@@ -17382,19 +17386,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD135" s="94" t="str">
-        <f>IF(LEN(A135)=6,"0"&amp;A135,A135)</f>
+        <f t="shared" si="68"/>
         <v>0221-12</v>
       </c>
       <c r="AE135" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4044/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4044/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-13</v>
       </c>
       <c r="AF135" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4044*20160713*" /stext=" 01:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG135" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -17430,7 +17434,7 @@
         <v>1</v>
       </c>
       <c r="K136" s="27" t="str">
-        <f>IF(ISEVEN(B136),(B136-1)&amp;"/"&amp;B136,B136&amp;"/"&amp;(B136+1))</f>
+        <f t="shared" si="60"/>
         <v>4011/4012</v>
       </c>
       <c r="L136" s="27" t="str">
@@ -17438,7 +17442,7 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M136" s="6">
-        <f>I136-F136</f>
+        <f t="shared" si="61"/>
         <v>2.0682870366727002E-2</v>
       </c>
       <c r="N136" s="7"/>
@@ -17452,11 +17456,11 @@
         <v>134</v>
       </c>
       <c r="S136" s="46">
-        <f>SUM(U136:U136)/12</f>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="T136" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A136,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="62"/>
         <v>NorthBound</v>
       </c>
       <c r="U136" s="108">
@@ -17464,27 +17468,27 @@
         <v>12</v>
       </c>
       <c r="V136" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E136-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I136+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B136&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="63"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 15:42:08-0600',mode:absolute,to:'2016-07-12 18:13:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W136" s="77" t="str">
-        <f>IF(AA136&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>Y</v>
       </c>
       <c r="X136" s="103">
-        <f>VALUE(LEFT(A136,3))-VALUE(LEFT(A135,3))</f>
+        <f t="shared" si="64"/>
         <v>-16</v>
       </c>
       <c r="Y136" s="100">
-        <f>RIGHT(D136,LEN(D136)-4)/10000</f>
+        <f t="shared" si="65"/>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="Z136" s="100">
-        <f>RIGHT(H136,LEN(H136)-4)/10000</f>
+        <f t="shared" si="66"/>
         <v>16.892600000000002</v>
       </c>
       <c r="AA136" s="100">
-        <f>ABS(Z136-Y136)</f>
+        <f t="shared" si="67"/>
         <v>16.8459</v>
       </c>
       <c r="AB136" s="97" t="e">
@@ -17496,19 +17500,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD136" s="94" t="str">
-        <f>IF(LEN(A136)=6,"0"&amp;A136,A136)</f>
+        <f t="shared" si="68"/>
         <v>0205-12</v>
       </c>
       <c r="AE136" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4011/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4011/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-13</v>
       </c>
       <c r="AF136" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4011*20160712*" /stext=" 23:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG136" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -17544,7 +17548,7 @@
         <v>0</v>
       </c>
       <c r="K137" s="27" t="str">
-        <f>IF(ISEVEN(B137),(B137-1)&amp;"/"&amp;B137,B137&amp;"/"&amp;(B137+1))</f>
+        <f t="shared" si="60"/>
         <v>4009/4010</v>
       </c>
       <c r="L137" s="27" t="str">
@@ -17552,7 +17556,7 @@
         <v>MOSES</v>
       </c>
       <c r="M137" s="6">
-        <f>I137-F137</f>
+        <f t="shared" si="61"/>
         <v>2.548611110978527E-2</v>
       </c>
       <c r="N137" s="7">
@@ -17564,11 +17568,11 @@
       <c r="Q137" s="28"/>
       <c r="R137" s="28"/>
       <c r="S137" s="46">
-        <f>SUM(U137:U137)/12</f>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="T137" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A137,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="62"/>
         <v>NorthBound</v>
       </c>
       <c r="U137" s="108">
@@ -17576,27 +17580,27 @@
         <v>12</v>
       </c>
       <c r="V137" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E137-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I137+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B137&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="63"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 18:21:50-0600',mode:absolute,to:'2016-07-12 21:05:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W137" s="77" t="str">
-        <f>IF(AA137&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>N</v>
       </c>
       <c r="X137" s="103">
-        <f>VALUE(LEFT(A137,3))-VALUE(LEFT(A136,3))</f>
+        <f t="shared" si="64"/>
         <v>18</v>
       </c>
       <c r="Y137" s="100">
-        <f>RIGHT(D137,LEN(D137)-4)/10000</f>
+        <f t="shared" si="65"/>
         <v>4.53E-2</v>
       </c>
       <c r="Z137" s="100">
-        <f>RIGHT(H137,LEN(H137)-4)/10000</f>
+        <f t="shared" si="66"/>
         <v>23.328600000000002</v>
       </c>
       <c r="AA137" s="100">
-        <f>ABS(Z137-Y137)</f>
+        <f t="shared" si="67"/>
         <v>23.283300000000001</v>
       </c>
       <c r="AB137" s="97" t="e">
@@ -17608,19 +17612,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD137" s="94" t="str">
-        <f>IF(LEN(A137)=6,"0"&amp;A137,A137)</f>
+        <f t="shared" si="68"/>
         <v>0223-12</v>
       </c>
       <c r="AE137" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4009/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4009/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-13</v>
       </c>
       <c r="AF137" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4009*20160713*" /stext=" 02:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG137" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -17656,7 +17660,7 @@
         <v>0</v>
       </c>
       <c r="K138" s="27" t="str">
-        <f>IF(ISEVEN(B138),(B138-1)&amp;"/"&amp;B138,B138&amp;"/"&amp;(B138+1))</f>
+        <f t="shared" si="60"/>
         <v>4009/4010</v>
       </c>
       <c r="L138" s="27" t="str">
@@ -17664,7 +17668,7 @@
         <v>MOSES</v>
       </c>
       <c r="M138" s="6">
-        <f>I138-F138</f>
+        <f t="shared" si="61"/>
         <v>3.1226851853716653E-2</v>
       </c>
       <c r="N138" s="7">
@@ -17676,11 +17680,11 @@
       <c r="Q138" s="28"/>
       <c r="R138" s="28"/>
       <c r="S138" s="46">
-        <f>SUM(U138:U138)/12</f>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="T138" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A138,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="62"/>
         <v>Southbound</v>
       </c>
       <c r="U138" s="108">
@@ -17688,27 +17692,27 @@
         <v>12</v>
       </c>
       <c r="V138" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E138-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I138+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B138&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="63"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 19:22:20-0600',mode:absolute,to:'2016-07-12 22:08:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W138" s="77" t="str">
-        <f>IF(AA138&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>N</v>
       </c>
       <c r="X138" s="103">
-        <f>VALUE(LEFT(A138,3))-VALUE(LEFT(A137,3))</f>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="Y138" s="100">
-        <f>RIGHT(D138,LEN(D138)-4)/10000</f>
+        <f t="shared" si="65"/>
         <v>23.296099999999999</v>
       </c>
       <c r="Z138" s="100">
-        <f>RIGHT(H138,LEN(H138)-4)/10000</f>
+        <f t="shared" si="66"/>
         <v>1.52E-2</v>
       </c>
       <c r="AA138" s="100">
-        <f>ABS(Z138-Y138)</f>
+        <f t="shared" si="67"/>
         <v>23.280899999999999</v>
       </c>
       <c r="AB138" s="97" t="e">
@@ -17720,19 +17724,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD138" s="94" t="str">
-        <f>IF(LEN(A138)=6,"0"&amp;A138,A138)</f>
+        <f t="shared" si="68"/>
         <v>0224-12</v>
       </c>
       <c r="AE138" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4010/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4010/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-13</v>
       </c>
       <c r="AF138" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4010*20160713*" /stext=" 03:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG138" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -17768,7 +17772,7 @@
         <v>0</v>
       </c>
       <c r="K139" s="27" t="str">
-        <f>IF(ISEVEN(B139),(B139-1)&amp;"/"&amp;B139,B139&amp;"/"&amp;(B139+1))</f>
+        <f t="shared" si="60"/>
         <v>4043/4044</v>
       </c>
       <c r="L139" s="27" t="str">
@@ -17776,7 +17780,7 @@
         <v>MAELZER</v>
       </c>
       <c r="M139" s="6">
-        <f>I139-F139</f>
+        <f t="shared" si="61"/>
         <v>1.7986111110076308E-2</v>
       </c>
       <c r="N139" s="7"/>
@@ -17790,11 +17794,11 @@
         <v>134</v>
       </c>
       <c r="S139" s="46">
-        <f>SUM(U139:U139)/12</f>
+        <f t="shared" si="70"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="T139" s="72" t="str">
-        <f>IF(ISEVEN(LEFT(A139,3)),"Southbound","NorthBound")</f>
+        <f t="shared" si="62"/>
         <v>Southbound</v>
       </c>
       <c r="U139" s="108">
@@ -17802,27 +17806,27 @@
         <v>1</v>
       </c>
       <c r="V139" s="77" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E139-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I139+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B139&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="63"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 18:49:47-0600',mode:absolute,to:'2016-07-12 21:17:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W139" s="77" t="str">
-        <f>IF(AA139&lt;23,"Y","N")</f>
+        <f t="shared" si="58"/>
         <v>Y</v>
       </c>
       <c r="X139" s="103">
-        <f>VALUE(LEFT(A139,3))-VALUE(LEFT(A138,3))</f>
+        <f t="shared" si="64"/>
         <v>-2</v>
       </c>
       <c r="Y139" s="100">
-        <f>RIGHT(D139,LEN(D139)-4)/10000</f>
+        <f t="shared" si="65"/>
         <v>23.299299999999999</v>
       </c>
       <c r="Z139" s="100">
-        <f>RIGHT(H139,LEN(H139)-4)/10000</f>
+        <f t="shared" si="66"/>
         <v>10.738300000000001</v>
       </c>
       <c r="AA139" s="100">
-        <f>ABS(Z139-Y139)</f>
+        <f t="shared" si="67"/>
         <v>12.560999999999998</v>
       </c>
       <c r="AB139" s="97" t="e">
@@ -17834,19 +17838,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD139" s="94" t="str">
-        <f>IF(LEN(A139)=6,"0"&amp;A139,A139)</f>
+        <f t="shared" si="68"/>
         <v>0222-12</v>
       </c>
       <c r="AE139" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4043/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4043/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-13</v>
       </c>
       <c r="AF139" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4043*20160713*" /stext=" 02:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG139" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -17882,7 +17886,7 @@
         <v>0</v>
       </c>
       <c r="K140" s="27" t="str">
-        <f t="shared" ref="K78:K140" si="32">IF(ISEVEN(B140),(B140-1)&amp;"/"&amp;B140,B140&amp;"/"&amp;(B140+1))</f>
+        <f t="shared" ref="K140" si="71">IF(ISEVEN(B140),(B140-1)&amp;"/"&amp;B140,B140&amp;"/"&amp;(B140+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L140" s="27" t="str">
@@ -17890,7 +17894,7 @@
         <v>KILLION</v>
       </c>
       <c r="M140" s="6">
-        <f t="shared" ref="M78:M140" si="33">I140-F140</f>
+        <f t="shared" ref="M140" si="72">I140-F140</f>
         <v>1.8171296294895001E-2</v>
       </c>
       <c r="N140" s="7"/>
@@ -17900,7 +17904,7 @@
       <c r="R140" s="28"/>
       <c r="S140" s="46"/>
       <c r="T140" s="72" t="str">
-        <f t="shared" ref="T78:T140" si="34">IF(ISEVEN(LEFT(A140,3)),"Southbound","NorthBound")</f>
+        <f t="shared" ref="T140" si="73">IF(ISEVEN(LEFT(A140,3)),"Southbound","NorthBound")</f>
         <v>NorthBound</v>
       </c>
       <c r="U140" s="108">
@@ -17908,27 +17912,27 @@
         <v>10</v>
       </c>
       <c r="V140" s="77" t="str">
-        <f t="shared" ref="V78:V140" si="35">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E140-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I140+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B140&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="V140" si="74">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E140-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I140+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B140&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 18:51:50-0600',mode:absolute,to:'2016-07-12 21:19:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W140" s="77" t="str">
-        <f t="shared" ref="W78:W140" si="36">IF(AA140&lt;23,"Y","N")</f>
+        <f t="shared" ref="W140" si="75">IF(AA140&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="X140" s="103">
-        <f t="shared" ref="X78:X140" si="37">VALUE(LEFT(A140,3))-VALUE(LEFT(A139,3))</f>
+        <f t="shared" ref="X140" si="76">VALUE(LEFT(A140,3))-VALUE(LEFT(A139,3))</f>
         <v>3</v>
       </c>
       <c r="Y140" s="100">
-        <f t="shared" ref="Y78:Y140" si="38">RIGHT(D140,LEN(D140)-4)/10000</f>
+        <f t="shared" ref="Y140" si="77">RIGHT(D140,LEN(D140)-4)/10000</f>
         <v>4.53E-2</v>
       </c>
       <c r="Z140" s="100">
-        <f t="shared" ref="Z78:Z140" si="39">RIGHT(H140,LEN(H140)-4)/10000</f>
+        <f t="shared" ref="Z140" si="78">RIGHT(H140,LEN(H140)-4)/10000</f>
         <v>10.143000000000001</v>
       </c>
       <c r="AA140" s="100">
-        <f t="shared" ref="AA78:AA140" si="40">ABS(Z140-Y140)</f>
+        <f t="shared" ref="AA140" si="79">ABS(Z140-Y140)</f>
         <v>10.097700000000001</v>
       </c>
       <c r="AB140" s="97" t="e">
@@ -17940,19 +17944,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD140" s="94" t="str">
-        <f t="shared" ref="AD78:AD140" si="41">IF(LEN(A140)=6,"0"&amp;A140,A140)</f>
+        <f t="shared" ref="AD140" si="80">IF(LEN(A140)=6,"0"&amp;A140,A140)</f>
         <v>0225-12</v>
       </c>
       <c r="AE140" s="78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-13</v>
       </c>
       <c r="AF140" s="78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160713*" /stext=" 02:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG140" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>EC</v>
       </c>
     </row>
@@ -17988,7 +17992,7 @@
         <v>0</v>
       </c>
       <c r="K141" s="27" t="str">
-        <f t="shared" ref="K141:K156" si="42">IF(ISEVEN(B141),(B141-1)&amp;"/"&amp;B141,B141&amp;"/"&amp;(B141+1))</f>
+        <f t="shared" ref="K141:K156" si="81">IF(ISEVEN(B141),(B141-1)&amp;"/"&amp;B141,B141&amp;"/"&amp;(B141+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L141" s="27" t="str">
@@ -17996,11 +18000,11 @@
         <v>KILLION</v>
       </c>
       <c r="M141" s="6">
-        <f t="shared" ref="M141:M156" si="43">I141-F141</f>
+        <f t="shared" ref="M141:M156" si="82">I141-F141</f>
         <v>2.8935185182490386E-2</v>
       </c>
       <c r="N141" s="7">
-        <f t="shared" ref="N137:N156" si="44">24*60*SUM($M141:$M141)</f>
+        <f t="shared" ref="N141:N156" si="83">24*60*SUM($M141:$M141)</f>
         <v>41.666666662786156</v>
       </c>
       <c r="O141" s="7"/>
@@ -18008,11 +18012,11 @@
       <c r="Q141" s="28"/>
       <c r="R141" s="28"/>
       <c r="S141" s="46">
-        <f t="shared" ref="S141:S156" si="45">SUM(U141:U141)/12</f>
+        <f t="shared" ref="S141:S156" si="84">SUM(U141:U141)/12</f>
         <v>1</v>
       </c>
       <c r="T141" s="72" t="str">
-        <f t="shared" ref="T141:T156" si="46">IF(ISEVEN(LEFT(A141,3)),"Southbound","NorthBound")</f>
+        <f t="shared" ref="T141:T156" si="85">IF(ISEVEN(LEFT(A141,3)),"Southbound","NorthBound")</f>
         <v>Southbound</v>
       </c>
       <c r="U141" s="108">
@@ -18020,27 +18024,27 @@
         <v>12</v>
       </c>
       <c r="V141" s="77" t="str">
-        <f t="shared" ref="V141:V156" si="47">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E141-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I141+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B141&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="V141:V156" si="86">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E141-1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I141+1/24,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B141&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 19:50:12-0600',mode:absolute,to:'2016-07-12 22:33:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W141" s="77" t="str">
-        <f t="shared" ref="W141:W156" si="48">IF(AA141&lt;23,"Y","N")</f>
+        <f t="shared" ref="W141:W156" si="87">IF(AA141&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X141" s="103">
-        <f t="shared" ref="X141:X156" si="49">VALUE(LEFT(A141,3))-VALUE(LEFT(A140,3))</f>
+        <f t="shared" ref="X141:X156" si="88">VALUE(LEFT(A141,3))-VALUE(LEFT(A140,3))</f>
         <v>1</v>
       </c>
       <c r="Y141" s="100">
-        <f t="shared" ref="Y141:Y156" si="50">RIGHT(D141,LEN(D141)-4)/10000</f>
+        <f t="shared" ref="Y141:Y156" si="89">RIGHT(D141,LEN(D141)-4)/10000</f>
         <v>23.296299999999999</v>
       </c>
       <c r="Z141" s="100">
-        <f t="shared" ref="Z141:Z156" si="51">RIGHT(H141,LEN(H141)-4)/10000</f>
+        <f t="shared" ref="Z141:Z156" si="90">RIGHT(H141,LEN(H141)-4)/10000</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AA141" s="100">
-        <f t="shared" ref="AA141:AA156" si="52">ABS(Z141-Y141)</f>
+        <f t="shared" ref="AA141:AA156" si="91">ABS(Z141-Y141)</f>
         <v>23.281299999999998</v>
       </c>
       <c r="AB141" s="97" t="e">
@@ -18052,20 +18056,20 @@
         <v>#N/A</v>
       </c>
       <c r="AD141" s="94" t="str">
-        <f t="shared" ref="AD141:AD156" si="53">IF(LEN(A141)=6,"0"&amp;A141,A141)</f>
+        <f t="shared" ref="AD141:AD156" si="92">IF(LEN(A141)=6,"0"&amp;A141,A141)</f>
         <v>0226-12</v>
       </c>
       <c r="AE141" s="78" t="str">
-        <f t="shared" ref="AE141:AE156" si="54">"aws s3 cp "&amp;s3_bucket&amp;"/RTDC"&amp;B141&amp;"/"&amp;TEXT(F141,"YYYY-MM-DD")&amp;"/ "&amp;search_path&amp;"\RTDC"&amp;B141&amp;"\"&amp;TEXT(F141,"YYYY-MM-DD")&amp;" --recursive &amp; """&amp;walkandungz&amp;""" "&amp;search_path&amp;"\RTDC"&amp;B141&amp;"\"&amp;TEXT(F141,"YYYY-MM-DD")
+        <f t="shared" ref="AE141:AE156" si="93">"aws s3 cp "&amp;s3_bucket&amp;"/RTDC"&amp;B141&amp;"/"&amp;TEXT(F141,"YYYY-MM-DD")&amp;"/ "&amp;search_path&amp;"\RTDC"&amp;B141&amp;"\"&amp;TEXT(F141,"YYYY-MM-DD")&amp;" --recursive &amp; """&amp;walkandungz&amp;""" "&amp;search_path&amp;"\RTDC"&amp;B141&amp;"\"&amp;TEXT(F141,"YYYY-MM-DD")
 &amp;" &amp; "&amp;"aws s3 cp "&amp;s3_bucket&amp;"/RTDC"&amp;B141&amp;"/"&amp;TEXT(F141+1,"YYYY-MM-DD")&amp;"/ "&amp;search_path&amp;"\RTDC"&amp;B141&amp;"\"&amp;TEXT(F141+1,"YYYY-MM-DD")&amp;" --recursive &amp; """&amp;walkandungz&amp;""" "&amp;search_path&amp;"\RTDC"&amp;B141&amp;"\"&amp;TEXT(F141+1,"YYYY-MM-DD")</f>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-13</v>
       </c>
       <c r="AF141" s="78" t="str">
-        <f t="shared" ref="AF141:AF156" si="55">astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;B141&amp;"*"&amp;TEXT(I141-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(I141-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
+        <f t="shared" ref="AF141:AF156" si="94">astrogrep_path&amp;" /spath="&amp;search_path&amp;" /stypes=""*"&amp;B141&amp;"*"&amp;TEXT(I141-utc_offset/24,"YYYYMMDD")&amp;"*"" /stext="" "&amp;TEXT(I141-utc_offset/24,"HH")&amp;search_regexp&amp;""" /e /r /s"</f>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160713*" /stext=" 03:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG141" s="1" t="str">
-        <f t="shared" ref="AG141:AG156" si="56">IF(VALUE(LEFT(A141,3))&lt;300,"EC","NWGL")</f>
+        <f t="shared" ref="AG141:AG156" si="95">IF(VALUE(LEFT(A141,3))&lt;300,"EC","NWGL")</f>
         <v>EC</v>
       </c>
     </row>
@@ -18101,7 +18105,7 @@
         <v>0</v>
       </c>
       <c r="K142" s="27" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>4011/4012</v>
       </c>
       <c r="L142" s="27" t="str">
@@ -18109,11 +18113,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M142" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>2.8240740743058268E-2</v>
       </c>
       <c r="N142" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="83"/>
         <v>40.666666670003906</v>
       </c>
       <c r="O142" s="7"/>
@@ -18121,11 +18125,11 @@
       <c r="Q142" s="28"/>
       <c r="R142" s="28"/>
       <c r="S142" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="T142" s="72" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="85"/>
         <v>NorthBound</v>
       </c>
       <c r="U142" s="108">
@@ -18133,27 +18137,27 @@
         <v>12</v>
       </c>
       <c r="V142" s="77" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="86"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 19:24:35-0600',mode:absolute,to:'2016-07-12 22:06:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W142" s="77" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="87"/>
         <v>N</v>
       </c>
       <c r="X142" s="103">
-        <f t="shared" si="49"/>
+        <f t="shared" si="88"/>
         <v>1</v>
       </c>
       <c r="Y142" s="100">
-        <f t="shared" si="50"/>
+        <f t="shared" si="89"/>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="Z142" s="100">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>23.330300000000001</v>
       </c>
       <c r="AA142" s="100">
-        <f t="shared" si="52"/>
+        <f t="shared" si="91"/>
         <v>23.2836</v>
       </c>
       <c r="AB142" s="97" t="e">
@@ -18165,19 +18169,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD142" s="94" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="92"/>
         <v>0227-12</v>
       </c>
       <c r="AE142" s="78" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="93"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4011/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4011/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-13</v>
       </c>
       <c r="AF142" s="78" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="94"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4011*20160713*" /stext=" 03:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG142" s="1" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="95"/>
         <v>EC</v>
       </c>
     </row>
@@ -18213,7 +18217,7 @@
         <v>0</v>
       </c>
       <c r="K143" s="27" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>4043/4044</v>
       </c>
       <c r="L143" s="27" t="str">
@@ -18221,11 +18225,11 @@
         <v>MAELZER</v>
       </c>
       <c r="M143" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>3.5578703704231884E-2</v>
       </c>
       <c r="N143" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="83"/>
         <v>51.233333334093913</v>
       </c>
       <c r="O143" s="7"/>
@@ -18233,11 +18237,11 @@
       <c r="Q143" s="28"/>
       <c r="R143" s="28"/>
       <c r="S143" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="T143" s="72" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="85"/>
         <v>NorthBound</v>
       </c>
       <c r="U143" s="108">
@@ -18245,27 +18249,27 @@
         <v>12</v>
       </c>
       <c r="V143" s="77" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="86"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 19:44:45-0600',mode:absolute,to:'2016-07-12 22:37:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W143" s="77" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="87"/>
         <v>N</v>
       </c>
       <c r="X143" s="103">
-        <f t="shared" si="49"/>
+        <f t="shared" si="88"/>
         <v>2</v>
       </c>
       <c r="Y143" s="100">
-        <f t="shared" si="50"/>
+        <f t="shared" si="89"/>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="Z143" s="100">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>23.327200000000001</v>
       </c>
       <c r="AA143" s="100">
-        <f t="shared" si="52"/>
+        <f t="shared" si="91"/>
         <v>23.2821</v>
       </c>
       <c r="AB143" s="97" t="e">
@@ -18277,19 +18281,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD143" s="94" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="92"/>
         <v>0229-12</v>
       </c>
       <c r="AE143" s="78" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="93"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4044/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4044/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-13</v>
       </c>
       <c r="AF143" s="78" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="94"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4044*20160713*" /stext=" 03:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG143" s="1" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="95"/>
         <v>EC</v>
       </c>
     </row>
@@ -18325,7 +18329,7 @@
         <v>0</v>
       </c>
       <c r="K144" s="27" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>4043/4044</v>
       </c>
       <c r="L144" s="27" t="str">
@@ -18333,11 +18337,11 @@
         <v>MAELZER</v>
       </c>
       <c r="M144" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>3.2118055554747116E-2</v>
       </c>
       <c r="N144" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="83"/>
         <v>46.249999998835847</v>
       </c>
       <c r="O144" s="7"/>
@@ -18345,11 +18349,11 @@
       <c r="Q144" s="28"/>
       <c r="R144" s="28"/>
       <c r="S144" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="T144" s="72" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="85"/>
         <v>Southbound</v>
       </c>
       <c r="U144" s="108">
@@ -18357,27 +18361,27 @@
         <v>12</v>
       </c>
       <c r="V144" s="77" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="86"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 20:47:13-0600',mode:absolute,to:'2016-07-12 23:34:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W144" s="77" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="87"/>
         <v>N</v>
       </c>
       <c r="X144" s="103">
-        <f t="shared" si="49"/>
+        <f t="shared" si="88"/>
         <v>1</v>
       </c>
       <c r="Y144" s="100">
-        <f t="shared" si="50"/>
+        <f t="shared" si="89"/>
         <v>23.294599999999999</v>
       </c>
       <c r="Z144" s="100">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>1.43E-2</v>
       </c>
       <c r="AA144" s="100">
-        <f t="shared" si="52"/>
+        <f t="shared" si="91"/>
         <v>23.2803</v>
       </c>
       <c r="AB144" s="97" t="e">
@@ -18389,19 +18393,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD144" s="94" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="92"/>
         <v>0230-12</v>
       </c>
       <c r="AE144" s="78" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="93"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4043/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4043/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-13</v>
       </c>
       <c r="AF144" s="78" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="94"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4043*20160713*" /stext=" 04:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG144" s="1" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="95"/>
         <v>EC</v>
       </c>
     </row>
@@ -18437,7 +18441,7 @@
         <v>0</v>
       </c>
       <c r="K145" s="27" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>4009/4010</v>
       </c>
       <c r="L145" s="27" t="str">
@@ -18445,11 +18449,11 @@
         <v>MOSES</v>
       </c>
       <c r="M145" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>2.7662037035042886E-2</v>
       </c>
       <c r="N145" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="83"/>
         <v>39.833333330461755</v>
       </c>
       <c r="O145" s="7"/>
@@ -18457,11 +18461,11 @@
       <c r="Q145" s="28"/>
       <c r="R145" s="28"/>
       <c r="S145" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="T145" s="72" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="85"/>
         <v>NorthBound</v>
       </c>
       <c r="U145" s="108">
@@ -18469,27 +18473,27 @@
         <v>12</v>
       </c>
       <c r="V145" s="77" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="86"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 20:24:57-0600',mode:absolute,to:'2016-07-12 23:06:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W145" s="77" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="87"/>
         <v>N</v>
       </c>
       <c r="X145" s="103">
-        <f t="shared" si="49"/>
+        <f t="shared" si="88"/>
         <v>1</v>
       </c>
       <c r="Y145" s="100">
-        <f t="shared" si="50"/>
+        <f t="shared" si="89"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="Z145" s="100">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>23.328199999999999</v>
       </c>
       <c r="AA145" s="100">
-        <f t="shared" si="52"/>
+        <f t="shared" si="91"/>
         <v>23.282699999999998</v>
       </c>
       <c r="AB145" s="97" t="e">
@@ -18501,19 +18505,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD145" s="94" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="92"/>
         <v>0231-12</v>
       </c>
       <c r="AE145" s="78" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="93"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4009/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4009/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-13</v>
       </c>
       <c r="AF145" s="78" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="94"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4009*20160713*" /stext=" 04:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG145" s="1" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="95"/>
         <v>EC</v>
       </c>
     </row>
@@ -18549,7 +18553,7 @@
         <v>1</v>
       </c>
       <c r="K146" s="27" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>4009/4010</v>
       </c>
       <c r="L146" s="27" t="str">
@@ -18557,11 +18561,11 @@
         <v>MOSES</v>
       </c>
       <c r="M146" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>3.0960648145992309E-2</v>
       </c>
       <c r="N146" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="83"/>
         <v>44.583333330228925</v>
       </c>
       <c r="O146" s="7"/>
@@ -18569,11 +18573,11 @@
       <c r="Q146" s="28"/>
       <c r="R146" s="28"/>
       <c r="S146" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="T146" s="72" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="85"/>
         <v>Southbound</v>
       </c>
       <c r="U146" s="108">
@@ -18581,27 +18585,27 @@
         <v>12</v>
       </c>
       <c r="V146" s="77" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="86"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 21:22:17-0600',mode:absolute,to:'2016-07-13 00:08:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W146" s="77" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="87"/>
         <v>N</v>
       </c>
       <c r="X146" s="103">
-        <f t="shared" si="49"/>
+        <f t="shared" si="88"/>
         <v>1</v>
       </c>
       <c r="Y146" s="100">
-        <f t="shared" si="50"/>
+        <f t="shared" si="89"/>
         <v>23.296099999999999</v>
       </c>
       <c r="Z146" s="100">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>1.52E-2</v>
       </c>
       <c r="AA146" s="100">
-        <f t="shared" si="52"/>
+        <f t="shared" si="91"/>
         <v>23.280899999999999</v>
       </c>
       <c r="AB146" s="97">
@@ -18613,19 +18617,19 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
       <c r="AD146" s="94" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="92"/>
         <v>0232-12</v>
       </c>
       <c r="AE146" s="78" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="93"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4010/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4010/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-13</v>
       </c>
       <c r="AF146" s="78" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="94"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4010*20160713*" /stext=" 05:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG146" s="1" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="95"/>
         <v>EC</v>
       </c>
     </row>
@@ -18661,7 +18665,7 @@
         <v>0</v>
       </c>
       <c r="K147" s="27" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>4017/4018</v>
       </c>
       <c r="L147" s="27" t="str">
@@ -18669,11 +18673,11 @@
         <v>KILLION</v>
       </c>
       <c r="M147" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>2.7164351857209112E-2</v>
       </c>
       <c r="N147" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="83"/>
         <v>39.116666674381122</v>
       </c>
       <c r="O147" s="7"/>
@@ -18681,11 +18685,11 @@
       <c r="Q147" s="28"/>
       <c r="R147" s="28"/>
       <c r="S147" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="T147" s="72" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="85"/>
         <v>NorthBound</v>
       </c>
       <c r="U147" s="108">
@@ -18693,27 +18697,27 @@
         <v>12</v>
       </c>
       <c r="V147" s="77" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="86"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 20:55:08-0600',mode:absolute,to:'2016-07-12 23:35:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W147" s="77" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="87"/>
         <v>N</v>
       </c>
       <c r="X147" s="103">
-        <f t="shared" si="49"/>
+        <f t="shared" si="88"/>
         <v>1</v>
       </c>
       <c r="Y147" s="100">
-        <f t="shared" si="50"/>
+        <f t="shared" si="89"/>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="Z147" s="100">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>23.332799999999999</v>
       </c>
       <c r="AA147" s="100">
-        <f t="shared" si="52"/>
+        <f t="shared" si="91"/>
         <v>23.285499999999999</v>
       </c>
       <c r="AB147" s="97" t="e">
@@ -18725,19 +18729,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD147" s="94" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="92"/>
         <v>0233-12</v>
       </c>
       <c r="AE147" s="78" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="93"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-13</v>
       </c>
       <c r="AF147" s="78" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="94"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160713*" /stext=" 04:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG147" s="1" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="95"/>
         <v>EC</v>
       </c>
     </row>
@@ -18773,7 +18777,7 @@
         <v>0</v>
       </c>
       <c r="K148" s="27" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>4017/4018</v>
       </c>
       <c r="L148" s="27" t="str">
@@ -18781,11 +18785,11 @@
         <v>KILLION</v>
       </c>
       <c r="M148" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>2.7962962958554272E-2</v>
       </c>
       <c r="N148" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="83"/>
         <v>40.266666660318151</v>
       </c>
       <c r="O148" s="7"/>
@@ -18793,11 +18797,11 @@
       <c r="Q148" s="28"/>
       <c r="R148" s="28"/>
       <c r="S148" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="T148" s="72" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="85"/>
         <v>Southbound</v>
       </c>
       <c r="U148" s="108">
@@ -18805,27 +18809,27 @@
         <v>12</v>
       </c>
       <c r="V148" s="77" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="86"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 21:51:20-0600',mode:absolute,to:'2016-07-13 00:32:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W148" s="77" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="87"/>
         <v>N</v>
       </c>
       <c r="X148" s="103">
-        <f t="shared" si="49"/>
+        <f t="shared" si="88"/>
         <v>1</v>
       </c>
       <c r="Y148" s="100">
-        <f t="shared" si="50"/>
+        <f t="shared" si="89"/>
         <v>23.300699999999999</v>
       </c>
       <c r="Z148" s="100">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>1.41E-2</v>
       </c>
       <c r="AA148" s="100">
-        <f t="shared" si="52"/>
+        <f t="shared" si="91"/>
         <v>23.2866</v>
       </c>
       <c r="AB148" s="97" t="e">
@@ -18837,19 +18841,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD148" s="94" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="92"/>
         <v>0234-12</v>
       </c>
       <c r="AE148" s="78" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="93"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-13</v>
       </c>
       <c r="AF148" s="78" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="94"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160713*" /stext=" 05:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG148" s="1" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="95"/>
         <v>EC</v>
       </c>
     </row>
@@ -18885,7 +18889,7 @@
         <v>1</v>
       </c>
       <c r="K149" s="27" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>4011/4012</v>
       </c>
       <c r="L149" s="27" t="str">
@@ -18893,11 +18897,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M149" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>2.7199074072996154E-2</v>
       </c>
       <c r="N149" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="83"/>
         <v>39.166666665114462</v>
       </c>
       <c r="O149" s="7"/>
@@ -18905,11 +18909,11 @@
       <c r="Q149" s="28"/>
       <c r="R149" s="28"/>
       <c r="S149" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="T149" s="72" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="85"/>
         <v>NorthBound</v>
       </c>
       <c r="U149" s="108">
@@ -18917,27 +18921,27 @@
         <v>12</v>
       </c>
       <c r="V149" s="77" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="86"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 21:27:05-0600',mode:absolute,to:'2016-07-13 00:07:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W149" s="77" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="87"/>
         <v>N</v>
       </c>
       <c r="X149" s="103">
-        <f t="shared" si="49"/>
+        <f t="shared" si="88"/>
         <v>1</v>
       </c>
       <c r="Y149" s="100">
-        <f t="shared" si="50"/>
+        <f t="shared" si="89"/>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="Z149" s="100">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>23.3291</v>
       </c>
       <c r="AA149" s="100">
-        <f t="shared" si="52"/>
+        <f t="shared" si="91"/>
         <v>23.283999999999999</v>
       </c>
       <c r="AB149" s="97" t="e">
@@ -18949,19 +18953,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD149" s="94" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="92"/>
         <v>0235-12</v>
       </c>
       <c r="AE149" s="78" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="93"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4011/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4011/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-13</v>
       </c>
       <c r="AF149" s="78" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="94"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4011*20160713*" /stext=" 05:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG149" s="1" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="95"/>
         <v>EC</v>
       </c>
     </row>
@@ -18997,7 +19001,7 @@
         <v>0</v>
       </c>
       <c r="K150" s="27" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>4043/4044</v>
       </c>
       <c r="L150" s="27" t="str">
@@ -19005,11 +19009,11 @@
         <v>MAELZER</v>
       </c>
       <c r="M150" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>3.2685185185982846E-2</v>
       </c>
       <c r="N150" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="83"/>
         <v>47.066666667815298</v>
       </c>
       <c r="O150" s="7"/>
@@ -19017,11 +19021,11 @@
       <c r="Q150" s="28"/>
       <c r="R150" s="28"/>
       <c r="S150" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="T150" s="72" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="85"/>
         <v>NorthBound</v>
       </c>
       <c r="U150" s="108">
@@ -19029,27 +19033,27 @@
         <v>12</v>
       </c>
       <c r="V150" s="77" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="86"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 21:48:28-0600',mode:absolute,to:'2016-07-13 00:36:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W150" s="77" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="87"/>
         <v>N</v>
       </c>
       <c r="X150" s="103">
-        <f t="shared" si="49"/>
+        <f t="shared" si="88"/>
         <v>2</v>
       </c>
       <c r="Y150" s="100">
-        <f t="shared" si="50"/>
+        <f t="shared" si="89"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="Z150" s="100">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>23.330300000000001</v>
       </c>
       <c r="AA150" s="100">
-        <f t="shared" si="52"/>
+        <f t="shared" si="91"/>
         <v>23.284800000000001</v>
       </c>
       <c r="AB150" s="97" t="e">
@@ -19061,19 +19065,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD150" s="94" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="92"/>
         <v>0237-12</v>
       </c>
       <c r="AE150" s="78" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="93"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4044/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4044/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4044\2016-07-13</v>
       </c>
       <c r="AF150" s="78" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="94"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4044*20160713*" /stext=" 05:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG150" s="1" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="95"/>
         <v>EC</v>
       </c>
     </row>
@@ -19109,7 +19113,7 @@
         <v>0</v>
       </c>
       <c r="K151" s="27" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>4043/4044</v>
       </c>
       <c r="L151" s="27" t="str">
@@ -19117,11 +19121,11 @@
         <v>MAELZER</v>
       </c>
       <c r="M151" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>2.9166666667151731E-2</v>
       </c>
       <c r="N151" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="83"/>
         <v>42.000000000698492</v>
       </c>
       <c r="O151" s="7"/>
@@ -19129,11 +19133,11 @@
       <c r="Q151" s="28"/>
       <c r="R151" s="28"/>
       <c r="S151" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="T151" s="72" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="85"/>
         <v>Southbound</v>
       </c>
       <c r="U151" s="108">
@@ -19141,27 +19145,27 @@
         <v>12</v>
       </c>
       <c r="V151" s="77" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="86"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 22:50:54-0600',mode:absolute,to:'2016-07-13 01:34:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W151" s="77" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="87"/>
         <v>N</v>
       </c>
       <c r="X151" s="103">
-        <f t="shared" si="49"/>
+        <f t="shared" si="88"/>
         <v>1</v>
       </c>
       <c r="Y151" s="100">
-        <f t="shared" si="50"/>
+        <f t="shared" si="89"/>
         <v>23.298200000000001</v>
       </c>
       <c r="Z151" s="100">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="AA151" s="100">
-        <f t="shared" si="52"/>
+        <f t="shared" si="91"/>
         <v>23.2438</v>
       </c>
       <c r="AB151" s="97" t="e">
@@ -19173,19 +19177,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD151" s="94" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="92"/>
         <v>0238-12</v>
       </c>
       <c r="AE151" s="78" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="93"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4043/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4043/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4043\2016-07-13</v>
       </c>
       <c r="AF151" s="78" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="94"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4043*20160713*" /stext=" 06:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG151" s="1" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="95"/>
         <v>EC</v>
       </c>
     </row>
@@ -19221,7 +19225,7 @@
         <v>0</v>
       </c>
       <c r="K152" s="27" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>4009/4010</v>
       </c>
       <c r="L152" s="27" t="str">
@@ -19229,11 +19233,11 @@
         <v>MOSES</v>
       </c>
       <c r="M152" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>2.6736111110949423E-2</v>
       </c>
       <c r="N152" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="83"/>
         <v>38.499999999767169</v>
       </c>
       <c r="O152" s="7"/>
@@ -19241,11 +19245,11 @@
       <c r="Q152" s="28"/>
       <c r="R152" s="28"/>
       <c r="S152" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="T152" s="72" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="85"/>
         <v>NorthBound</v>
       </c>
       <c r="U152" s="108">
@@ -19253,27 +19257,27 @@
         <v>12</v>
       </c>
       <c r="V152" s="77" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="86"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 22:25:59-0600',mode:absolute,to:'2016-07-13 01:06:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W152" s="77" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="87"/>
         <v>N</v>
       </c>
       <c r="X152" s="103">
-        <f t="shared" si="49"/>
+        <f t="shared" si="88"/>
         <v>1</v>
       </c>
       <c r="Y152" s="100">
-        <f t="shared" si="50"/>
+        <f t="shared" si="89"/>
         <v>4.53E-2</v>
       </c>
       <c r="Z152" s="100">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>23.326599999999999</v>
       </c>
       <c r="AA152" s="100">
-        <f t="shared" si="52"/>
+        <f t="shared" si="91"/>
         <v>23.281299999999998</v>
       </c>
       <c r="AB152" s="97" t="e">
@@ -19285,19 +19289,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD152" s="94" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="92"/>
         <v>0239-12</v>
       </c>
       <c r="AE152" s="78" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="93"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4009/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4009/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4009\2016-07-13</v>
       </c>
       <c r="AF152" s="78" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="94"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4009*20160713*" /stext=" 06:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG152" s="1" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="95"/>
         <v>EC</v>
       </c>
     </row>
@@ -19333,7 +19337,7 @@
         <v>1</v>
       </c>
       <c r="K153" s="27" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>4009/4010</v>
       </c>
       <c r="L153" s="27" t="str">
@@ -19341,11 +19345,11 @@
         <v>MOSES</v>
       </c>
       <c r="M153" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>3.1678240738983732E-2</v>
       </c>
       <c r="N153" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="83"/>
         <v>45.616666664136574</v>
       </c>
       <c r="O153" s="7"/>
@@ -19353,11 +19357,11 @@
       <c r="Q153" s="28"/>
       <c r="R153" s="28"/>
       <c r="S153" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="T153" s="72" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="85"/>
         <v>Southbound</v>
       </c>
       <c r="U153" s="108">
@@ -19365,27 +19369,27 @@
         <v>12</v>
       </c>
       <c r="V153" s="77" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="86"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 23:18:37-0600',mode:absolute,to:'2016-07-13 02:06:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W153" s="77" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="87"/>
         <v>N</v>
       </c>
       <c r="X153" s="103">
-        <f t="shared" si="49"/>
+        <f t="shared" si="88"/>
         <v>1</v>
       </c>
       <c r="Y153" s="100">
-        <f t="shared" si="50"/>
+        <f t="shared" si="89"/>
         <v>23.2942</v>
       </c>
       <c r="Z153" s="100">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>1.6E-2</v>
       </c>
       <c r="AA153" s="100">
-        <f t="shared" si="52"/>
+        <f t="shared" si="91"/>
         <v>23.278200000000002</v>
       </c>
       <c r="AB153" s="97">
@@ -19397,19 +19401,19 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
       <c r="AD153" s="94" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="92"/>
         <v>0240-12</v>
       </c>
       <c r="AE153" s="78" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="93"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4010/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-13 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4010/2016-07-14/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-14 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4010\2016-07-14</v>
       </c>
       <c r="AF153" s="78" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="94"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4010*20160713*" /stext=" 07:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG153" s="1" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="95"/>
         <v>EC</v>
       </c>
     </row>
@@ -19445,7 +19449,7 @@
         <v>0</v>
       </c>
       <c r="K154" s="27" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>4017/4018</v>
       </c>
       <c r="L154" s="27" t="str">
@@ -19453,11 +19457,11 @@
         <v>KILLION</v>
       </c>
       <c r="M154" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>3.3414351855753921E-2</v>
       </c>
       <c r="N154" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="83"/>
         <v>48.116666672285646</v>
       </c>
       <c r="O154" s="7"/>
@@ -19465,11 +19469,11 @@
       <c r="Q154" s="28"/>
       <c r="R154" s="28"/>
       <c r="S154" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="T154" s="72" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="85"/>
         <v>NorthBound</v>
       </c>
       <c r="U154" s="108">
@@ -19477,27 +19481,27 @@
         <v>12</v>
       </c>
       <c r="V154" s="77" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="86"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 22:46:45-0600',mode:absolute,to:'2016-07-13 01:36:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W154" s="77" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="87"/>
         <v>N</v>
       </c>
       <c r="X154" s="103">
-        <f t="shared" si="49"/>
+        <f t="shared" si="88"/>
         <v>1</v>
       </c>
       <c r="Y154" s="100">
-        <f t="shared" si="50"/>
+        <f t="shared" si="89"/>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="Z154" s="100">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>23.330300000000001</v>
       </c>
       <c r="AA154" s="100">
-        <f t="shared" si="52"/>
+        <f t="shared" si="91"/>
         <v>23.2852</v>
       </c>
       <c r="AB154" s="97" t="e">
@@ -19509,19 +19513,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD154" s="94" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="92"/>
         <v>0241-12</v>
       </c>
       <c r="AE154" s="78" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="93"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-12/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-12 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-12 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4018/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4018\2016-07-13</v>
       </c>
       <c r="AF154" s="78" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="94"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4018*20160713*" /stext=" 06:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG154" s="1" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="95"/>
         <v>EC</v>
       </c>
     </row>
@@ -19557,7 +19561,7 @@
         <v>0</v>
       </c>
       <c r="K155" s="27" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>4017/4018</v>
       </c>
       <c r="L155" s="27" t="str">
@@ -19565,11 +19569,11 @@
         <v>KILLION</v>
       </c>
       <c r="M155" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>2.8356481481750961E-2</v>
       </c>
       <c r="N155" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="83"/>
         <v>40.833333333721384</v>
       </c>
       <c r="O155" s="7"/>
@@ -19577,11 +19581,11 @@
       <c r="Q155" s="28"/>
       <c r="R155" s="28"/>
       <c r="S155" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="T155" s="72" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="85"/>
         <v>Southbound</v>
       </c>
       <c r="U155" s="108">
@@ -19589,27 +19593,27 @@
         <v>12</v>
       </c>
       <c r="V155" s="77" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="86"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 23:51:01-0600',mode:absolute,to:'2016-07-13 02:33:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W155" s="77" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="87"/>
         <v>N</v>
       </c>
       <c r="X155" s="103">
-        <f t="shared" si="49"/>
+        <f t="shared" si="88"/>
         <v>1</v>
       </c>
       <c r="Y155" s="100">
-        <f t="shared" si="50"/>
+        <f t="shared" si="89"/>
         <v>23.298400000000001</v>
       </c>
       <c r="Z155" s="100">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="AA155" s="100">
-        <f t="shared" si="52"/>
+        <f t="shared" si="91"/>
         <v>23.282600000000002</v>
       </c>
       <c r="AB155" s="97" t="e">
@@ -19621,19 +19625,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD155" s="94" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="92"/>
         <v>0242-12</v>
       </c>
       <c r="AE155" s="78" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="93"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-13 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4017/2016-07-14/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-14 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4017\2016-07-14</v>
       </c>
       <c r="AF155" s="78" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="94"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4017*20160713*" /stext=" 07:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG155" s="1" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="95"/>
         <v>EC</v>
       </c>
     </row>
@@ -19669,7 +19673,7 @@
         <v>0</v>
       </c>
       <c r="K156" s="27" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>4011/4012</v>
       </c>
       <c r="L156" s="27" t="str">
@@ -19677,11 +19681,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M156" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>2.8969907412829343E-2</v>
       </c>
       <c r="N156" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="83"/>
         <v>41.716666674474254</v>
       </c>
       <c r="O156" s="7"/>
@@ -19689,11 +19693,11 @@
       <c r="Q156" s="28"/>
       <c r="R156" s="28"/>
       <c r="S156" s="46">
-        <f t="shared" si="45"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="T156" s="72" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="85"/>
         <v>NorthBound</v>
       </c>
       <c r="U156" s="108">
@@ -19701,27 +19705,27 @@
         <v>12</v>
       </c>
       <c r="V156" s="77" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="86"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-07-12 23:22:57-0600',mode:absolute,to:'2016-07-13 02:06:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W156" s="77" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="87"/>
         <v>N</v>
       </c>
       <c r="X156" s="103">
-        <f t="shared" si="49"/>
+        <f t="shared" si="88"/>
         <v>1</v>
       </c>
       <c r="Y156" s="100">
-        <f t="shared" si="50"/>
+        <f t="shared" si="89"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="Z156" s="100">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>23.3293</v>
       </c>
       <c r="AA156" s="100">
-        <f t="shared" si="52"/>
+        <f t="shared" si="91"/>
         <v>23.282900000000001</v>
       </c>
       <c r="AB156" s="97" t="e">
@@ -19733,19 +19737,19 @@
         <v>#N/A</v>
       </c>
       <c r="AD156" s="94" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="92"/>
         <v>0243-12</v>
       </c>
       <c r="AE156" s="78" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="93"/>
         <v>aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4011/2016-07-13/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-13 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-13 &amp; aws s3 cp s3://rtdc.mdm.uploadarchive/RTDC4011/2016-07-14/ "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-14 --recursive &amp; "C:\Users\stu\Documents\GitHub\mrs-test-scripts\Headless Mode &amp; Sideloading\WalkAndUnGZ.bat" "C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations"\RTDC4011\2016-07-14</v>
       </c>
       <c r="AF156" s="78" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="94"/>
         <v>"C:\Program Files (x86)\AstroGrep\AstroGrep.exe" /spath="C:\Users\stu\Documents\Analysis\2016-02-23 RTDC Observations" /stypes="*4011*20160713*" /stext=" 07:.+((prompt.+disp)|(slice.+state.+chan)|(ment ac)|(system.+state.+chan)|(\|lc)|(penalty)|(\[timeout))" /e /r /s</v>
       </c>
       <c r="AG156" s="1" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="95"/>
         <v>EC</v>
       </c>
     </row>
